--- a/excel/finished/环保/6BF-煤气布袋除尘报表.xlsx
+++ b/excel/finished/环保/6BF-煤气布袋除尘报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="6BF-煤气布袋除尘报表" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
   <si>
     <t>6号高炉煤气布袋除尘器运行记录</t>
   </si>
@@ -666,14 +666,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,21 +722,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -743,22 +729,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,7 +759,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,16 +781,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,6 +821,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -829,36 +860,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,6 +884,17 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -899,7 +911,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,7 +947,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,19 +1019,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,25 +1037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,72 +1055,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1061,25 +1067,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,15 +1268,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1276,6 +1279,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1297,9 +1333,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1307,8 +1345,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1327,42 +1365,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1371,137 +1383,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1531,6 +1543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1585,39 +1598,60 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1945,8 +1979,8 @@
   <sheetPr/>
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1954,2446 +1988,2449 @@
     <col min="5" max="6" width="9.375"/>
     <col min="15" max="15" width="10.375"/>
     <col min="16" max="16" width="12.625"/>
+    <col min="17" max="17" width="9" style="11"/>
+    <col min="19" max="19" width="24" customWidth="1"/>
+    <col min="24" max="24" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:24">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
     </row>
     <row r="2" ht="15" spans="1:24">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="14" t="str">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="15" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="13" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
     </row>
     <row r="3" ht="14.25" spans="1:24">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16" t="s">
+      <c r="K3" s="17"/>
+      <c r="L3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16" t="s">
+      <c r="M3" s="17"/>
+      <c r="N3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16" t="s">
+      <c r="O3" s="17"/>
+      <c r="P3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16" t="s">
+      <c r="Q3" s="32"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="29" t="s">
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="30" t="s">
+      <c r="W3" s="33"/>
+      <c r="X3" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:24">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="T4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="U4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="V4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="W4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="31"/>
+      <c r="X4" s="36"/>
     </row>
     <row r="5" ht="12" customHeight="1" spans="1:24">
-      <c r="A5" s="19">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="str">
+      <c r="B5" s="21" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A2:_tag_day_hour!R2)=0,"",COUNTIF(_tag_day_hour!A2:_tag_day_hour!R2,"=0"))</f>
         <v/>
       </c>
-      <c r="C5" s="21" t="str">
+      <c r="C5" s="22" t="str">
         <f>IF(_tag_day_hour!S2="","",_tag_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="D5" s="21" t="str">
+      <c r="D5" s="22" t="str">
         <f>IF(_tag_day_hour!T2="","",_tag_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="E5" s="21" t="str">
+      <c r="E5" s="22" t="str">
         <f>IF(_tag_day_hour!U2="","",_tag_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="F5" s="21" t="str">
+      <c r="F5" s="22" t="str">
         <f>IF(_tag_day_hour!V2="","",_tag_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="G5" s="21" t="str">
+      <c r="G5" s="22" t="str">
         <f t="shared" ref="G5:G28" si="0">IFERROR(E5-F5,"")</f>
         <v/>
       </c>
-      <c r="H5" s="22" t="str">
+      <c r="H5" s="23" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W26:_tag_day_hour!AN26),_tag_day_hour!W26:_tag_day_hour!AN26,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W26:_tag_day_hour!AN26),_tag_day_hour!W26:_tag_day_hour!AN26,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I5" s="21" t="str">
+      <c r="I5" s="22" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W26:_tag_day_hour!AN26)=18,"",MAX(_tag_day_hour!W26:_tag_day_hour!AN26))</f>
         <v/>
       </c>
-      <c r="J5" s="22" t="str">
+      <c r="J5" s="23" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W26:_tag_day_hour!AN26),_tag_day_hour!W26:_tag_day_hour!AN26,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W26:_tag_day_hour!AN26),_tag_day_hour!W26:_tag_day_hour!AN26,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K5" s="21" t="str">
+      <c r="K5" s="22" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W26:_tag_day_hour!AN26)=18,"",MIN(_tag_day_hour!W26:_tag_day_hour!AN26))</f>
         <v/>
       </c>
-      <c r="L5" s="22" t="str">
+      <c r="L5" s="23" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA3:_tag_day_hour!CR3),_tag_day_hour!CA3:_tag_day_hour!CR3,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA3:_tag_day_hour!CR3),_tag_day_hour!CA3:_tag_day_hour!CR3,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M5" s="21" t="str">
+      <c r="M5" s="22" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA3:_tag_day_hour!CR3)=18,"",MAX(_tag_day_hour!CA3:_tag_day_hour!CR3))</f>
         <v/>
       </c>
-      <c r="N5" s="22" t="str">
+      <c r="N5" s="23" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA3:_tag_day_hour!CR3),_tag_day_hour!CA3:_tag_day_hour!CR3,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA3:_tag_day_hour!CR3),_tag_day_hour!CA3:_tag_day_hour!CR3,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O5" s="21" t="str">
+      <c r="O5" s="22" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA3:_tag_day_hour!CR3)=18,"",MIN(_tag_day_hour!CA3:_tag_day_hour!CR3))</f>
         <v/>
       </c>
-      <c r="P5" s="21" t="str">
+      <c r="P5" s="22" t="str">
         <f>IF(_tag_day_hour!BY2="","",_tag_day_hour!BY2)</f>
         <v/>
       </c>
-      <c r="Q5" s="21" t="str">
+      <c r="Q5" s="37" t="str">
         <f>IF(_tag_day_hour!BZ2="","",_tag_day_hour!BZ2)</f>
         <v/>
       </c>
-      <c r="R5" s="32" t="str">
+      <c r="R5" s="38" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS26:_tag_day_hour!DJ26)=18,"",AVERAGE(_tag_day_hour!CS26:_tag_day_hour!DJ26))</f>
         <v/>
       </c>
-      <c r="S5" s="33" t="str">
+      <c r="S5" s="39" t="str">
         <f>IF(_fanchui6_day_hour!A2="","",_fanchui6_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="T5" s="32" t="str">
+      <c r="T5" s="38" t="str">
         <f>IF(_fanchui6_day_hour!B2="","",_fanchui6_day_hour!B2-_fanchui6_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="U5" s="32" t="str">
+      <c r="U5" s="38" t="str">
         <f>IF(_fanchui6_day_hour!D2="","",_fanchui6_day_hour!D2-_fanchui6_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="V5" s="21" t="str">
+      <c r="V5" s="22" t="str">
         <f>IF(_maxmin_day_hour!A2="","",_maxmin_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="W5" s="21" t="str">
+      <c r="W5" s="22" t="str">
         <f>IF(_maxmin_day_hour!B2="","",_maxmin_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="X5" s="34" t="s">
+      <c r="X5" s="40" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="23">
+      <c r="A6" s="24">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="str">
+      <c r="B6" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A3:_tag_day_hour!R3)=0,"",COUNTIF(_tag_day_hour!A3:_tag_day_hour!R3,"=0"))</f>
         <v/>
       </c>
-      <c r="C6" s="25" t="str">
+      <c r="C6" s="26" t="str">
         <f>IF(_tag_day_hour!S3="","",_tag_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="D6" s="25" t="str">
+      <c r="D6" s="26" t="str">
         <f>IF(_tag_day_hour!T3="","",_tag_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="E6" s="25" t="str">
+      <c r="E6" s="26" t="str">
         <f>IF(_tag_day_hour!U3="","",_tag_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="F6" s="25" t="str">
+      <c r="F6" s="26" t="str">
         <f>IF(_tag_day_hour!V3="","",_tag_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="G6" s="25" t="str">
+      <c r="G6" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H6" s="24" t="str">
+      <c r="H6" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W27:_tag_day_hour!AN27),_tag_day_hour!W27:_tag_day_hour!AN27,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W27:_tag_day_hour!AN27),_tag_day_hour!W27:_tag_day_hour!AN27,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I6" s="25" t="str">
+      <c r="I6" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W27:_tag_day_hour!AN27)=18,"",MAX(_tag_day_hour!W27:_tag_day_hour!AN27))</f>
         <v/>
       </c>
-      <c r="J6" s="24" t="str">
+      <c r="J6" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W27:_tag_day_hour!AN27),_tag_day_hour!W27:_tag_day_hour!AN27,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W27:_tag_day_hour!AN27),_tag_day_hour!W27:_tag_day_hour!AN27,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K6" s="25" t="str">
+      <c r="K6" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W27:_tag_day_hour!AN27)=18,"",MIN(_tag_day_hour!W27:_tag_day_hour!AN27))</f>
         <v/>
       </c>
-      <c r="L6" s="24" t="str">
+      <c r="L6" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA4:_tag_day_hour!CR4),_tag_day_hour!CA4:_tag_day_hour!CR4,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA4:_tag_day_hour!CR4),_tag_day_hour!CA4:_tag_day_hour!CR4,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M6" s="25" t="str">
+      <c r="M6" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA4:_tag_day_hour!CR4)=18,"",MAX(_tag_day_hour!CA4:_tag_day_hour!CR4))</f>
         <v/>
       </c>
-      <c r="N6" s="24" t="str">
+      <c r="N6" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA4:_tag_day_hour!CR4),_tag_day_hour!CA4:_tag_day_hour!CR4,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA4:_tag_day_hour!CR4),_tag_day_hour!CA4:_tag_day_hour!CR4,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O6" s="25" t="str">
+      <c r="O6" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA4:_tag_day_hour!CR4)=18,"",MIN(_tag_day_hour!CA4:_tag_day_hour!CR4))</f>
         <v/>
       </c>
-      <c r="P6" s="25" t="str">
+      <c r="P6" s="26" t="str">
         <f>IF(_tag_day_hour!BY3="","",_tag_day_hour!BY3)</f>
         <v/>
       </c>
-      <c r="Q6" s="25" t="str">
+      <c r="Q6" s="41" t="str">
         <f>IF(_tag_day_hour!BZ3="","",_tag_day_hour!BZ3)</f>
         <v/>
       </c>
-      <c r="R6" s="35" t="str">
+      <c r="R6" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS27:_tag_day_hour!DJ27)=18,"",AVERAGE(_tag_day_hour!CS27:_tag_day_hour!DJ27))</f>
         <v/>
       </c>
-      <c r="S6" s="36" t="str">
+      <c r="S6" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A3="","",_fanchui6_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="T6" s="35" t="str">
+      <c r="T6" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B3="","",_fanchui6_day_hour!B3-_fanchui6_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="U6" s="35" t="str">
+      <c r="U6" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D3="","",_fanchui6_day_hour!D3-_fanchui6_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="V6" s="25" t="str">
+      <c r="V6" s="26" t="str">
         <f>IF(_maxmin_day_hour!A3="","",_maxmin_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="W6" s="25" t="str">
+      <c r="W6" s="26" t="str">
         <f>IF(_maxmin_day_hour!B3="","",_maxmin_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="X6" s="37"/>
+      <c r="X6" s="44"/>
     </row>
     <row r="7" ht="14.25" spans="1:24">
-      <c r="A7" s="19">
+      <c r="A7" s="20">
         <v>3</v>
       </c>
-      <c r="B7" s="24" t="str">
+      <c r="B7" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A4:_tag_day_hour!R4)=0,"",COUNTIF(_tag_day_hour!A4:_tag_day_hour!R4,"=0"))</f>
         <v/>
       </c>
-      <c r="C7" s="25" t="str">
+      <c r="C7" s="26" t="str">
         <f>IF(_tag_day_hour!S4="","",_tag_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="D7" s="25" t="str">
+      <c r="D7" s="26" t="str">
         <f>IF(_tag_day_hour!T4="","",_tag_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="E7" s="25" t="str">
+      <c r="E7" s="26" t="str">
         <f>IF(_tag_day_hour!U4="","",_tag_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="F7" s="25" t="str">
+      <c r="F7" s="26" t="str">
         <f>IF(_tag_day_hour!V4="","",_tag_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="G7" s="25" t="str">
+      <c r="G7" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H7" s="24" t="str">
+      <c r="H7" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W28:_tag_day_hour!AN28),_tag_day_hour!W28:_tag_day_hour!AN28,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W28:_tag_day_hour!AN28),_tag_day_hour!W28:_tag_day_hour!AN28,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I7" s="25" t="str">
+      <c r="I7" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W28:_tag_day_hour!AN28)=18,"",MAX(_tag_day_hour!W28:_tag_day_hour!AN28))</f>
         <v/>
       </c>
-      <c r="J7" s="24" t="str">
+      <c r="J7" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W28:_tag_day_hour!AN28),_tag_day_hour!W28:_tag_day_hour!AN28,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W28:_tag_day_hour!AN28),_tag_day_hour!W28:_tag_day_hour!AN28,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K7" s="25" t="str">
+      <c r="K7" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W28:_tag_day_hour!AN28)=18,"",MIN(_tag_day_hour!W28:_tag_day_hour!AN28))</f>
         <v/>
       </c>
-      <c r="L7" s="24" t="str">
+      <c r="L7" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA5:_tag_day_hour!CR5),_tag_day_hour!CA5:_tag_day_hour!CR5,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA5:_tag_day_hour!CR5),_tag_day_hour!CA5:_tag_day_hour!CR5,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M7" s="25" t="str">
+      <c r="M7" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA5:_tag_day_hour!CR5)=18,"",MAX(_tag_day_hour!CA5:_tag_day_hour!CR5))</f>
         <v/>
       </c>
-      <c r="N7" s="24" t="str">
+      <c r="N7" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA5:_tag_day_hour!CR5),_tag_day_hour!CA5:_tag_day_hour!CR5,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA5:_tag_day_hour!CR5),_tag_day_hour!CA5:_tag_day_hour!CR5,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O7" s="25" t="str">
+      <c r="O7" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA5:_tag_day_hour!CR5)=18,"",MIN(_tag_day_hour!CA5:_tag_day_hour!CR5))</f>
         <v/>
       </c>
-      <c r="P7" s="25" t="str">
+      <c r="P7" s="26" t="str">
         <f>IF(_tag_day_hour!BY4="","",_tag_day_hour!BY4)</f>
         <v/>
       </c>
-      <c r="Q7" s="25" t="str">
+      <c r="Q7" s="41" t="str">
         <f>IF(_tag_day_hour!BZ4="","",_tag_day_hour!BZ4)</f>
         <v/>
       </c>
-      <c r="R7" s="35" t="str">
+      <c r="R7" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS28:_tag_day_hour!DJ28)=18,"",AVERAGE(_tag_day_hour!CS28:_tag_day_hour!DJ28))</f>
         <v/>
       </c>
-      <c r="S7" s="36" t="str">
+      <c r="S7" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A4="","",_fanchui6_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="T7" s="35" t="str">
+      <c r="T7" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B4="","",_fanchui6_day_hour!B4-_fanchui6_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="U7" s="35" t="str">
+      <c r="U7" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D4="","",_fanchui6_day_hour!D4-_fanchui6_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="V7" s="25" t="str">
+      <c r="V7" s="26" t="str">
         <f>IF(_maxmin_day_hour!A4="","",_maxmin_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="W7" s="25" t="str">
+      <c r="W7" s="26" t="str">
         <f>IF(_maxmin_day_hour!B4="","",_maxmin_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="X7" s="37"/>
+      <c r="X7" s="44"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="23">
+      <c r="A8" s="24">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="str">
+      <c r="B8" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A5:_tag_day_hour!R5)=0,"",COUNTIF(_tag_day_hour!A5:_tag_day_hour!R5,"=0"))</f>
         <v/>
       </c>
-      <c r="C8" s="25" t="str">
+      <c r="C8" s="26" t="str">
         <f>IF(_tag_day_hour!S5="","",_tag_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="D8" s="25" t="str">
+      <c r="D8" s="26" t="str">
         <f>IF(_tag_day_hour!T5="","",_tag_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="E8" s="25" t="str">
+      <c r="E8" s="26" t="str">
         <f>IF(_tag_day_hour!U5="","",_tag_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="F8" s="25" t="str">
+      <c r="F8" s="26" t="str">
         <f>IF(_tag_day_hour!V5="","",_tag_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="G8" s="25" t="str">
+      <c r="G8" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="H8" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W29:_tag_day_hour!AN29),_tag_day_hour!W29:_tag_day_hour!AN29,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W29:_tag_day_hour!AN29),_tag_day_hour!W29:_tag_day_hour!AN29,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I8" s="25" t="str">
+      <c r="I8" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W29:_tag_day_hour!AN29)=18,"",MAX(_tag_day_hour!W29:_tag_day_hour!AN29))</f>
         <v/>
       </c>
-      <c r="J8" s="24" t="str">
+      <c r="J8" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W29:_tag_day_hour!AN29),_tag_day_hour!W29:_tag_day_hour!AN29,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W29:_tag_day_hour!AN29),_tag_day_hour!W29:_tag_day_hour!AN29,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K8" s="25" t="str">
+      <c r="K8" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W29:_tag_day_hour!AN29)=18,"",MIN(_tag_day_hour!W29:_tag_day_hour!AN29))</f>
         <v/>
       </c>
-      <c r="L8" s="24" t="str">
+      <c r="L8" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA6:_tag_day_hour!CR6),_tag_day_hour!CA6:_tag_day_hour!CR6,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA6:_tag_day_hour!CR6),_tag_day_hour!CA6:_tag_day_hour!CR6,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M8" s="25" t="str">
+      <c r="M8" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA6:_tag_day_hour!CR6)=18,"",MAX(_tag_day_hour!CA6:_tag_day_hour!CR6))</f>
         <v/>
       </c>
-      <c r="N8" s="24" t="str">
+      <c r="N8" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA6:_tag_day_hour!CR6),_tag_day_hour!CA6:_tag_day_hour!CR6,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA6:_tag_day_hour!CR6),_tag_day_hour!CA6:_tag_day_hour!CR6,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O8" s="25" t="str">
+      <c r="O8" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA6:_tag_day_hour!CR6)=18,"",MIN(_tag_day_hour!CA6:_tag_day_hour!CR6))</f>
         <v/>
       </c>
-      <c r="P8" s="25" t="str">
+      <c r="P8" s="26" t="str">
         <f>IF(_tag_day_hour!BY5="","",_tag_day_hour!BY5)</f>
         <v/>
       </c>
-      <c r="Q8" s="25" t="str">
+      <c r="Q8" s="41" t="str">
         <f>IF(_tag_day_hour!BZ5="","",_tag_day_hour!BZ5)</f>
         <v/>
       </c>
-      <c r="R8" s="35" t="str">
+      <c r="R8" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS29:_tag_day_hour!DJ29)=18,"",AVERAGE(_tag_day_hour!CS29:_tag_day_hour!DJ29))</f>
         <v/>
       </c>
-      <c r="S8" s="36" t="str">
+      <c r="S8" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A5="","",_fanchui6_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="T8" s="35" t="str">
+      <c r="T8" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B5="","",_fanchui6_day_hour!B5-_fanchui6_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="U8" s="35" t="str">
+      <c r="U8" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D5="","",_fanchui6_day_hour!D5-_fanchui6_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="V8" s="25" t="str">
+      <c r="V8" s="26" t="str">
         <f>IF(_maxmin_day_hour!A5="","",_maxmin_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="W8" s="25" t="str">
+      <c r="W8" s="26" t="str">
         <f>IF(_maxmin_day_hour!B5="","",_maxmin_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="X8" s="37"/>
+      <c r="X8" s="44"/>
     </row>
     <row r="9" ht="14.25" spans="1:24">
-      <c r="A9" s="19">
+      <c r="A9" s="20">
         <v>5</v>
       </c>
-      <c r="B9" s="24" t="str">
+      <c r="B9" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A6:_tag_day_hour!R6)=0,"",COUNTIF(_tag_day_hour!A6:_tag_day_hour!R6,"=0"))</f>
         <v/>
       </c>
-      <c r="C9" s="25" t="str">
+      <c r="C9" s="26" t="str">
         <f>IF(_tag_day_hour!S6="","",_tag_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="D9" s="25" t="str">
+      <c r="D9" s="26" t="str">
         <f>IF(_tag_day_hour!T6="","",_tag_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="E9" s="25" t="str">
+      <c r="E9" s="26" t="str">
         <f>IF(_tag_day_hour!U6="","",_tag_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="F9" s="25" t="str">
+      <c r="F9" s="26" t="str">
         <f>IF(_tag_day_hour!V6="","",_tag_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="G9" s="25" t="str">
+      <c r="G9" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H9" s="24" t="str">
+      <c r="H9" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W30:_tag_day_hour!AN30),_tag_day_hour!W30:_tag_day_hour!AN30,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W30:_tag_day_hour!AN30),_tag_day_hour!W30:_tag_day_hour!AN30,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I9" s="25" t="str">
+      <c r="I9" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W30:_tag_day_hour!AN30)=18,"",MAX(_tag_day_hour!W30:_tag_day_hour!AN30))</f>
         <v/>
       </c>
-      <c r="J9" s="24" t="str">
+      <c r="J9" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W30:_tag_day_hour!AN30),_tag_day_hour!W30:_tag_day_hour!AN30,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W30:_tag_day_hour!AN30),_tag_day_hour!W30:_tag_day_hour!AN30,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K9" s="25" t="str">
+      <c r="K9" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W30:_tag_day_hour!AN30)=18,"",MIN(_tag_day_hour!W30:_tag_day_hour!AN30))</f>
         <v/>
       </c>
-      <c r="L9" s="24" t="str">
+      <c r="L9" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA7:_tag_day_hour!CR7),_tag_day_hour!CA7:_tag_day_hour!CR7,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA7:_tag_day_hour!CR7),_tag_day_hour!CA7:_tag_day_hour!CR7,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M9" s="25" t="str">
+      <c r="M9" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA7:_tag_day_hour!CR7)=18,"",MAX(_tag_day_hour!CA7:_tag_day_hour!CR7))</f>
         <v/>
       </c>
-      <c r="N9" s="24" t="str">
+      <c r="N9" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA7:_tag_day_hour!CR7),_tag_day_hour!CA7:_tag_day_hour!CR7,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA7:_tag_day_hour!CR7),_tag_day_hour!CA7:_tag_day_hour!CR7,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O9" s="25" t="str">
+      <c r="O9" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA7:_tag_day_hour!CR7)=18,"",MIN(_tag_day_hour!CA7:_tag_day_hour!CR7))</f>
         <v/>
       </c>
-      <c r="P9" s="25" t="str">
+      <c r="P9" s="26" t="str">
         <f>IF(_tag_day_hour!BY6="","",_tag_day_hour!BY6)</f>
         <v/>
       </c>
-      <c r="Q9" s="25" t="str">
+      <c r="Q9" s="41" t="str">
         <f>IF(_tag_day_hour!BZ6="","",_tag_day_hour!BZ6)</f>
         <v/>
       </c>
-      <c r="R9" s="35" t="str">
+      <c r="R9" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS30:_tag_day_hour!DJ30)=18,"",AVERAGE(_tag_day_hour!CS30:_tag_day_hour!DJ30))</f>
         <v/>
       </c>
-      <c r="S9" s="36" t="str">
+      <c r="S9" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A6="","",_fanchui6_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="T9" s="35" t="str">
+      <c r="T9" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B6="","",_fanchui6_day_hour!B6-_fanchui6_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="U9" s="35" t="str">
+      <c r="U9" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D6="","",_fanchui6_day_hour!D6-_fanchui6_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="V9" s="25" t="str">
+      <c r="V9" s="26" t="str">
         <f>IF(_maxmin_day_hour!A6="","",_maxmin_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="W9" s="25" t="str">
+      <c r="W9" s="26" t="str">
         <f>IF(_maxmin_day_hour!B6="","",_maxmin_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="X9" s="37"/>
+      <c r="X9" s="44"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="23">
+      <c r="A10" s="24">
         <v>6</v>
       </c>
-      <c r="B10" s="24" t="str">
+      <c r="B10" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A7:_tag_day_hour!R7)=0,"",COUNTIF(_tag_day_hour!A7:_tag_day_hour!R7,"=0"))</f>
         <v/>
       </c>
-      <c r="C10" s="25" t="str">
+      <c r="C10" s="26" t="str">
         <f>IF(_tag_day_hour!S7="","",_tag_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="D10" s="25" t="str">
+      <c r="D10" s="26" t="str">
         <f>IF(_tag_day_hour!T7="","",_tag_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="E10" s="25" t="str">
+      <c r="E10" s="26" t="str">
         <f>IF(_tag_day_hour!U7="","",_tag_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="F10" s="25" t="str">
+      <c r="F10" s="26" t="str">
         <f>IF(_tag_day_hour!V7="","",_tag_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="G10" s="25" t="str">
+      <c r="G10" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H10" s="24" t="str">
+      <c r="H10" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W31:_tag_day_hour!AN31),_tag_day_hour!W31:_tag_day_hour!AN31,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W31:_tag_day_hour!AN31),_tag_day_hour!W31:_tag_day_hour!AN31,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I10" s="25" t="str">
+      <c r="I10" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W31:_tag_day_hour!AN31)=18,"",MAX(_tag_day_hour!W31:_tag_day_hour!AN31))</f>
         <v/>
       </c>
-      <c r="J10" s="24" t="str">
+      <c r="J10" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W31:_tag_day_hour!AN31),_tag_day_hour!W31:_tag_day_hour!AN31,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W31:_tag_day_hour!AN31),_tag_day_hour!W31:_tag_day_hour!AN31,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K10" s="25" t="str">
+      <c r="K10" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W31:_tag_day_hour!AN31)=18,"",MIN(_tag_day_hour!W31:_tag_day_hour!AN31))</f>
         <v/>
       </c>
-      <c r="L10" s="24" t="str">
+      <c r="L10" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA8:_tag_day_hour!CR8),_tag_day_hour!CA8:_tag_day_hour!CR8,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA8:_tag_day_hour!CR8),_tag_day_hour!CA8:_tag_day_hour!CR8,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M10" s="25" t="str">
+      <c r="M10" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA8:_tag_day_hour!CR8)=18,"",MAX(_tag_day_hour!CA8:_tag_day_hour!CR8))</f>
         <v/>
       </c>
-      <c r="N10" s="24" t="str">
+      <c r="N10" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA8:_tag_day_hour!CR8),_tag_day_hour!CA8:_tag_day_hour!CR8,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA8:_tag_day_hour!CR8),_tag_day_hour!CA8:_tag_day_hour!CR8,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O10" s="25" t="str">
+      <c r="O10" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA8:_tag_day_hour!CR8)=18,"",MIN(_tag_day_hour!CA8:_tag_day_hour!CR8))</f>
         <v/>
       </c>
-      <c r="P10" s="25" t="str">
+      <c r="P10" s="26" t="str">
         <f>IF(_tag_day_hour!BY7="","",_tag_day_hour!BY7)</f>
         <v/>
       </c>
-      <c r="Q10" s="25" t="str">
+      <c r="Q10" s="41" t="str">
         <f>IF(_tag_day_hour!BZ7="","",_tag_day_hour!BZ7)</f>
         <v/>
       </c>
-      <c r="R10" s="35" t="str">
+      <c r="R10" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS31:_tag_day_hour!DJ31)=18,"",AVERAGE(_tag_day_hour!CS31:_tag_day_hour!DJ31))</f>
         <v/>
       </c>
-      <c r="S10" s="36" t="str">
+      <c r="S10" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A7="","",_fanchui6_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="T10" s="35" t="str">
+      <c r="T10" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B7="","",_fanchui6_day_hour!B7-_fanchui6_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="U10" s="35" t="str">
+      <c r="U10" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D7="","",_fanchui6_day_hour!D7-_fanchui6_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="V10" s="25" t="str">
+      <c r="V10" s="26" t="str">
         <f>IF(_maxmin_day_hour!A7="","",_maxmin_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="W10" s="25" t="str">
+      <c r="W10" s="26" t="str">
         <f>IF(_maxmin_day_hour!B7="","",_maxmin_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="X10" s="37"/>
+      <c r="X10" s="44"/>
     </row>
     <row r="11" ht="14.25" spans="1:24">
-      <c r="A11" s="19">
+      <c r="A11" s="20">
         <v>7</v>
       </c>
-      <c r="B11" s="24" t="str">
+      <c r="B11" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A8:_tag_day_hour!R8)=0,"",COUNTIF(_tag_day_hour!A8:_tag_day_hour!R8,"=0"))</f>
         <v/>
       </c>
-      <c r="C11" s="25" t="str">
+      <c r="C11" s="26" t="str">
         <f>IF(_tag_day_hour!S8="","",_tag_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="D11" s="25" t="str">
+      <c r="D11" s="26" t="str">
         <f>IF(_tag_day_hour!T8="","",_tag_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="E11" s="25" t="str">
+      <c r="E11" s="26" t="str">
         <f>IF(_tag_day_hour!U8="","",_tag_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="F11" s="25" t="str">
+      <c r="F11" s="26" t="str">
         <f>IF(_tag_day_hour!V8="","",_tag_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="G11" s="25" t="str">
+      <c r="G11" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H11" s="24" t="str">
+      <c r="H11" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W32:_tag_day_hour!AN32),_tag_day_hour!W32:_tag_day_hour!AN32,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W32:_tag_day_hour!AN32),_tag_day_hour!W32:_tag_day_hour!AN32,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I11" s="25" t="str">
+      <c r="I11" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W32:_tag_day_hour!AN32)=18,"",MAX(_tag_day_hour!W32:_tag_day_hour!AN32))</f>
         <v/>
       </c>
-      <c r="J11" s="24" t="str">
+      <c r="J11" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W32:_tag_day_hour!AN32),_tag_day_hour!W32:_tag_day_hour!AN32,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W32:_tag_day_hour!AN32),_tag_day_hour!W32:_tag_day_hour!AN32,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K11" s="25" t="str">
+      <c r="K11" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W32:_tag_day_hour!AN32)=18,"",MIN(_tag_day_hour!W32:_tag_day_hour!AN32))</f>
         <v/>
       </c>
-      <c r="L11" s="24" t="str">
+      <c r="L11" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA9:_tag_day_hour!CR9),_tag_day_hour!CA9:_tag_day_hour!CR9,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA9:_tag_day_hour!CR9),_tag_day_hour!CA9:_tag_day_hour!CR9,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M11" s="25" t="str">
+      <c r="M11" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA9:_tag_day_hour!CR9)=18,"",MAX(_tag_day_hour!CA9:_tag_day_hour!CR9))</f>
         <v/>
       </c>
-      <c r="N11" s="24" t="str">
+      <c r="N11" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA9:_tag_day_hour!CR9),_tag_day_hour!CA9:_tag_day_hour!CR9,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA9:_tag_day_hour!CR9),_tag_day_hour!CA9:_tag_day_hour!CR9,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O11" s="25" t="str">
+      <c r="O11" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA9:_tag_day_hour!CR9)=18,"",MIN(_tag_day_hour!CA9:_tag_day_hour!CR9))</f>
         <v/>
       </c>
-      <c r="P11" s="25" t="str">
+      <c r="P11" s="26" t="str">
         <f>IF(_tag_day_hour!BY8="","",_tag_day_hour!BY8)</f>
         <v/>
       </c>
-      <c r="Q11" s="25" t="str">
+      <c r="Q11" s="41" t="str">
         <f>IF(_tag_day_hour!BZ8="","",_tag_day_hour!BZ8)</f>
         <v/>
       </c>
-      <c r="R11" s="35" t="str">
+      <c r="R11" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS32:_tag_day_hour!DJ32)=18,"",AVERAGE(_tag_day_hour!CS32:_tag_day_hour!DJ32))</f>
         <v/>
       </c>
-      <c r="S11" s="36" t="str">
+      <c r="S11" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A8="","",_fanchui6_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="T11" s="35" t="str">
+      <c r="T11" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B8="","",_fanchui6_day_hour!B8-_fanchui6_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="U11" s="35" t="str">
+      <c r="U11" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D8="","",_fanchui6_day_hour!D8-_fanchui6_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="V11" s="25" t="str">
+      <c r="V11" s="26" t="str">
         <f>IF(_maxmin_day_hour!A8="","",_maxmin_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="W11" s="25" t="str">
+      <c r="W11" s="26" t="str">
         <f>IF(_maxmin_day_hour!B8="","",_maxmin_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="X11" s="37"/>
+      <c r="X11" s="44"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="23">
+      <c r="A12" s="24">
         <v>8</v>
       </c>
-      <c r="B12" s="24" t="str">
+      <c r="B12" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A9:_tag_day_hour!R9)=0,"",COUNTIF(_tag_day_hour!A9:_tag_day_hour!R9,"=0"))</f>
         <v/>
       </c>
-      <c r="C12" s="25" t="str">
+      <c r="C12" s="26" t="str">
         <f>IF(_tag_day_hour!S9="","",_tag_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="D12" s="25" t="str">
+      <c r="D12" s="26" t="str">
         <f>IF(_tag_day_hour!T9="","",_tag_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="E12" s="25" t="str">
+      <c r="E12" s="26" t="str">
         <f>IF(_tag_day_hour!U9="","",_tag_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="F12" s="25" t="str">
+      <c r="F12" s="26" t="str">
         <f>IF(_tag_day_hour!V9="","",_tag_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="G12" s="25" t="str">
+      <c r="G12" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H12" s="24" t="str">
+      <c r="H12" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W33:_tag_day_hour!AN33),_tag_day_hour!W33:_tag_day_hour!AN33,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W33:_tag_day_hour!AN33),_tag_day_hour!W33:_tag_day_hour!AN33,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I12" s="25" t="str">
+      <c r="I12" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W33:_tag_day_hour!AN33)=18,"",MAX(_tag_day_hour!W33:_tag_day_hour!AN33))</f>
         <v/>
       </c>
-      <c r="J12" s="24" t="str">
+      <c r="J12" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W33:_tag_day_hour!AN33),_tag_day_hour!W33:_tag_day_hour!AN33,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W33:_tag_day_hour!AN33),_tag_day_hour!W33:_tag_day_hour!AN33,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K12" s="25" t="str">
+      <c r="K12" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W33:_tag_day_hour!AN33)=18,"",MIN(_tag_day_hour!W33:_tag_day_hour!AN33))</f>
         <v/>
       </c>
-      <c r="L12" s="24" t="str">
+      <c r="L12" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA10:_tag_day_hour!CR10),_tag_day_hour!CA10:_tag_day_hour!CR10,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA10:_tag_day_hour!CR10),_tag_day_hour!CA10:_tag_day_hour!CR10,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M12" s="25" t="str">
+      <c r="M12" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA10:_tag_day_hour!CR10)=18,"",MAX(_tag_day_hour!CA10:_tag_day_hour!CR10))</f>
         <v/>
       </c>
-      <c r="N12" s="24" t="str">
+      <c r="N12" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA10:_tag_day_hour!CR10),_tag_day_hour!CA10:_tag_day_hour!CR10,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA10:_tag_day_hour!CR10),_tag_day_hour!CA10:_tag_day_hour!CR10,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O12" s="25" t="str">
+      <c r="O12" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA10:_tag_day_hour!CR10)=18,"",MIN(_tag_day_hour!CA10:_tag_day_hour!CR10))</f>
         <v/>
       </c>
-      <c r="P12" s="25" t="str">
+      <c r="P12" s="26" t="str">
         <f>IF(_tag_day_hour!BY9="","",_tag_day_hour!BY9)</f>
         <v/>
       </c>
-      <c r="Q12" s="25" t="str">
+      <c r="Q12" s="41" t="str">
         <f>IF(_tag_day_hour!BZ9="","",_tag_day_hour!BZ9)</f>
         <v/>
       </c>
-      <c r="R12" s="35" t="str">
+      <c r="R12" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS33:_tag_day_hour!DJ33)=18,"",AVERAGE(_tag_day_hour!CS33:_tag_day_hour!DJ33))</f>
         <v/>
       </c>
-      <c r="S12" s="36" t="str">
+      <c r="S12" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A9="","",_fanchui6_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="T12" s="35" t="str">
+      <c r="T12" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B9="","",_fanchui6_day_hour!B9-_fanchui6_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="U12" s="35" t="str">
+      <c r="U12" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D9="","",_fanchui6_day_hour!D9-_fanchui6_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="V12" s="25" t="str">
+      <c r="V12" s="26" t="str">
         <f>IF(_maxmin_day_hour!A9="","",_maxmin_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="W12" s="25" t="str">
+      <c r="W12" s="26" t="str">
         <f>IF(_maxmin_day_hour!B9="","",_maxmin_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="X12" s="37"/>
+      <c r="X12" s="44"/>
     </row>
     <row r="13" ht="14.25" spans="1:24">
-      <c r="A13" s="19">
+      <c r="A13" s="20">
         <v>9</v>
       </c>
-      <c r="B13" s="24" t="str">
+      <c r="B13" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A10:_tag_day_hour!R10)=0,"",COUNTIF(_tag_day_hour!A10:_tag_day_hour!R10,"=0"))</f>
         <v/>
       </c>
-      <c r="C13" s="25" t="str">
+      <c r="C13" s="26" t="str">
         <f>IF(_tag_day_hour!S10="","",_tag_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="D13" s="25" t="str">
+      <c r="D13" s="26" t="str">
         <f>IF(_tag_day_hour!T10="","",_tag_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="E13" s="25" t="str">
+      <c r="E13" s="26" t="str">
         <f>IF(_tag_day_hour!U10="","",_tag_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="F13" s="25" t="str">
+      <c r="F13" s="26" t="str">
         <f>IF(_tag_day_hour!V10="","",_tag_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="G13" s="25" t="str">
+      <c r="G13" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H13" s="24" t="str">
+      <c r="H13" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W34:_tag_day_hour!AN34),_tag_day_hour!W34:_tag_day_hour!AN34,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W34:_tag_day_hour!AN34),_tag_day_hour!W34:_tag_day_hour!AN34,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I13" s="25" t="str">
+      <c r="I13" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W34:_tag_day_hour!AN34)=18,"",MAX(_tag_day_hour!W34:_tag_day_hour!AN34))</f>
         <v/>
       </c>
-      <c r="J13" s="24" t="str">
+      <c r="J13" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W34:_tag_day_hour!AN34),_tag_day_hour!W34:_tag_day_hour!AN34,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W34:_tag_day_hour!AN34),_tag_day_hour!W34:_tag_day_hour!AN34,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K13" s="25" t="str">
+      <c r="K13" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W34:_tag_day_hour!AN34)=18,"",MIN(_tag_day_hour!W34:_tag_day_hour!AN34))</f>
         <v/>
       </c>
-      <c r="L13" s="24" t="str">
+      <c r="L13" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA11:_tag_day_hour!CR11),_tag_day_hour!CA11:_tag_day_hour!CR11,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA11:_tag_day_hour!CR11),_tag_day_hour!CA11:_tag_day_hour!CR11,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M13" s="25" t="str">
+      <c r="M13" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA11:_tag_day_hour!CR11)=18,"",MAX(_tag_day_hour!CA11:_tag_day_hour!CR11))</f>
         <v/>
       </c>
-      <c r="N13" s="24" t="str">
+      <c r="N13" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA11:_tag_day_hour!CR11),_tag_day_hour!CA11:_tag_day_hour!CR11,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA11:_tag_day_hour!CR11),_tag_day_hour!CA11:_tag_day_hour!CR11,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O13" s="25" t="str">
+      <c r="O13" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA11:_tag_day_hour!CR11)=18,"",MIN(_tag_day_hour!CA11:_tag_day_hour!CR11))</f>
         <v/>
       </c>
-      <c r="P13" s="25" t="str">
+      <c r="P13" s="26" t="str">
         <f>IF(_tag_day_hour!BY10="","",_tag_day_hour!BY10)</f>
         <v/>
       </c>
-      <c r="Q13" s="25" t="str">
+      <c r="Q13" s="41" t="str">
         <f>IF(_tag_day_hour!BZ10="","",_tag_day_hour!BZ10)</f>
         <v/>
       </c>
-      <c r="R13" s="35" t="str">
+      <c r="R13" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS34:_tag_day_hour!DJ34)=18,"",AVERAGE(_tag_day_hour!CS34:_tag_day_hour!DJ34))</f>
         <v/>
       </c>
-      <c r="S13" s="36" t="str">
+      <c r="S13" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A10="","",_fanchui6_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="T13" s="35" t="str">
+      <c r="T13" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B10="","",_fanchui6_day_hour!B10-_fanchui6_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="U13" s="35" t="str">
+      <c r="U13" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D10="","",_fanchui6_day_hour!D10-_fanchui6_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="V13" s="25" t="str">
+      <c r="V13" s="26" t="str">
         <f>IF(_maxmin_day_hour!A10="","",_maxmin_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="W13" s="25" t="str">
+      <c r="W13" s="26" t="str">
         <f>IF(_maxmin_day_hour!B10="","",_maxmin_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="X13" s="34" t="s">
+      <c r="X13" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="23">
+      <c r="A14" s="24">
         <v>10</v>
       </c>
-      <c r="B14" s="24" t="str">
+      <c r="B14" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A11:_tag_day_hour!R11)=0,"",COUNTIF(_tag_day_hour!A11:_tag_day_hour!R11,"=0"))</f>
         <v/>
       </c>
-      <c r="C14" s="25" t="str">
+      <c r="C14" s="26" t="str">
         <f>IF(_tag_day_hour!S11="","",_tag_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="D14" s="25" t="str">
+      <c r="D14" s="26" t="str">
         <f>IF(_tag_day_hour!T11="","",_tag_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="E14" s="25" t="str">
+      <c r="E14" s="26" t="str">
         <f>IF(_tag_day_hour!U11="","",_tag_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="F14" s="25" t="str">
+      <c r="F14" s="26" t="str">
         <f>IF(_tag_day_hour!V11="","",_tag_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="G14" s="25" t="str">
+      <c r="G14" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H14" s="24" t="str">
+      <c r="H14" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W35:_tag_day_hour!AN35),_tag_day_hour!W35:_tag_day_hour!AN35,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W35:_tag_day_hour!AN35),_tag_day_hour!W35:_tag_day_hour!AN35,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I14" s="25" t="str">
+      <c r="I14" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W35:_tag_day_hour!AN35)=18,"",MAX(_tag_day_hour!W35:_tag_day_hour!AN35))</f>
         <v/>
       </c>
-      <c r="J14" s="24" t="str">
+      <c r="J14" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W35:_tag_day_hour!AN35),_tag_day_hour!W35:_tag_day_hour!AN35,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W35:_tag_day_hour!AN35),_tag_day_hour!W35:_tag_day_hour!AN35,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K14" s="25" t="str">
+      <c r="K14" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W35:_tag_day_hour!AN35)=18,"",MIN(_tag_day_hour!W35:_tag_day_hour!AN35))</f>
         <v/>
       </c>
-      <c r="L14" s="24" t="str">
+      <c r="L14" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA12:_tag_day_hour!CR12),_tag_day_hour!CA12:_tag_day_hour!CR12,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA12:_tag_day_hour!CR12),_tag_day_hour!CA12:_tag_day_hour!CR12,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M14" s="25" t="str">
+      <c r="M14" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA12:_tag_day_hour!CR12)=18,"",MAX(_tag_day_hour!CA12:_tag_day_hour!CR12))</f>
         <v/>
       </c>
-      <c r="N14" s="24" t="str">
+      <c r="N14" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA12:_tag_day_hour!CR12),_tag_day_hour!CA12:_tag_day_hour!CR12,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA12:_tag_day_hour!CR12),_tag_day_hour!CA12:_tag_day_hour!CR12,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O14" s="25" t="str">
+      <c r="O14" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA12:_tag_day_hour!CR12)=18,"",MIN(_tag_day_hour!CA12:_tag_day_hour!CR12))</f>
         <v/>
       </c>
-      <c r="P14" s="25" t="str">
+      <c r="P14" s="26" t="str">
         <f>IF(_tag_day_hour!BY11="","",_tag_day_hour!BY11)</f>
         <v/>
       </c>
-      <c r="Q14" s="25" t="str">
+      <c r="Q14" s="41" t="str">
         <f>IF(_tag_day_hour!BZ11="","",_tag_day_hour!BZ11)</f>
         <v/>
       </c>
-      <c r="R14" s="35" t="str">
+      <c r="R14" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS35:_tag_day_hour!DJ35)=18,"",AVERAGE(_tag_day_hour!CS35:_tag_day_hour!DJ35))</f>
         <v/>
       </c>
-      <c r="S14" s="36" t="str">
+      <c r="S14" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A11="","",_fanchui6_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="T14" s="35" t="str">
+      <c r="T14" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B11="","",_fanchui6_day_hour!B11-_fanchui6_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="U14" s="35" t="str">
+      <c r="U14" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D11="","",_fanchui6_day_hour!D11-_fanchui6_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="V14" s="25" t="str">
+      <c r="V14" s="26" t="str">
         <f>IF(_maxmin_day_hour!A11="","",_maxmin_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="W14" s="25" t="str">
+      <c r="W14" s="26" t="str">
         <f>IF(_maxmin_day_hour!B11="","",_maxmin_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="X14" s="37"/>
+      <c r="X14" s="44"/>
     </row>
     <row r="15" ht="14.25" spans="1:24">
-      <c r="A15" s="19">
+      <c r="A15" s="20">
         <v>11</v>
       </c>
-      <c r="B15" s="24" t="str">
+      <c r="B15" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A12:_tag_day_hour!R12)=0,"",COUNTIF(_tag_day_hour!A12:_tag_day_hour!R12,"=0"))</f>
         <v/>
       </c>
-      <c r="C15" s="25" t="str">
+      <c r="C15" s="26" t="str">
         <f>IF(_tag_day_hour!S12="","",_tag_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="D15" s="25" t="str">
+      <c r="D15" s="26" t="str">
         <f>IF(_tag_day_hour!T12="","",_tag_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="E15" s="25" t="str">
+      <c r="E15" s="26" t="str">
         <f>IF(_tag_day_hour!U12="","",_tag_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="F15" s="25" t="str">
+      <c r="F15" s="26" t="str">
         <f>IF(_tag_day_hour!V12="","",_tag_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="G15" s="25" t="str">
+      <c r="G15" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H15" s="24" t="str">
+      <c r="H15" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W36:_tag_day_hour!AN36),_tag_day_hour!W36:_tag_day_hour!AN36,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W36:_tag_day_hour!AN36),_tag_day_hour!W36:_tag_day_hour!AN36,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I15" s="25" t="str">
+      <c r="I15" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W36:_tag_day_hour!AN36)=18,"",MAX(_tag_day_hour!W36:_tag_day_hour!AN36))</f>
         <v/>
       </c>
-      <c r="J15" s="24" t="str">
+      <c r="J15" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W36:_tag_day_hour!AN36),_tag_day_hour!W36:_tag_day_hour!AN36,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W36:_tag_day_hour!AN36),_tag_day_hour!W36:_tag_day_hour!AN36,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K15" s="25" t="str">
+      <c r="K15" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W36:_tag_day_hour!AN36)=18,"",MIN(_tag_day_hour!W36:_tag_day_hour!AN36))</f>
         <v/>
       </c>
-      <c r="L15" s="24" t="str">
+      <c r="L15" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA13:_tag_day_hour!CR13),_tag_day_hour!CA13:_tag_day_hour!CR13,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA13:_tag_day_hour!CR13),_tag_day_hour!CA13:_tag_day_hour!CR13,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M15" s="25" t="str">
+      <c r="M15" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA13:_tag_day_hour!CR13)=18,"",MAX(_tag_day_hour!CA13:_tag_day_hour!CR13))</f>
         <v/>
       </c>
-      <c r="N15" s="24" t="str">
+      <c r="N15" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA13:_tag_day_hour!CR13),_tag_day_hour!CA13:_tag_day_hour!CR13,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA13:_tag_day_hour!CR13),_tag_day_hour!CA13:_tag_day_hour!CR13,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O15" s="25" t="str">
+      <c r="O15" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA13:_tag_day_hour!CR13)=18,"",MIN(_tag_day_hour!CA13:_tag_day_hour!CR13))</f>
         <v/>
       </c>
-      <c r="P15" s="25" t="str">
+      <c r="P15" s="26" t="str">
         <f>IF(_tag_day_hour!BY12="","",_tag_day_hour!BY12)</f>
         <v/>
       </c>
-      <c r="Q15" s="25" t="str">
+      <c r="Q15" s="41" t="str">
         <f>IF(_tag_day_hour!BZ12="","",_tag_day_hour!BZ12)</f>
         <v/>
       </c>
-      <c r="R15" s="35" t="str">
+      <c r="R15" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS36:_tag_day_hour!DJ36)=18,"",AVERAGE(_tag_day_hour!CS36:_tag_day_hour!DJ36))</f>
         <v/>
       </c>
-      <c r="S15" s="36" t="str">
+      <c r="S15" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A12="","",_fanchui6_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="T15" s="35" t="str">
+      <c r="T15" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B12="","",_fanchui6_day_hour!B12-_fanchui6_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="U15" s="35" t="str">
+      <c r="U15" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D12="","",_fanchui6_day_hour!D12-_fanchui6_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="V15" s="25" t="str">
+      <c r="V15" s="26" t="str">
         <f>IF(_maxmin_day_hour!A12="","",_maxmin_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="W15" s="25" t="str">
+      <c r="W15" s="26" t="str">
         <f>IF(_maxmin_day_hour!B12="","",_maxmin_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="X15" s="37"/>
+      <c r="X15" s="44"/>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="23">
+      <c r="A16" s="24">
         <v>12</v>
       </c>
-      <c r="B16" s="24" t="str">
+      <c r="B16" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A13:_tag_day_hour!R13)=0,"",COUNTIF(_tag_day_hour!A13:_tag_day_hour!R13,"=0"))</f>
         <v/>
       </c>
-      <c r="C16" s="25" t="str">
+      <c r="C16" s="26" t="str">
         <f>IF(_tag_day_hour!S13="","",_tag_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="D16" s="25" t="str">
+      <c r="D16" s="26" t="str">
         <f>IF(_tag_day_hour!T13="","",_tag_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="E16" s="25" t="str">
+      <c r="E16" s="26" t="str">
         <f>IF(_tag_day_hour!U13="","",_tag_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="F16" s="25" t="str">
+      <c r="F16" s="26" t="str">
         <f>IF(_tag_day_hour!V13="","",_tag_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="G16" s="25" t="str">
+      <c r="G16" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H16" s="24" t="str">
+      <c r="H16" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W37:_tag_day_hour!AN37),_tag_day_hour!W37:_tag_day_hour!AN37,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W37:_tag_day_hour!AN37),_tag_day_hour!W37:_tag_day_hour!AN37,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I16" s="25" t="str">
+      <c r="I16" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W37:_tag_day_hour!AN37)=18,"",MAX(_tag_day_hour!W37:_tag_day_hour!AN37))</f>
         <v/>
       </c>
-      <c r="J16" s="24" t="str">
+      <c r="J16" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W37:_tag_day_hour!AN37),_tag_day_hour!W37:_tag_day_hour!AN37,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W37:_tag_day_hour!AN37),_tag_day_hour!W37:_tag_day_hour!AN37,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K16" s="25" t="str">
+      <c r="K16" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W37:_tag_day_hour!AN37)=18,"",MIN(_tag_day_hour!W37:_tag_day_hour!AN37))</f>
         <v/>
       </c>
-      <c r="L16" s="24" t="str">
+      <c r="L16" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA14:_tag_day_hour!CR14),_tag_day_hour!CA14:_tag_day_hour!CR14,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA14:_tag_day_hour!CR14),_tag_day_hour!CA14:_tag_day_hour!CR14,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M16" s="25" t="str">
+      <c r="M16" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA14:_tag_day_hour!CR14)=18,"",MAX(_tag_day_hour!CA14:_tag_day_hour!CR14))</f>
         <v/>
       </c>
-      <c r="N16" s="24" t="str">
+      <c r="N16" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA14:_tag_day_hour!CR14),_tag_day_hour!CA14:_tag_day_hour!CR14,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA14:_tag_day_hour!CR14),_tag_day_hour!CA14:_tag_day_hour!CR14,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O16" s="25" t="str">
+      <c r="O16" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA14:_tag_day_hour!CR14)=18,"",MIN(_tag_day_hour!CA14:_tag_day_hour!CR14))</f>
         <v/>
       </c>
-      <c r="P16" s="25" t="str">
+      <c r="P16" s="26" t="str">
         <f>IF(_tag_day_hour!BY13="","",_tag_day_hour!BY13)</f>
         <v/>
       </c>
-      <c r="Q16" s="25" t="str">
+      <c r="Q16" s="41" t="str">
         <f>IF(_tag_day_hour!BZ13="","",_tag_day_hour!BZ13)</f>
         <v/>
       </c>
-      <c r="R16" s="35" t="str">
+      <c r="R16" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS37:_tag_day_hour!DJ37)=18,"",AVERAGE(_tag_day_hour!CS37:_tag_day_hour!DJ37))</f>
         <v/>
       </c>
-      <c r="S16" s="36" t="str">
+      <c r="S16" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A13="","",_fanchui6_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="T16" s="35" t="str">
+      <c r="T16" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B13="","",_fanchui6_day_hour!B13-_fanchui6_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="U16" s="35" t="str">
+      <c r="U16" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D13="","",_fanchui6_day_hour!D13-_fanchui6_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="V16" s="25" t="str">
+      <c r="V16" s="26" t="str">
         <f>IF(_maxmin_day_hour!A13="","",_maxmin_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="W16" s="25" t="str">
+      <c r="W16" s="26" t="str">
         <f>IF(_maxmin_day_hour!B13="","",_maxmin_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="X16" s="37"/>
+      <c r="X16" s="44"/>
     </row>
     <row r="17" ht="14.25" spans="1:24">
-      <c r="A17" s="19">
+      <c r="A17" s="20">
         <v>13</v>
       </c>
-      <c r="B17" s="24" t="str">
+      <c r="B17" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A14:_tag_day_hour!R14)=0,"",COUNTIF(_tag_day_hour!A14:_tag_day_hour!R14,"=0"))</f>
         <v/>
       </c>
-      <c r="C17" s="25" t="str">
+      <c r="C17" s="26" t="str">
         <f>IF(_tag_day_hour!S14="","",_tag_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="D17" s="25" t="str">
+      <c r="D17" s="26" t="str">
         <f>IF(_tag_day_hour!T14="","",_tag_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="E17" s="25" t="str">
+      <c r="E17" s="26" t="str">
         <f>IF(_tag_day_hour!U14="","",_tag_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="F17" s="25" t="str">
+      <c r="F17" s="26" t="str">
         <f>IF(_tag_day_hour!V14="","",_tag_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="G17" s="25" t="str">
+      <c r="G17" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H17" s="24" t="str">
+      <c r="H17" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W38:_tag_day_hour!AN38),_tag_day_hour!W38:_tag_day_hour!AN38,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W38:_tag_day_hour!AN38),_tag_day_hour!W38:_tag_day_hour!AN38,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I17" s="25" t="str">
+      <c r="I17" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W38:_tag_day_hour!AN38)=18,"",MAX(_tag_day_hour!W38:_tag_day_hour!AN38))</f>
         <v/>
       </c>
-      <c r="J17" s="24" t="str">
+      <c r="J17" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W38:_tag_day_hour!AN38),_tag_day_hour!W38:_tag_day_hour!AN38,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W38:_tag_day_hour!AN38),_tag_day_hour!W38:_tag_day_hour!AN38,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K17" s="25" t="str">
+      <c r="K17" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W38:_tag_day_hour!AN38)=18,"",MIN(_tag_day_hour!W38:_tag_day_hour!AN38))</f>
         <v/>
       </c>
-      <c r="L17" s="24" t="str">
+      <c r="L17" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA15:_tag_day_hour!CR15),_tag_day_hour!CA15:_tag_day_hour!CR15,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA15:_tag_day_hour!CR15),_tag_day_hour!CA15:_tag_day_hour!CR15,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M17" s="25" t="str">
+      <c r="M17" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA15:_tag_day_hour!CR15)=18,"",MAX(_tag_day_hour!CA15:_tag_day_hour!CR15))</f>
         <v/>
       </c>
-      <c r="N17" s="24" t="str">
+      <c r="N17" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA15:_tag_day_hour!CR15),_tag_day_hour!CA15:_tag_day_hour!CR15,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA15:_tag_day_hour!CR15),_tag_day_hour!CA15:_tag_day_hour!CR15,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O17" s="25" t="str">
+      <c r="O17" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA15:_tag_day_hour!CR15)=18,"",MIN(_tag_day_hour!CA15:_tag_day_hour!CR15))</f>
         <v/>
       </c>
-      <c r="P17" s="25" t="str">
+      <c r="P17" s="26" t="str">
         <f>IF(_tag_day_hour!BY14="","",_tag_day_hour!BY14)</f>
         <v/>
       </c>
-      <c r="Q17" s="25" t="str">
+      <c r="Q17" s="41" t="str">
         <f>IF(_tag_day_hour!BZ14="","",_tag_day_hour!BZ14)</f>
         <v/>
       </c>
-      <c r="R17" s="35" t="str">
+      <c r="R17" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS38:_tag_day_hour!DJ38)=18,"",AVERAGE(_tag_day_hour!CS38:_tag_day_hour!DJ38))</f>
         <v/>
       </c>
-      <c r="S17" s="36" t="str">
+      <c r="S17" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A14="","",_fanchui6_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="T17" s="35" t="str">
+      <c r="T17" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B14="","",_fanchui6_day_hour!B14-_fanchui6_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="U17" s="35" t="str">
+      <c r="U17" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D14="","",_fanchui6_day_hour!D14-_fanchui6_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="V17" s="25" t="str">
+      <c r="V17" s="26" t="str">
         <f>IF(_maxmin_day_hour!A14="","",_maxmin_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="W17" s="25" t="str">
+      <c r="W17" s="26" t="str">
         <f>IF(_maxmin_day_hour!B14="","",_maxmin_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="X17" s="37"/>
+      <c r="X17" s="44"/>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="23">
+      <c r="A18" s="24">
         <v>14</v>
       </c>
-      <c r="B18" s="24" t="str">
+      <c r="B18" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A15:_tag_day_hour!R15)=0,"",COUNTIF(_tag_day_hour!A15:_tag_day_hour!R15,"=0"))</f>
         <v/>
       </c>
-      <c r="C18" s="25" t="str">
+      <c r="C18" s="26" t="str">
         <f>IF(_tag_day_hour!S15="","",_tag_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="D18" s="25" t="str">
+      <c r="D18" s="26" t="str">
         <f>IF(_tag_day_hour!T15="","",_tag_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="E18" s="25" t="str">
+      <c r="E18" s="26" t="str">
         <f>IF(_tag_day_hour!U15="","",_tag_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="F18" s="25" t="str">
+      <c r="F18" s="26" t="str">
         <f>IF(_tag_day_hour!V15="","",_tag_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="G18" s="25" t="str">
+      <c r="G18" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H18" s="24" t="str">
+      <c r="H18" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W39:_tag_day_hour!AN39),_tag_day_hour!W39:_tag_day_hour!AN39,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W39:_tag_day_hour!AN39),_tag_day_hour!W39:_tag_day_hour!AN39,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I18" s="25" t="str">
+      <c r="I18" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W39:_tag_day_hour!AN39)=18,"",MAX(_tag_day_hour!W39:_tag_day_hour!AN39))</f>
         <v/>
       </c>
-      <c r="J18" s="24" t="str">
+      <c r="J18" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W39:_tag_day_hour!AN39),_tag_day_hour!W39:_tag_day_hour!AN39,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W39:_tag_day_hour!AN39),_tag_day_hour!W39:_tag_day_hour!AN39,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K18" s="25" t="str">
+      <c r="K18" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W39:_tag_day_hour!AN39)=18,"",MIN(_tag_day_hour!W39:_tag_day_hour!AN39))</f>
         <v/>
       </c>
-      <c r="L18" s="24" t="str">
+      <c r="L18" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA16:_tag_day_hour!CR16),_tag_day_hour!CA16:_tag_day_hour!CR16,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA16:_tag_day_hour!CR16),_tag_day_hour!CA16:_tag_day_hour!CR16,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M18" s="25" t="str">
+      <c r="M18" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA16:_tag_day_hour!CR16)=18,"",MAX(_tag_day_hour!CA16:_tag_day_hour!CR16))</f>
         <v/>
       </c>
-      <c r="N18" s="24" t="str">
+      <c r="N18" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA16:_tag_day_hour!CR16),_tag_day_hour!CA16:_tag_day_hour!CR16,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA16:_tag_day_hour!CR16),_tag_day_hour!CA16:_tag_day_hour!CR16,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O18" s="25" t="str">
+      <c r="O18" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA16:_tag_day_hour!CR16)=18,"",MIN(_tag_day_hour!CA16:_tag_day_hour!CR16))</f>
         <v/>
       </c>
-      <c r="P18" s="25" t="str">
+      <c r="P18" s="26" t="str">
         <f>IF(_tag_day_hour!BY15="","",_tag_day_hour!BY15)</f>
         <v/>
       </c>
-      <c r="Q18" s="25" t="str">
+      <c r="Q18" s="41" t="str">
         <f>IF(_tag_day_hour!BZ15="","",_tag_day_hour!BZ15)</f>
         <v/>
       </c>
-      <c r="R18" s="35" t="str">
+      <c r="R18" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS39:_tag_day_hour!DJ39)=18,"",AVERAGE(_tag_day_hour!CS39:_tag_day_hour!DJ39))</f>
         <v/>
       </c>
-      <c r="S18" s="36" t="str">
+      <c r="S18" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A15="","",_fanchui6_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="T18" s="35" t="str">
+      <c r="T18" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B15="","",_fanchui6_day_hour!B15-_fanchui6_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="U18" s="35" t="str">
+      <c r="U18" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D15="","",_fanchui6_day_hour!D15-_fanchui6_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="V18" s="25" t="str">
+      <c r="V18" s="26" t="str">
         <f>IF(_maxmin_day_hour!A15="","",_maxmin_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="W18" s="25" t="str">
+      <c r="W18" s="26" t="str">
         <f>IF(_maxmin_day_hour!B15="","",_maxmin_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="X18" s="37"/>
+      <c r="X18" s="44"/>
     </row>
     <row r="19" ht="14.25" spans="1:24">
-      <c r="A19" s="19">
+      <c r="A19" s="20">
         <v>15</v>
       </c>
-      <c r="B19" s="24" t="str">
+      <c r="B19" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A16:_tag_day_hour!R16)=0,"",COUNTIF(_tag_day_hour!A16:_tag_day_hour!R16,"=0"))</f>
         <v/>
       </c>
-      <c r="C19" s="25" t="str">
+      <c r="C19" s="26" t="str">
         <f>IF(_tag_day_hour!S16="","",_tag_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="D19" s="25" t="str">
+      <c r="D19" s="26" t="str">
         <f>IF(_tag_day_hour!T16="","",_tag_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="E19" s="25" t="str">
+      <c r="E19" s="26" t="str">
         <f>IF(_tag_day_hour!U16="","",_tag_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="F19" s="25" t="str">
+      <c r="F19" s="26" t="str">
         <f>IF(_tag_day_hour!V16="","",_tag_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="G19" s="25" t="str">
+      <c r="G19" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H19" s="24" t="str">
+      <c r="H19" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W40:_tag_day_hour!AN40),_tag_day_hour!W40:_tag_day_hour!AN40,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W40:_tag_day_hour!AN40),_tag_day_hour!W40:_tag_day_hour!AN40,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I19" s="25" t="str">
+      <c r="I19" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W40:_tag_day_hour!AN40)=18,"",MAX(_tag_day_hour!W40:_tag_day_hour!AN40))</f>
         <v/>
       </c>
-      <c r="J19" s="24" t="str">
+      <c r="J19" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W40:_tag_day_hour!AN40),_tag_day_hour!W40:_tag_day_hour!AN40,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W40:_tag_day_hour!AN40),_tag_day_hour!W40:_tag_day_hour!AN40,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K19" s="25" t="str">
+      <c r="K19" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W40:_tag_day_hour!AN40)=18,"",MIN(_tag_day_hour!W40:_tag_day_hour!AN40))</f>
         <v/>
       </c>
-      <c r="L19" s="24" t="str">
+      <c r="L19" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA17:_tag_day_hour!CR17),_tag_day_hour!CA17:_tag_day_hour!CR17,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA17:_tag_day_hour!CR17),_tag_day_hour!CA17:_tag_day_hour!CR17,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M19" s="25" t="str">
+      <c r="M19" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA17:_tag_day_hour!CR17)=18,"",MAX(_tag_day_hour!CA17:_tag_day_hour!CR17))</f>
         <v/>
       </c>
-      <c r="N19" s="24" t="str">
+      <c r="N19" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA17:_tag_day_hour!CR17),_tag_day_hour!CA17:_tag_day_hour!CR17,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA17:_tag_day_hour!CR17),_tag_day_hour!CA17:_tag_day_hour!CR17,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O19" s="25" t="str">
+      <c r="O19" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA17:_tag_day_hour!CR17)=18,"",MIN(_tag_day_hour!CA17:_tag_day_hour!CR17))</f>
         <v/>
       </c>
-      <c r="P19" s="25" t="str">
+      <c r="P19" s="26" t="str">
         <f>IF(_tag_day_hour!BY16="","",_tag_day_hour!BY16)</f>
         <v/>
       </c>
-      <c r="Q19" s="25" t="str">
+      <c r="Q19" s="41" t="str">
         <f>IF(_tag_day_hour!BZ16="","",_tag_day_hour!BZ16)</f>
         <v/>
       </c>
-      <c r="R19" s="35" t="str">
+      <c r="R19" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS40:_tag_day_hour!DJ40)=18,"",AVERAGE(_tag_day_hour!CS40:_tag_day_hour!DJ40))</f>
         <v/>
       </c>
-      <c r="S19" s="36" t="str">
+      <c r="S19" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A16="","",_fanchui6_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="T19" s="35" t="str">
+      <c r="T19" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B16="","",_fanchui6_day_hour!B16-_fanchui6_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="U19" s="35" t="str">
+      <c r="U19" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D16="","",_fanchui6_day_hour!D16-_fanchui6_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="V19" s="25" t="str">
+      <c r="V19" s="26" t="str">
         <f>IF(_maxmin_day_hour!A16="","",_maxmin_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="W19" s="25" t="str">
+      <c r="W19" s="26" t="str">
         <f>IF(_maxmin_day_hour!B16="","",_maxmin_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="X19" s="37"/>
+      <c r="X19" s="44"/>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="23">
+      <c r="A20" s="24">
         <v>16</v>
       </c>
-      <c r="B20" s="24" t="str">
+      <c r="B20" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A17:_tag_day_hour!R17)=0,"",COUNTIF(_tag_day_hour!A17:_tag_day_hour!R17,"=0"))</f>
         <v/>
       </c>
-      <c r="C20" s="25" t="str">
+      <c r="C20" s="26" t="str">
         <f>IF(_tag_day_hour!S17="","",_tag_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="D20" s="25" t="str">
+      <c r="D20" s="26" t="str">
         <f>IF(_tag_day_hour!T17="","",_tag_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="E20" s="25" t="str">
+      <c r="E20" s="26" t="str">
         <f>IF(_tag_day_hour!U17="","",_tag_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="F20" s="25" t="str">
+      <c r="F20" s="26" t="str">
         <f>IF(_tag_day_hour!V17="","",_tag_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="G20" s="25" t="str">
+      <c r="G20" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H20" s="24" t="str">
+      <c r="H20" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W41:_tag_day_hour!AN41),_tag_day_hour!W41:_tag_day_hour!AN41,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W41:_tag_day_hour!AN41),_tag_day_hour!W41:_tag_day_hour!AN41,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I20" s="25" t="str">
+      <c r="I20" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W41:_tag_day_hour!AN41)=18,"",MAX(_tag_day_hour!W41:_tag_day_hour!AN41))</f>
         <v/>
       </c>
-      <c r="J20" s="24" t="str">
+      <c r="J20" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W41:_tag_day_hour!AN41),_tag_day_hour!W41:_tag_day_hour!AN41,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W41:_tag_day_hour!AN41),_tag_day_hour!W41:_tag_day_hour!AN41,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K20" s="25" t="str">
+      <c r="K20" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W41:_tag_day_hour!AN41)=18,"",MIN(_tag_day_hour!W41:_tag_day_hour!AN41))</f>
         <v/>
       </c>
-      <c r="L20" s="24" t="str">
+      <c r="L20" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA18:_tag_day_hour!CR18),_tag_day_hour!CA18:_tag_day_hour!CR18,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA18:_tag_day_hour!CR18),_tag_day_hour!CA18:_tag_day_hour!CR18,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M20" s="25" t="str">
+      <c r="M20" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA18:_tag_day_hour!CR18)=18,"",MAX(_tag_day_hour!CA18:_tag_day_hour!CR18))</f>
         <v/>
       </c>
-      <c r="N20" s="24" t="str">
+      <c r="N20" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA18:_tag_day_hour!CR18),_tag_day_hour!CA18:_tag_day_hour!CR18,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA18:_tag_day_hour!CR18),_tag_day_hour!CA18:_tag_day_hour!CR18,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O20" s="25" t="str">
+      <c r="O20" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA18:_tag_day_hour!CR18)=18,"",MIN(_tag_day_hour!CA18:_tag_day_hour!CR18))</f>
         <v/>
       </c>
-      <c r="P20" s="25" t="str">
+      <c r="P20" s="26" t="str">
         <f>IF(_tag_day_hour!BY17="","",_tag_day_hour!BY17)</f>
         <v/>
       </c>
-      <c r="Q20" s="25" t="str">
+      <c r="Q20" s="41" t="str">
         <f>IF(_tag_day_hour!BZ17="","",_tag_day_hour!BZ17)</f>
         <v/>
       </c>
-      <c r="R20" s="35" t="str">
+      <c r="R20" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS41:_tag_day_hour!DJ41)=18,"",AVERAGE(_tag_day_hour!CS41:_tag_day_hour!DJ41))</f>
         <v/>
       </c>
-      <c r="S20" s="36" t="str">
+      <c r="S20" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A17="","",_fanchui6_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="T20" s="35" t="str">
+      <c r="T20" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B17="","",_fanchui6_day_hour!B17-_fanchui6_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="U20" s="35" t="str">
+      <c r="U20" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D17="","",_fanchui6_day_hour!D17-_fanchui6_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="V20" s="25" t="str">
+      <c r="V20" s="26" t="str">
         <f>IF(_maxmin_day_hour!A17="","",_maxmin_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="W20" s="25" t="str">
+      <c r="W20" s="26" t="str">
         <f>IF(_maxmin_day_hour!B17="","",_maxmin_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="X20" s="37"/>
+      <c r="X20" s="44"/>
     </row>
     <row r="21" ht="14.25" spans="1:24">
-      <c r="A21" s="19">
+      <c r="A21" s="20">
         <v>17</v>
       </c>
-      <c r="B21" s="24" t="str">
+      <c r="B21" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A18:_tag_day_hour!R18)=0,"",COUNTIF(_tag_day_hour!A18:_tag_day_hour!R18,"=0"))</f>
         <v/>
       </c>
-      <c r="C21" s="25" t="str">
+      <c r="C21" s="26" t="str">
         <f>IF(_tag_day_hour!S18="","",_tag_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="D21" s="25" t="str">
+      <c r="D21" s="26" t="str">
         <f>IF(_tag_day_hour!T18="","",_tag_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="E21" s="25" t="str">
+      <c r="E21" s="26" t="str">
         <f>IF(_tag_day_hour!U18="","",_tag_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="F21" s="25" t="str">
+      <c r="F21" s="26" t="str">
         <f>IF(_tag_day_hour!V18="","",_tag_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="G21" s="25" t="str">
+      <c r="G21" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H21" s="24" t="str">
+      <c r="H21" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W42:_tag_day_hour!AN42),_tag_day_hour!W42:_tag_day_hour!AN42,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W42:_tag_day_hour!AN42),_tag_day_hour!W42:_tag_day_hour!AN42,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I21" s="25" t="str">
+      <c r="I21" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W42:_tag_day_hour!AN42)=18,"",MAX(_tag_day_hour!W42:_tag_day_hour!AN42))</f>
         <v/>
       </c>
-      <c r="J21" s="24" t="str">
+      <c r="J21" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W42:_tag_day_hour!AN42),_tag_day_hour!W42:_tag_day_hour!AN42,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W42:_tag_day_hour!AN42),_tag_day_hour!W42:_tag_day_hour!AN42,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K21" s="25" t="str">
+      <c r="K21" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W42:_tag_day_hour!AN42)=18,"",MIN(_tag_day_hour!W42:_tag_day_hour!AN42))</f>
         <v/>
       </c>
-      <c r="L21" s="24" t="str">
+      <c r="L21" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA19:_tag_day_hour!CR19),_tag_day_hour!CA19:_tag_day_hour!CR19,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA19:_tag_day_hour!CR19),_tag_day_hour!CA19:_tag_day_hour!CR19,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M21" s="25" t="str">
+      <c r="M21" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA19:_tag_day_hour!CR19)=18,"",MAX(_tag_day_hour!CA19:_tag_day_hour!CR19))</f>
         <v/>
       </c>
-      <c r="N21" s="24" t="str">
+      <c r="N21" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA19:_tag_day_hour!CR19),_tag_day_hour!CA19:_tag_day_hour!CR19,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA19:_tag_day_hour!CR19),_tag_day_hour!CA19:_tag_day_hour!CR19,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O21" s="25" t="str">
+      <c r="O21" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA19:_tag_day_hour!CR19)=18,"",MIN(_tag_day_hour!CA19:_tag_day_hour!CR19))</f>
         <v/>
       </c>
-      <c r="P21" s="25" t="str">
+      <c r="P21" s="26" t="str">
         <f>IF(_tag_day_hour!BY18="","",_tag_day_hour!BY18)</f>
         <v/>
       </c>
-      <c r="Q21" s="25" t="str">
+      <c r="Q21" s="41" t="str">
         <f>IF(_tag_day_hour!BZ18="","",_tag_day_hour!BZ18)</f>
         <v/>
       </c>
-      <c r="R21" s="35" t="str">
+      <c r="R21" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS42:_tag_day_hour!DJ42)=18,"",AVERAGE(_tag_day_hour!CS42:_tag_day_hour!DJ42))</f>
         <v/>
       </c>
-      <c r="S21" s="36" t="str">
+      <c r="S21" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A18="","",_fanchui6_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="T21" s="35" t="str">
+      <c r="T21" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B18="","",_fanchui6_day_hour!B18-_fanchui6_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="U21" s="35" t="str">
+      <c r="U21" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D18="","",_fanchui6_day_hour!D18-_fanchui6_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="V21" s="25" t="str">
+      <c r="V21" s="26" t="str">
         <f>IF(_maxmin_day_hour!A18="","",_maxmin_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="W21" s="25" t="str">
+      <c r="W21" s="26" t="str">
         <f>IF(_maxmin_day_hour!B18="","",_maxmin_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="X21" s="34" t="s">
+      <c r="X21" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="23">
+      <c r="A22" s="24">
         <v>18</v>
       </c>
-      <c r="B22" s="24" t="str">
+      <c r="B22" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A19:_tag_day_hour!R19)=0,"",COUNTIF(_tag_day_hour!A19:_tag_day_hour!R19,"=0"))</f>
         <v/>
       </c>
-      <c r="C22" s="25" t="str">
+      <c r="C22" s="26" t="str">
         <f>IF(_tag_day_hour!S19="","",_tag_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="D22" s="25" t="str">
+      <c r="D22" s="26" t="str">
         <f>IF(_tag_day_hour!T19="","",_tag_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="E22" s="25" t="str">
+      <c r="E22" s="26" t="str">
         <f>IF(_tag_day_hour!U19="","",_tag_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="F22" s="25" t="str">
+      <c r="F22" s="26" t="str">
         <f>IF(_tag_day_hour!V19="","",_tag_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="G22" s="25" t="str">
+      <c r="G22" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="24" t="str">
+      <c r="H22" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W43:_tag_day_hour!AN43),_tag_day_hour!W43:_tag_day_hour!AN43,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W43:_tag_day_hour!AN43),_tag_day_hour!W43:_tag_day_hour!AN43,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I22" s="25" t="str">
+      <c r="I22" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W43:_tag_day_hour!AN43)=18,"",MAX(_tag_day_hour!W43:_tag_day_hour!AN43))</f>
         <v/>
       </c>
-      <c r="J22" s="24" t="str">
+      <c r="J22" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W43:_tag_day_hour!AN43),_tag_day_hour!W43:_tag_day_hour!AN43,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W43:_tag_day_hour!AN43),_tag_day_hour!W43:_tag_day_hour!AN43,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K22" s="25" t="str">
+      <c r="K22" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W43:_tag_day_hour!AN43)=18,"",MIN(_tag_day_hour!W43:_tag_day_hour!AN43))</f>
         <v/>
       </c>
-      <c r="L22" s="24" t="str">
+      <c r="L22" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA20:_tag_day_hour!CR20),_tag_day_hour!CA20:_tag_day_hour!CR20,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA20:_tag_day_hour!CR20),_tag_day_hour!CA20:_tag_day_hour!CR20,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M22" s="25" t="str">
+      <c r="M22" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA20:_tag_day_hour!CR20)=18,"",MAX(_tag_day_hour!CA20:_tag_day_hour!CR20))</f>
         <v/>
       </c>
-      <c r="N22" s="24" t="str">
+      <c r="N22" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA20:_tag_day_hour!CR20),_tag_day_hour!CA20:_tag_day_hour!CR20,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA20:_tag_day_hour!CR20),_tag_day_hour!CA20:_tag_day_hour!CR20,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O22" s="25" t="str">
+      <c r="O22" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA20:_tag_day_hour!CR20)=18,"",MIN(_tag_day_hour!CA20:_tag_day_hour!CR20))</f>
         <v/>
       </c>
-      <c r="P22" s="25" t="str">
+      <c r="P22" s="26" t="str">
         <f>IF(_tag_day_hour!BY19="","",_tag_day_hour!BY19)</f>
         <v/>
       </c>
-      <c r="Q22" s="25" t="str">
+      <c r="Q22" s="41" t="str">
         <f>IF(_tag_day_hour!BZ19="","",_tag_day_hour!BZ19)</f>
         <v/>
       </c>
-      <c r="R22" s="35" t="str">
+      <c r="R22" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS43:_tag_day_hour!DJ43)=18,"",AVERAGE(_tag_day_hour!CS43:_tag_day_hour!DJ43))</f>
         <v/>
       </c>
-      <c r="S22" s="36" t="str">
+      <c r="S22" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A19="","",_fanchui6_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="T22" s="35" t="str">
+      <c r="T22" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B19="","",_fanchui6_day_hour!B19-_fanchui6_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="U22" s="35" t="str">
+      <c r="U22" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D19="","",_fanchui6_day_hour!D19-_fanchui6_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="V22" s="25" t="str">
+      <c r="V22" s="26" t="str">
         <f>IF(_maxmin_day_hour!A19="","",_maxmin_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="W22" s="25" t="str">
+      <c r="W22" s="26" t="str">
         <f>IF(_maxmin_day_hour!B19="","",_maxmin_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="X22" s="37"/>
+      <c r="X22" s="44"/>
     </row>
     <row r="23" ht="14.25" spans="1:24">
-      <c r="A23" s="19">
+      <c r="A23" s="20">
         <v>19</v>
       </c>
-      <c r="B23" s="24" t="str">
+      <c r="B23" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A20:_tag_day_hour!R20)=0,"",COUNTIF(_tag_day_hour!A20:_tag_day_hour!R20,"=0"))</f>
         <v/>
       </c>
-      <c r="C23" s="25" t="str">
+      <c r="C23" s="26" t="str">
         <f>IF(_tag_day_hour!S20="","",_tag_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="D23" s="25" t="str">
+      <c r="D23" s="26" t="str">
         <f>IF(_tag_day_hour!T20="","",_tag_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="E23" s="25" t="str">
+      <c r="E23" s="26" t="str">
         <f>IF(_tag_day_hour!U20="","",_tag_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="F23" s="25" t="str">
+      <c r="F23" s="26" t="str">
         <f>IF(_tag_day_hour!V20="","",_tag_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="G23" s="25" t="str">
+      <c r="G23" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H23" s="24" t="str">
+      <c r="H23" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W44:_tag_day_hour!AN44),_tag_day_hour!W44:_tag_day_hour!AN44,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W44:_tag_day_hour!AN44),_tag_day_hour!W44:_tag_day_hour!AN44,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I23" s="25" t="str">
+      <c r="I23" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W44:_tag_day_hour!AN44)=18,"",MAX(_tag_day_hour!W44:_tag_day_hour!AN44))</f>
         <v/>
       </c>
-      <c r="J23" s="24" t="str">
+      <c r="J23" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W44:_tag_day_hour!AN44),_tag_day_hour!W44:_tag_day_hour!AN44,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W44:_tag_day_hour!AN44),_tag_day_hour!W44:_tag_day_hour!AN44,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K23" s="25" t="str">
+      <c r="K23" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W44:_tag_day_hour!AN44)=18,"",MIN(_tag_day_hour!W44:_tag_day_hour!AN44))</f>
         <v/>
       </c>
-      <c r="L23" s="24" t="str">
+      <c r="L23" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA21:_tag_day_hour!CR21),_tag_day_hour!CA21:_tag_day_hour!CR21,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA21:_tag_day_hour!CR21),_tag_day_hour!CA21:_tag_day_hour!CR21,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M23" s="25" t="str">
+      <c r="M23" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA21:_tag_day_hour!CR21)=18,"",MAX(_tag_day_hour!CA21:_tag_day_hour!CR21))</f>
         <v/>
       </c>
-      <c r="N23" s="24" t="str">
+      <c r="N23" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA21:_tag_day_hour!CR21),_tag_day_hour!CA21:_tag_day_hour!CR21,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA21:_tag_day_hour!CR21),_tag_day_hour!CA21:_tag_day_hour!CR21,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O23" s="25" t="str">
+      <c r="O23" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA21:_tag_day_hour!CR21)=18,"",MIN(_tag_day_hour!CA21:_tag_day_hour!CR21))</f>
         <v/>
       </c>
-      <c r="P23" s="25" t="str">
+      <c r="P23" s="26" t="str">
         <f>IF(_tag_day_hour!BY20="","",_tag_day_hour!BY20)</f>
         <v/>
       </c>
-      <c r="Q23" s="25" t="str">
+      <c r="Q23" s="41" t="str">
         <f>IF(_tag_day_hour!BZ20="","",_tag_day_hour!BZ20)</f>
         <v/>
       </c>
-      <c r="R23" s="35" t="str">
+      <c r="R23" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS44:_tag_day_hour!DJ44)=18,"",AVERAGE(_tag_day_hour!CS44:_tag_day_hour!DJ44))</f>
         <v/>
       </c>
-      <c r="S23" s="36" t="str">
+      <c r="S23" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A20="","",_fanchui6_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="T23" s="35" t="str">
+      <c r="T23" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B20="","",_fanchui6_day_hour!B20-_fanchui6_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="U23" s="35" t="str">
+      <c r="U23" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D20="","",_fanchui6_day_hour!D20-_fanchui6_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="V23" s="25" t="str">
+      <c r="V23" s="26" t="str">
         <f>IF(_maxmin_day_hour!A20="","",_maxmin_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="W23" s="25" t="str">
+      <c r="W23" s="26" t="str">
         <f>IF(_maxmin_day_hour!B20="","",_maxmin_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="X23" s="37"/>
+      <c r="X23" s="44"/>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="23">
+      <c r="A24" s="24">
         <v>20</v>
       </c>
-      <c r="B24" s="24" t="str">
+      <c r="B24" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A21:_tag_day_hour!R21)=0,"",COUNTIF(_tag_day_hour!A21:_tag_day_hour!R21,"=0"))</f>
         <v/>
       </c>
-      <c r="C24" s="25" t="str">
+      <c r="C24" s="26" t="str">
         <f>IF(_tag_day_hour!S21="","",_tag_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="D24" s="25" t="str">
+      <c r="D24" s="26" t="str">
         <f>IF(_tag_day_hour!T21="","",_tag_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="E24" s="25" t="str">
+      <c r="E24" s="26" t="str">
         <f>IF(_tag_day_hour!U21="","",_tag_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="F24" s="25" t="str">
+      <c r="F24" s="26" t="str">
         <f>IF(_tag_day_hour!V21="","",_tag_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="G24" s="25" t="str">
+      <c r="G24" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H24" s="24" t="str">
+      <c r="H24" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W45:_tag_day_hour!AN45),_tag_day_hour!W45:_tag_day_hour!AN45,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W45:_tag_day_hour!AN45),_tag_day_hour!W45:_tag_day_hour!AN45,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I24" s="25" t="str">
+      <c r="I24" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W45:_tag_day_hour!AN45)=18,"",MAX(_tag_day_hour!W45:_tag_day_hour!AN45))</f>
         <v/>
       </c>
-      <c r="J24" s="24" t="str">
+      <c r="J24" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W45:_tag_day_hour!AN45),_tag_day_hour!W45:_tag_day_hour!AN45,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W45:_tag_day_hour!AN45),_tag_day_hour!W45:_tag_day_hour!AN45,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K24" s="25" t="str">
+      <c r="K24" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W45:_tag_day_hour!AN45)=18,"",MIN(_tag_day_hour!W45:_tag_day_hour!AN45))</f>
         <v/>
       </c>
-      <c r="L24" s="24" t="str">
+      <c r="L24" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA22:_tag_day_hour!CR22),_tag_day_hour!CA22:_tag_day_hour!CR22,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA22:_tag_day_hour!CR22),_tag_day_hour!CA22:_tag_day_hour!CR22,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M24" s="25" t="str">
+      <c r="M24" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA22:_tag_day_hour!CR22)=18,"",MAX(_tag_day_hour!CA22:_tag_day_hour!CR22))</f>
         <v/>
       </c>
-      <c r="N24" s="24" t="str">
+      <c r="N24" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA22:_tag_day_hour!CR22),_tag_day_hour!CA22:_tag_day_hour!CR22,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA22:_tag_day_hour!CR22),_tag_day_hour!CA22:_tag_day_hour!CR22,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O24" s="25" t="str">
+      <c r="O24" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA22:_tag_day_hour!CR22)=18,"",MIN(_tag_day_hour!CA22:_tag_day_hour!CR22))</f>
         <v/>
       </c>
-      <c r="P24" s="25" t="str">
+      <c r="P24" s="26" t="str">
         <f>IF(_tag_day_hour!BY21="","",_tag_day_hour!BY21)</f>
         <v/>
       </c>
-      <c r="Q24" s="25" t="str">
+      <c r="Q24" s="41" t="str">
         <f>IF(_tag_day_hour!BZ21="","",_tag_day_hour!BZ21)</f>
         <v/>
       </c>
-      <c r="R24" s="35" t="str">
+      <c r="R24" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS45:_tag_day_hour!DJ45)=18,"",AVERAGE(_tag_day_hour!CS45:_tag_day_hour!DJ45))</f>
         <v/>
       </c>
-      <c r="S24" s="36" t="str">
+      <c r="S24" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A21="","",_fanchui6_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="T24" s="35" t="str">
+      <c r="T24" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B21="","",_fanchui6_day_hour!B21-_fanchui6_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="U24" s="35" t="str">
+      <c r="U24" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D21="","",_fanchui6_day_hour!D21-_fanchui6_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="V24" s="25" t="str">
+      <c r="V24" s="26" t="str">
         <f>IF(_maxmin_day_hour!A21="","",_maxmin_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="W24" s="25" t="str">
+      <c r="W24" s="26" t="str">
         <f>IF(_maxmin_day_hour!B21="","",_maxmin_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="X24" s="37"/>
+      <c r="X24" s="44"/>
     </row>
     <row r="25" ht="14.25" spans="1:24">
-      <c r="A25" s="19">
+      <c r="A25" s="20">
         <v>21</v>
       </c>
-      <c r="B25" s="24" t="str">
+      <c r="B25" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A22:_tag_day_hour!R22)=0,"",COUNTIF(_tag_day_hour!A22:_tag_day_hour!R22,"=0"))</f>
         <v/>
       </c>
-      <c r="C25" s="25" t="str">
+      <c r="C25" s="26" t="str">
         <f>IF(_tag_day_hour!S22="","",_tag_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="D25" s="25" t="str">
+      <c r="D25" s="26" t="str">
         <f>IF(_tag_day_hour!T22="","",_tag_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="E25" s="25" t="str">
+      <c r="E25" s="26" t="str">
         <f>IF(_tag_day_hour!U22="","",_tag_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="F25" s="25" t="str">
+      <c r="F25" s="26" t="str">
         <f>IF(_tag_day_hour!V22="","",_tag_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="G25" s="25" t="str">
+      <c r="G25" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H25" s="24" t="str">
+      <c r="H25" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W46:_tag_day_hour!AN46),_tag_day_hour!W46:_tag_day_hour!AN46,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W46:_tag_day_hour!AN46),_tag_day_hour!W46:_tag_day_hour!AN46,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I25" s="25" t="str">
+      <c r="I25" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W46:_tag_day_hour!AN46)=18,"",MAX(_tag_day_hour!W46:_tag_day_hour!AN46))</f>
         <v/>
       </c>
-      <c r="J25" s="24" t="str">
+      <c r="J25" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W46:_tag_day_hour!AN46),_tag_day_hour!W46:_tag_day_hour!AN46,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W46:_tag_day_hour!AN46),_tag_day_hour!W46:_tag_day_hour!AN46,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K25" s="25" t="str">
+      <c r="K25" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W46:_tag_day_hour!AN46)=18,"",MIN(_tag_day_hour!W46:_tag_day_hour!AN46))</f>
         <v/>
       </c>
-      <c r="L25" s="24" t="str">
+      <c r="L25" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA23:_tag_day_hour!CR23),_tag_day_hour!CA23:_tag_day_hour!CR23,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA23:_tag_day_hour!CR23),_tag_day_hour!CA23:_tag_day_hour!CR23,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M25" s="25" t="str">
+      <c r="M25" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA23:_tag_day_hour!CR23)=18,"",MAX(_tag_day_hour!CA23:_tag_day_hour!CR23))</f>
         <v/>
       </c>
-      <c r="N25" s="24" t="str">
+      <c r="N25" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA23:_tag_day_hour!CR23),_tag_day_hour!CA23:_tag_day_hour!CR23,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA23:_tag_day_hour!CR23),_tag_day_hour!CA23:_tag_day_hour!CR23,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O25" s="25" t="str">
+      <c r="O25" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA23:_tag_day_hour!CR23)=18,"",MIN(_tag_day_hour!CA23:_tag_day_hour!CR23))</f>
         <v/>
       </c>
-      <c r="P25" s="25" t="str">
+      <c r="P25" s="26" t="str">
         <f>IF(_tag_day_hour!BY22="","",_tag_day_hour!BY22)</f>
         <v/>
       </c>
-      <c r="Q25" s="25" t="str">
+      <c r="Q25" s="41" t="str">
         <f>IF(_tag_day_hour!BZ22="","",_tag_day_hour!BZ22)</f>
         <v/>
       </c>
-      <c r="R25" s="35" t="str">
+      <c r="R25" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS46:_tag_day_hour!DJ46)=18,"",AVERAGE(_tag_day_hour!CS46:_tag_day_hour!DJ46))</f>
         <v/>
       </c>
-      <c r="S25" s="36" t="str">
+      <c r="S25" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A22="","",_fanchui6_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="T25" s="35" t="str">
+      <c r="T25" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B22="","",_fanchui6_day_hour!B22-_fanchui6_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="U25" s="35" t="str">
+      <c r="U25" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D22="","",_fanchui6_day_hour!D22-_fanchui6_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="V25" s="25" t="str">
+      <c r="V25" s="26" t="str">
         <f>IF(_maxmin_day_hour!A22="","",_maxmin_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="W25" s="25" t="str">
+      <c r="W25" s="26" t="str">
         <f>IF(_maxmin_day_hour!B22="","",_maxmin_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="X25" s="37"/>
+      <c r="X25" s="44"/>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="23">
+      <c r="A26" s="24">
         <v>22</v>
       </c>
-      <c r="B26" s="24" t="str">
+      <c r="B26" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A23:_tag_day_hour!R23)=0,"",COUNTIF(_tag_day_hour!A23:_tag_day_hour!R23,"=0"))</f>
         <v/>
       </c>
-      <c r="C26" s="25" t="str">
+      <c r="C26" s="26" t="str">
         <f>IF(_tag_day_hour!S23="","",_tag_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="D26" s="25" t="str">
+      <c r="D26" s="26" t="str">
         <f>IF(_tag_day_hour!T23="","",_tag_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="E26" s="25" t="str">
+      <c r="E26" s="26" t="str">
         <f>IF(_tag_day_hour!U23="","",_tag_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="F26" s="25" t="str">
+      <c r="F26" s="26" t="str">
         <f>IF(_tag_day_hour!V23="","",_tag_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="G26" s="25" t="str">
+      <c r="G26" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H26" s="24" t="str">
+      <c r="H26" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W47:_tag_day_hour!AN47),_tag_day_hour!W47:_tag_day_hour!AN47,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W47:_tag_day_hour!AN47),_tag_day_hour!W47:_tag_day_hour!AN47,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I26" s="25" t="str">
+      <c r="I26" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W47:_tag_day_hour!AN47)=18,"",MAX(_tag_day_hour!W47:_tag_day_hour!AN47))</f>
         <v/>
       </c>
-      <c r="J26" s="24" t="str">
+      <c r="J26" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W47:_tag_day_hour!AN47),_tag_day_hour!W47:_tag_day_hour!AN47,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W47:_tag_day_hour!AN47),_tag_day_hour!W47:_tag_day_hour!AN47,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K26" s="25" t="str">
+      <c r="K26" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W47:_tag_day_hour!AN47)=18,"",MIN(_tag_day_hour!W47:_tag_day_hour!AN47))</f>
         <v/>
       </c>
-      <c r="L26" s="24" t="str">
+      <c r="L26" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA24:_tag_day_hour!CR24),_tag_day_hour!CA24:_tag_day_hour!CR24,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA24:_tag_day_hour!CR24),_tag_day_hour!CA24:_tag_day_hour!CR24,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M26" s="25" t="str">
+      <c r="M26" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA24:_tag_day_hour!CR24)=18,"",MAX(_tag_day_hour!CA24:_tag_day_hour!CR24))</f>
         <v/>
       </c>
-      <c r="N26" s="24" t="str">
+      <c r="N26" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA24:_tag_day_hour!CR24),_tag_day_hour!CA24:_tag_day_hour!CR24,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA24:_tag_day_hour!CR24),_tag_day_hour!CA24:_tag_day_hour!CR24,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O26" s="25" t="str">
+      <c r="O26" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA24:_tag_day_hour!CR24)=18,"",MIN(_tag_day_hour!CA24:_tag_day_hour!CR24))</f>
         <v/>
       </c>
-      <c r="P26" s="25" t="str">
+      <c r="P26" s="26" t="str">
         <f>IF(_tag_day_hour!BY23="","",_tag_day_hour!BY23)</f>
         <v/>
       </c>
-      <c r="Q26" s="25" t="str">
+      <c r="Q26" s="41" t="str">
         <f>IF(_tag_day_hour!BZ23="","",_tag_day_hour!BZ23)</f>
         <v/>
       </c>
-      <c r="R26" s="35" t="str">
+      <c r="R26" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS47:_tag_day_hour!DJ47)=18,"",AVERAGE(_tag_day_hour!CS47:_tag_day_hour!DJ47))</f>
         <v/>
       </c>
-      <c r="S26" s="36" t="str">
+      <c r="S26" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A23="","",_fanchui6_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="T26" s="35" t="str">
+      <c r="T26" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B23="","",_fanchui6_day_hour!B23-_fanchui6_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="U26" s="35" t="str">
+      <c r="U26" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D23="","",_fanchui6_day_hour!D23-_fanchui6_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="V26" s="25" t="str">
+      <c r="V26" s="26" t="str">
         <f>IF(_maxmin_day_hour!A23="","",_maxmin_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="W26" s="25" t="str">
+      <c r="W26" s="26" t="str">
         <f>IF(_maxmin_day_hour!B23="","",_maxmin_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="X26" s="37"/>
+      <c r="X26" s="44"/>
     </row>
     <row r="27" ht="14.25" spans="1:24">
-      <c r="A27" s="19">
+      <c r="A27" s="20">
         <v>23</v>
       </c>
-      <c r="B27" s="24" t="str">
+      <c r="B27" s="25" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A24:_tag_day_hour!R24)=0,"",COUNTIF(_tag_day_hour!A24:_tag_day_hour!R24,"=0"))</f>
         <v/>
       </c>
-      <c r="C27" s="25" t="str">
+      <c r="C27" s="26" t="str">
         <f>IF(_tag_day_hour!S24="","",_tag_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="D27" s="25" t="str">
+      <c r="D27" s="26" t="str">
         <f>IF(_tag_day_hour!T24="","",_tag_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="E27" s="25" t="str">
+      <c r="E27" s="26" t="str">
         <f>IF(_tag_day_hour!U24="","",_tag_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="F27" s="25" t="str">
+      <c r="F27" s="26" t="str">
         <f>IF(_tag_day_hour!V24="","",_tag_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="G27" s="25" t="str">
+      <c r="G27" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H27" s="24" t="str">
+      <c r="H27" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W48:_tag_day_hour!AN48),_tag_day_hour!W48:_tag_day_hour!AN48,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W48:_tag_day_hour!AN48),_tag_day_hour!W48:_tag_day_hour!AN48,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I27" s="25" t="str">
+      <c r="I27" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W48:_tag_day_hour!AN48)=18,"",MAX(_tag_day_hour!W48:_tag_day_hour!AN48))</f>
         <v/>
       </c>
-      <c r="J27" s="24" t="str">
+      <c r="J27" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W48:_tag_day_hour!AN48),_tag_day_hour!W48:_tag_day_hour!AN48,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W48:_tag_day_hour!AN48),_tag_day_hour!W48:_tag_day_hour!AN48,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K27" s="25" t="str">
+      <c r="K27" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W48:_tag_day_hour!AN48)=18,"",MIN(_tag_day_hour!W48:_tag_day_hour!AN48))</f>
         <v/>
       </c>
-      <c r="L27" s="24" t="str">
+      <c r="L27" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA25:_tag_day_hour!CR25),_tag_day_hour!CA25:_tag_day_hour!CR25,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA25:_tag_day_hour!CR25),_tag_day_hour!CA25:_tag_day_hour!CR25,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M27" s="25" t="str">
+      <c r="M27" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA25:_tag_day_hour!CR25)=18,"",MAX(_tag_day_hour!CA25:_tag_day_hour!CR25))</f>
         <v/>
       </c>
-      <c r="N27" s="24" t="str">
+      <c r="N27" s="25" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA25:_tag_day_hour!CR25),_tag_day_hour!CA25:_tag_day_hour!CR25,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA25:_tag_day_hour!CR25),_tag_day_hour!CA25:_tag_day_hour!CR25,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O27" s="25" t="str">
+      <c r="O27" s="26" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA25:_tag_day_hour!CR25)=18,"",MIN(_tag_day_hour!CA25:_tag_day_hour!CR25))</f>
         <v/>
       </c>
-      <c r="P27" s="25" t="str">
+      <c r="P27" s="26" t="str">
         <f>IF(_tag_day_hour!BY24="","",_tag_day_hour!BY24)</f>
         <v/>
       </c>
-      <c r="Q27" s="25" t="str">
+      <c r="Q27" s="41" t="str">
         <f>IF(_tag_day_hour!BZ24="","",_tag_day_hour!BZ24)</f>
         <v/>
       </c>
-      <c r="R27" s="35" t="str">
+      <c r="R27" s="42" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS48:_tag_day_hour!DJ48)=18,"",AVERAGE(_tag_day_hour!CS48:_tag_day_hour!DJ48))</f>
         <v/>
       </c>
-      <c r="S27" s="36" t="str">
+      <c r="S27" s="43" t="str">
         <f>IF(_fanchui6_day_hour!A24="","",_fanchui6_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="T27" s="35" t="str">
+      <c r="T27" s="42" t="str">
         <f>IF(_fanchui6_day_hour!B24="","",_fanchui6_day_hour!B24-_fanchui6_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="U27" s="35" t="str">
+      <c r="U27" s="42" t="str">
         <f>IF(_fanchui6_day_hour!D24="","",_fanchui6_day_hour!D24-_fanchui6_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="V27" s="25" t="str">
+      <c r="V27" s="26" t="str">
         <f>IF(_maxmin_day_hour!A24="","",_maxmin_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="W27" s="25" t="str">
+      <c r="W27" s="26" t="str">
         <f>IF(_maxmin_day_hour!B24="","",_maxmin_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="X27" s="37"/>
+      <c r="X27" s="44"/>
     </row>
-    <row r="28" ht="14.25" spans="1:24">
-      <c r="A28" s="26">
+    <row r="28" spans="1:24">
+      <c r="A28" s="27">
         <v>24</v>
       </c>
-      <c r="B28" s="27" t="str">
+      <c r="B28" s="28" t="str">
         <f ca="1">IF(COUNTA(_tag_day_hour!A25:_tag_day_hour!R25)=0,"",COUNTIF(_tag_day_hour!A25:_tag_day_hour!R25,"=0"))</f>
         <v/>
       </c>
-      <c r="C28" s="28" t="str">
+      <c r="C28" s="29" t="str">
         <f>IF(_tag_day_hour!S25="","",_tag_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="D28" s="28" t="str">
+      <c r="D28" s="29" t="str">
         <f>IF(_tag_day_hour!T25="","",_tag_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="E28" s="28" t="str">
+      <c r="E28" s="29" t="str">
         <f>IF(_tag_day_hour!U25="","",_tag_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="F28" s="28" t="str">
+      <c r="F28" s="29" t="str">
         <f>IF(_tag_day_hour!V25="","",_tag_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="G28" s="28" t="str">
+      <c r="G28" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="27" t="str">
+      <c r="H28" s="28" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W49:_tag_day_hour!AN49),_tag_day_hour!W49:_tag_day_hour!AN49,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W49:_tag_day_hour!AN49),_tag_day_hour!W49:_tag_day_hour!AN49,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="I28" s="28" t="str">
+      <c r="I28" s="29" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W49:_tag_day_hour!AN49)=18,"",MAX(_tag_day_hour!W49:_tag_day_hour!AN49))</f>
         <v/>
       </c>
-      <c r="J28" s="27" t="str">
+      <c r="J28" s="28" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W49:_tag_day_hour!AN49),_tag_day_hour!W49:_tag_day_hour!AN49,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W49:_tag_day_hour!AN49),_tag_day_hour!W49:_tag_day_hour!AN49,0)))-10,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="K28" s="28" t="str">
+      <c r="K28" s="29" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!W49:_tag_day_hour!AN49)=18,"",MIN(_tag_day_hour!W49:_tag_day_hour!AN49))</f>
         <v/>
       </c>
-      <c r="L28" s="27" t="str">
+      <c r="L28" s="28" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA26:_tag_day_hour!CR26),_tag_day_hour!CA26:_tag_day_hour!CR26,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA26:_tag_day_hour!CR26),_tag_day_hour!CA26:_tag_day_hour!CR26,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="M28" s="28" t="str">
+      <c r="M28" s="29" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA26:_tag_day_hour!CR26)=18,"",MAX(_tag_day_hour!CA26:_tag_day_hour!CR26))</f>
         <v/>
       </c>
-      <c r="N28" s="27" t="str">
+      <c r="N28" s="28" t="str">
         <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA26:_tag_day_hour!CR26),_tag_day_hour!CA26:_tag_day_hour!CR26,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA26:_tag_day_hour!CR26),_tag_day_hour!CA26:_tag_day_hour!CR26,0)))-13,4),"_",""),"")</f>
         <v/>
       </c>
-      <c r="O28" s="28" t="str">
+      <c r="O28" s="29" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA26:_tag_day_hour!CR26)=18,"",MIN(_tag_day_hour!CA26:_tag_day_hour!CR26))</f>
         <v/>
       </c>
-      <c r="P28" s="28" t="str">
+      <c r="P28" s="29" t="str">
         <f>IF(_tag_day_hour!BY25="","",_tag_day_hour!BY25)</f>
         <v/>
       </c>
-      <c r="Q28" s="28" t="str">
+      <c r="Q28" s="45" t="str">
         <f>IF(_tag_day_hour!BZ25="","",_tag_day_hour!BZ25)</f>
         <v/>
       </c>
-      <c r="R28" s="38" t="str">
+      <c r="R28" s="46" t="str">
         <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS49:_tag_day_hour!DJ49)=18,"",AVERAGE(_tag_day_hour!CS49:_tag_day_hour!DJ49))</f>
         <v/>
       </c>
-      <c r="S28" s="39" t="str">
+      <c r="S28" s="47" t="str">
         <f>IF(_fanchui6_day_hour!A25="","",_fanchui6_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="T28" s="38" t="str">
+      <c r="T28" s="46" t="str">
         <f>IF(_fanchui6_day_hour!B25="","",_fanchui6_day_hour!B25-_fanchui6_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="U28" s="38" t="str">
+      <c r="U28" s="46" t="str">
         <f>IF(_fanchui6_day_hour!D25="","",_fanchui6_day_hour!D25-_fanchui6_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="V28" s="28" t="str">
+      <c r="V28" s="29" t="str">
         <f>IF(_maxmin_day_hour!A25="","",_maxmin_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="W28" s="28" t="str">
+      <c r="W28" s="29" t="str">
         <f>IF(_maxmin_day_hour!B25="","",_maxmin_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="X28" s="40"/>
+      <c r="X28" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/excel/finished/环保/6BF-煤气布袋除尘报表.xlsx
+++ b/excel/finished/环保/6BF-煤气布袋除尘报表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\朱川\Desktop\布袋除尘\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="6BF-煤气布袋除尘报表" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="_metadata" sheetId="3" r:id="rId5"/>
     <sheet name="_dictionary" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -24,7 +29,7 @@
     <author>何茂成</author>
   </authors>
   <commentList>
-    <comment ref="R5" authorId="0">
+    <comment ref="R5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T5" authorId="0">
+    <comment ref="T5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U5" authorId="0">
+    <comment ref="U5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V5" authorId="0">
+    <comment ref="V5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W5" authorId="0">
+    <comment ref="W5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +149,7 @@
     <author>何茂成</author>
   </authors>
   <commentList>
-    <comment ref="CS1" authorId="0">
+    <comment ref="CS1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +181,7 @@
     <author>何茂成</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -653,28 +658,50 @@
     <t>BF6_L2C_DEDUST_DU_XT18_CK_1m_avg</t>
   </si>
   <si>
-    <t>BF6_L2C_DEDUST_2#CMD_1m_avg</t>
-  </si>
-  <si>
     <t>BF6_L2C_DEDUST_DB_COM_PuffWorkNosrart_1m_max</t>
   </si>
   <si>
     <t>version</t>
   </si>
+  <si>
+    <r>
+      <t>BF6_L2C_DEDUST_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CMD_1m_avg</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,7 +713,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -721,150 +748,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
@@ -895,8 +778,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -909,194 +806,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1267,263 +978,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1"/>
@@ -1543,27 +1006,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1572,9 +1016,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1586,134 +1027,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1971,2466 +1438,2473 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U1" activeCellId="1" sqref="T1:T1048576 U1:U1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="6" width="9.375"/>
-    <col min="15" max="15" width="10.375"/>
-    <col min="16" max="16" width="12.625"/>
-    <col min="17" max="17" width="9" style="11"/>
+    <col min="3" max="4" width="9" style="28"/>
+    <col min="5" max="6" width="9.33203125" style="28"/>
+    <col min="7" max="7" width="9" style="35"/>
+    <col min="9" max="9" width="9" style="41"/>
+    <col min="11" max="11" width="9" style="41"/>
+    <col min="13" max="13" width="9" style="41"/>
+    <col min="15" max="15" width="10.33203125" style="41"/>
+    <col min="16" max="16" width="12.6640625" style="47"/>
+    <col min="17" max="18" width="9" style="35"/>
     <col min="19" max="19" width="24" customWidth="1"/>
-    <col min="24" max="24" width="23.75" customWidth="1"/>
+    <col min="20" max="21" width="9" style="35"/>
+    <col min="22" max="23" width="9" style="41"/>
+    <col min="24" max="24" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:24">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13" t="s">
+    <row r="1" spans="1:24" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="9"/>
     </row>
-    <row r="2" ht="15" spans="1:24">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="15" t="str">
+    <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="60" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="14" t="s">
+      <c r="I2" s="60"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="9"/>
     </row>
-    <row r="3" ht="14.25" spans="1:24">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17" t="s">
+      <c r="K3" s="52"/>
+      <c r="L3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17" t="s">
+      <c r="M3" s="52"/>
+      <c r="N3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17" t="s">
+      <c r="O3" s="52"/>
+      <c r="P3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17" t="s">
+      <c r="Q3" s="62"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="33" t="s">
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="34" t="s">
+      <c r="W3" s="53"/>
+      <c r="X3" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:24">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19" t="s">
+    <row r="4" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="35" t="s">
+      <c r="Q4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="T4" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="V4" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="19" t="s">
+      <c r="W4" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="36"/>
+      <c r="X4" s="19"/>
     </row>
-    <row r="5" ht="12" customHeight="1" spans="1:24">
-      <c r="A5" s="20">
+    <row r="5" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="21" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A2:_tag_day_hour!R2)=0,"",COUNTIF(_tag_day_hour!A2:_tag_day_hour!R2,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C5" s="22" t="str">
+      <c r="B5" s="12" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A2:'_tag_day_hour'!R2)=0,"",COUNTIF(_tag_day_hour!A2:'_tag_day_hour'!R2,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C5" s="26" t="str">
         <f>IF(_tag_day_hour!S2="","",_tag_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="D5" s="22" t="str">
+      <c r="D5" s="26" t="str">
         <f>IF(_tag_day_hour!T2="","",_tag_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="E5" s="22" t="str">
+      <c r="E5" s="26" t="str">
         <f>IF(_tag_day_hour!U2="","",_tag_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="F5" s="22" t="str">
+      <c r="F5" s="26" t="str">
         <f>IF(_tag_day_hour!V2="","",_tag_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="G5" s="22" t="str">
+      <c r="G5" s="32" t="str">
         <f t="shared" ref="G5:G28" si="0">IFERROR(E5-F5,"")</f>
         <v/>
       </c>
-      <c r="H5" s="23" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W26:_tag_day_hour!AN26),_tag_day_hour!W26:_tag_day_hour!AN26,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W26:_tag_day_hour!AN26),_tag_day_hour!W26:_tag_day_hour!AN26,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I5" s="22" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W26:_tag_day_hour!AN26)=18,"",MAX(_tag_day_hour!W26:_tag_day_hour!AN26))</f>
-        <v/>
-      </c>
-      <c r="J5" s="23" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W26:_tag_day_hour!AN26),_tag_day_hour!W26:_tag_day_hour!AN26,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W26:_tag_day_hour!AN26),_tag_day_hour!W26:_tag_day_hour!AN26,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K5" s="22" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W26:_tag_day_hour!AN26)=18,"",MIN(_tag_day_hour!W26:_tag_day_hour!AN26))</f>
-        <v/>
-      </c>
-      <c r="L5" s="23" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA3:_tag_day_hour!CR3),_tag_day_hour!CA3:_tag_day_hour!CR3,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA3:_tag_day_hour!CR3),_tag_day_hour!CA3:_tag_day_hour!CR3,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M5" s="22" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA3:_tag_day_hour!CR3)=18,"",MAX(_tag_day_hour!CA3:_tag_day_hour!CR3))</f>
-        <v/>
-      </c>
-      <c r="N5" s="23" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA3:_tag_day_hour!CR3),_tag_day_hour!CA3:_tag_day_hour!CR3,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA3:_tag_day_hour!CR3),_tag_day_hour!CA3:_tag_day_hour!CR3,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O5" s="22" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA3:_tag_day_hour!CR3)=18,"",MIN(_tag_day_hour!CA3:_tag_day_hour!CR3))</f>
-        <v/>
-      </c>
-      <c r="P5" s="22" t="str">
+      <c r="H5" s="13" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W26:'_tag_day_hour'!AN26),_tag_day_hour!W26:'_tag_day_hour'!AN26,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W26:'_tag_day_hour'!AN26),_tag_day_hour!W26:'_tag_day_hour'!AN26,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I5" s="38" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W26:'_tag_day_hour'!AN26)=18,"",MAX(_tag_day_hour!W26:'_tag_day_hour'!AN26))</f>
+        <v/>
+      </c>
+      <c r="J5" s="13" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W26:'_tag_day_hour'!AN26),_tag_day_hour!W26:'_tag_day_hour'!AN26,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W26:'_tag_day_hour'!AN26),_tag_day_hour!W26:'_tag_day_hour'!AN26,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K5" s="38" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W26:'_tag_day_hour'!AN26)=18,"",MIN(_tag_day_hour!W26:'_tag_day_hour'!AN26))</f>
+        <v/>
+      </c>
+      <c r="L5" s="13" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA3:'_tag_day_hour'!CR3),_tag_day_hour!CA3:'_tag_day_hour'!CR3,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA3:'_tag_day_hour'!CR3),_tag_day_hour!CA3:'_tag_day_hour'!CR3,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M5" s="38" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA3:'_tag_day_hour'!CR3)=18,"",MAX(_tag_day_hour!CA3:'_tag_day_hour'!CR3))</f>
+        <v/>
+      </c>
+      <c r="N5" s="13" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA3:'_tag_day_hour'!CR3),_tag_day_hour!CA3:'_tag_day_hour'!CR3,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA3:'_tag_day_hour'!CR3),_tag_day_hour!CA3:'_tag_day_hour'!CR3,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O5" s="38" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA3:'_tag_day_hour'!CR3)=18,"",MIN(_tag_day_hour!CA3:'_tag_day_hour'!CR3))</f>
+        <v/>
+      </c>
+      <c r="P5" s="44" t="str">
         <f>IF(_tag_day_hour!BY2="","",_tag_day_hour!BY2)</f>
         <v/>
       </c>
-      <c r="Q5" s="37" t="str">
+      <c r="Q5" s="32" t="str">
         <f>IF(_tag_day_hour!BZ2="","",_tag_day_hour!BZ2)</f>
         <v/>
       </c>
-      <c r="R5" s="38" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS26:_tag_day_hour!DJ26)=18,"",AVERAGE(_tag_day_hour!CS26:_tag_day_hour!DJ26))</f>
-        <v/>
-      </c>
-      <c r="S5" s="39" t="str">
+      <c r="R5" s="32" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS26:'_tag_day_hour'!DJ26)=18,"",AVERAGE(_tag_day_hour!CS26:'_tag_day_hour'!DJ26))</f>
+        <v/>
+      </c>
+      <c r="S5" s="20" t="str">
         <f>IF(_fanchui6_day_hour!A2="","",_fanchui6_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="T5" s="38" t="str">
+      <c r="T5" s="32" t="str">
         <f>IF(_fanchui6_day_hour!B2="","",_fanchui6_day_hour!B2-_fanchui6_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="U5" s="38" t="str">
+      <c r="U5" s="32" t="str">
         <f>IF(_fanchui6_day_hour!D2="","",_fanchui6_day_hour!D2-_fanchui6_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="V5" s="22" t="str">
+      <c r="V5" s="38" t="str">
         <f>IF(_maxmin_day_hour!A2="","",_maxmin_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="W5" s="22" t="str">
+      <c r="W5" s="38" t="str">
         <f>IF(_maxmin_day_hour!B2="","",_maxmin_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="X5" s="40" t="s">
+      <c r="X5" s="49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A3:_tag_day_hour!R3)=0,"",COUNTIF(_tag_day_hour!A3:_tag_day_hour!R3,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C6" s="26" t="str">
+      <c r="B6" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A3:'_tag_day_hour'!R3)=0,"",COUNTIF(_tag_day_hour!A3:'_tag_day_hour'!R3,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C6" s="23" t="str">
         <f>IF(_tag_day_hour!S3="","",_tag_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="D6" s="26" t="str">
+      <c r="D6" s="23" t="str">
         <f>IF(_tag_day_hour!T3="","",_tag_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="E6" s="26" t="str">
+      <c r="E6" s="23" t="str">
         <f>IF(_tag_day_hour!U3="","",_tag_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="F6" s="26" t="str">
+      <c r="F6" s="23" t="str">
         <f>IF(_tag_day_hour!V3="","",_tag_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="G6" s="26" t="str">
+      <c r="G6" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H6" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W27:_tag_day_hour!AN27),_tag_day_hour!W27:_tag_day_hour!AN27,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W27:_tag_day_hour!AN27),_tag_day_hour!W27:_tag_day_hour!AN27,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I6" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W27:_tag_day_hour!AN27)=18,"",MAX(_tag_day_hour!W27:_tag_day_hour!AN27))</f>
-        <v/>
-      </c>
-      <c r="J6" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W27:_tag_day_hour!AN27),_tag_day_hour!W27:_tag_day_hour!AN27,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W27:_tag_day_hour!AN27),_tag_day_hour!W27:_tag_day_hour!AN27,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K6" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W27:_tag_day_hour!AN27)=18,"",MIN(_tag_day_hour!W27:_tag_day_hour!AN27))</f>
-        <v/>
-      </c>
-      <c r="L6" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA4:_tag_day_hour!CR4),_tag_day_hour!CA4:_tag_day_hour!CR4,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA4:_tag_day_hour!CR4),_tag_day_hour!CA4:_tag_day_hour!CR4,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M6" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA4:_tag_day_hour!CR4)=18,"",MAX(_tag_day_hour!CA4:_tag_day_hour!CR4))</f>
-        <v/>
-      </c>
-      <c r="N6" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA4:_tag_day_hour!CR4),_tag_day_hour!CA4:_tag_day_hour!CR4,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA4:_tag_day_hour!CR4),_tag_day_hour!CA4:_tag_day_hour!CR4,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O6" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA4:_tag_day_hour!CR4)=18,"",MIN(_tag_day_hour!CA4:_tag_day_hour!CR4))</f>
-        <v/>
-      </c>
-      <c r="P6" s="26" t="str">
+      <c r="H6" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W27:'_tag_day_hour'!AN27),_tag_day_hour!W27:'_tag_day_hour'!AN27,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W27:'_tag_day_hour'!AN27),_tag_day_hour!W27:'_tag_day_hour'!AN27,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I6" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W27:'_tag_day_hour'!AN27)=18,"",MAX(_tag_day_hour!W27:'_tag_day_hour'!AN27))</f>
+        <v/>
+      </c>
+      <c r="J6" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W27:'_tag_day_hour'!AN27),_tag_day_hour!W27:'_tag_day_hour'!AN27,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W27:'_tag_day_hour'!AN27),_tag_day_hour!W27:'_tag_day_hour'!AN27,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K6" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W27:'_tag_day_hour'!AN27)=18,"",MIN(_tag_day_hour!W27:'_tag_day_hour'!AN27))</f>
+        <v/>
+      </c>
+      <c r="L6" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA4:'_tag_day_hour'!CR4),_tag_day_hour!CA4:'_tag_day_hour'!CR4,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA4:'_tag_day_hour'!CR4),_tag_day_hour!CA4:'_tag_day_hour'!CR4,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M6" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA4:'_tag_day_hour'!CR4)=18,"",MAX(_tag_day_hour!CA4:'_tag_day_hour'!CR4))</f>
+        <v/>
+      </c>
+      <c r="N6" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA4:'_tag_day_hour'!CR4),_tag_day_hour!CA4:'_tag_day_hour'!CR4,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA4:'_tag_day_hour'!CR4),_tag_day_hour!CA4:'_tag_day_hour'!CR4,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O6" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA4:'_tag_day_hour'!CR4)=18,"",MIN(_tag_day_hour!CA4:'_tag_day_hour'!CR4))</f>
+        <v/>
+      </c>
+      <c r="P6" s="45" t="str">
         <f>IF(_tag_day_hour!BY3="","",_tag_day_hour!BY3)</f>
         <v/>
       </c>
-      <c r="Q6" s="41" t="str">
+      <c r="Q6" s="33" t="str">
         <f>IF(_tag_day_hour!BZ3="","",_tag_day_hour!BZ3)</f>
         <v/>
       </c>
-      <c r="R6" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS27:_tag_day_hour!DJ27)=18,"",AVERAGE(_tag_day_hour!CS27:_tag_day_hour!DJ27))</f>
-        <v/>
-      </c>
-      <c r="S6" s="43" t="str">
+      <c r="R6" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS27:'_tag_day_hour'!DJ27)=18,"",AVERAGE(_tag_day_hour!CS27:'_tag_day_hour'!DJ27))</f>
+        <v/>
+      </c>
+      <c r="S6" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A3="","",_fanchui6_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="T6" s="42" t="str">
+      <c r="T6" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B3="","",_fanchui6_day_hour!B3-_fanchui6_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="U6" s="42" t="str">
+      <c r="U6" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D3="","",_fanchui6_day_hour!D3-_fanchui6_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="V6" s="26" t="str">
+      <c r="V6" s="39" t="str">
         <f>IF(_maxmin_day_hour!A3="","",_maxmin_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="W6" s="26" t="str">
+      <c r="W6" s="39" t="str">
         <f>IF(_maxmin_day_hour!B3="","",_maxmin_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="X6" s="44"/>
+      <c r="X6" s="50"/>
     </row>
-    <row r="7" ht="14.25" spans="1:24">
-      <c r="A7" s="20">
+    <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A4:_tag_day_hour!R4)=0,"",COUNTIF(_tag_day_hour!A4:_tag_day_hour!R4,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C7" s="26" t="str">
+      <c r="B7" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A4:'_tag_day_hour'!R4)=0,"",COUNTIF(_tag_day_hour!A4:'_tag_day_hour'!R4,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C7" s="23" t="str">
         <f>IF(_tag_day_hour!S4="","",_tag_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="D7" s="26" t="str">
+      <c r="D7" s="23" t="str">
         <f>IF(_tag_day_hour!T4="","",_tag_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="E7" s="26" t="str">
+      <c r="E7" s="23" t="str">
         <f>IF(_tag_day_hour!U4="","",_tag_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="F7" s="26" t="str">
+      <c r="F7" s="23" t="str">
         <f>IF(_tag_day_hour!V4="","",_tag_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="G7" s="26" t="str">
+      <c r="G7" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H7" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W28:_tag_day_hour!AN28),_tag_day_hour!W28:_tag_day_hour!AN28,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W28:_tag_day_hour!AN28),_tag_day_hour!W28:_tag_day_hour!AN28,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I7" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W28:_tag_day_hour!AN28)=18,"",MAX(_tag_day_hour!W28:_tag_day_hour!AN28))</f>
-        <v/>
-      </c>
-      <c r="J7" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W28:_tag_day_hour!AN28),_tag_day_hour!W28:_tag_day_hour!AN28,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W28:_tag_day_hour!AN28),_tag_day_hour!W28:_tag_day_hour!AN28,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K7" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W28:_tag_day_hour!AN28)=18,"",MIN(_tag_day_hour!W28:_tag_day_hour!AN28))</f>
-        <v/>
-      </c>
-      <c r="L7" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA5:_tag_day_hour!CR5),_tag_day_hour!CA5:_tag_day_hour!CR5,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA5:_tag_day_hour!CR5),_tag_day_hour!CA5:_tag_day_hour!CR5,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M7" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA5:_tag_day_hour!CR5)=18,"",MAX(_tag_day_hour!CA5:_tag_day_hour!CR5))</f>
-        <v/>
-      </c>
-      <c r="N7" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA5:_tag_day_hour!CR5),_tag_day_hour!CA5:_tag_day_hour!CR5,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA5:_tag_day_hour!CR5),_tag_day_hour!CA5:_tag_day_hour!CR5,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O7" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA5:_tag_day_hour!CR5)=18,"",MIN(_tag_day_hour!CA5:_tag_day_hour!CR5))</f>
-        <v/>
-      </c>
-      <c r="P7" s="26" t="str">
+      <c r="H7" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W28:'_tag_day_hour'!AN28),_tag_day_hour!W28:'_tag_day_hour'!AN28,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W28:'_tag_day_hour'!AN28),_tag_day_hour!W28:'_tag_day_hour'!AN28,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I7" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W28:'_tag_day_hour'!AN28)=18,"",MAX(_tag_day_hour!W28:'_tag_day_hour'!AN28))</f>
+        <v/>
+      </c>
+      <c r="J7" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W28:'_tag_day_hour'!AN28),_tag_day_hour!W28:'_tag_day_hour'!AN28,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W28:'_tag_day_hour'!AN28),_tag_day_hour!W28:'_tag_day_hour'!AN28,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K7" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W28:'_tag_day_hour'!AN28)=18,"",MIN(_tag_day_hour!W28:'_tag_day_hour'!AN28))</f>
+        <v/>
+      </c>
+      <c r="L7" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA5:'_tag_day_hour'!CR5),_tag_day_hour!CA5:'_tag_day_hour'!CR5,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA5:'_tag_day_hour'!CR5),_tag_day_hour!CA5:'_tag_day_hour'!CR5,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M7" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA5:'_tag_day_hour'!CR5)=18,"",MAX(_tag_day_hour!CA5:'_tag_day_hour'!CR5))</f>
+        <v/>
+      </c>
+      <c r="N7" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA5:'_tag_day_hour'!CR5),_tag_day_hour!CA5:'_tag_day_hour'!CR5,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA5:'_tag_day_hour'!CR5),_tag_day_hour!CA5:'_tag_day_hour'!CR5,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O7" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA5:'_tag_day_hour'!CR5)=18,"",MIN(_tag_day_hour!CA5:'_tag_day_hour'!CR5))</f>
+        <v/>
+      </c>
+      <c r="P7" s="45" t="str">
         <f>IF(_tag_day_hour!BY4="","",_tag_day_hour!BY4)</f>
         <v/>
       </c>
-      <c r="Q7" s="41" t="str">
+      <c r="Q7" s="33" t="str">
         <f>IF(_tag_day_hour!BZ4="","",_tag_day_hour!BZ4)</f>
         <v/>
       </c>
-      <c r="R7" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS28:_tag_day_hour!DJ28)=18,"",AVERAGE(_tag_day_hour!CS28:_tag_day_hour!DJ28))</f>
-        <v/>
-      </c>
-      <c r="S7" s="43" t="str">
+      <c r="R7" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS28:'_tag_day_hour'!DJ28)=18,"",AVERAGE(_tag_day_hour!CS28:'_tag_day_hour'!DJ28))</f>
+        <v/>
+      </c>
+      <c r="S7" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A4="","",_fanchui6_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="T7" s="42" t="str">
+      <c r="T7" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B4="","",_fanchui6_day_hour!B4-_fanchui6_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="U7" s="42" t="str">
+      <c r="U7" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D4="","",_fanchui6_day_hour!D4-_fanchui6_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="V7" s="26" t="str">
+      <c r="V7" s="39" t="str">
         <f>IF(_maxmin_day_hour!A4="","",_maxmin_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="W7" s="26" t="str">
+      <c r="W7" s="39" t="str">
         <f>IF(_maxmin_day_hour!B4="","",_maxmin_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="X7" s="44"/>
+      <c r="X7" s="50"/>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B8" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A5:_tag_day_hour!R5)=0,"",COUNTIF(_tag_day_hour!A5:_tag_day_hour!R5,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C8" s="26" t="str">
+      <c r="B8" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A5:'_tag_day_hour'!R5)=0,"",COUNTIF(_tag_day_hour!A5:'_tag_day_hour'!R5,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C8" s="23" t="str">
         <f>IF(_tag_day_hour!S5="","",_tag_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="D8" s="26" t="str">
+      <c r="D8" s="23" t="str">
         <f>IF(_tag_day_hour!T5="","",_tag_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="E8" s="26" t="str">
+      <c r="E8" s="23" t="str">
         <f>IF(_tag_day_hour!U5="","",_tag_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="F8" s="26" t="str">
+      <c r="F8" s="23" t="str">
         <f>IF(_tag_day_hour!V5="","",_tag_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="G8" s="26" t="str">
+      <c r="G8" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H8" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W29:_tag_day_hour!AN29),_tag_day_hour!W29:_tag_day_hour!AN29,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W29:_tag_day_hour!AN29),_tag_day_hour!W29:_tag_day_hour!AN29,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I8" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W29:_tag_day_hour!AN29)=18,"",MAX(_tag_day_hour!W29:_tag_day_hour!AN29))</f>
-        <v/>
-      </c>
-      <c r="J8" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W29:_tag_day_hour!AN29),_tag_day_hour!W29:_tag_day_hour!AN29,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W29:_tag_day_hour!AN29),_tag_day_hour!W29:_tag_day_hour!AN29,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K8" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W29:_tag_day_hour!AN29)=18,"",MIN(_tag_day_hour!W29:_tag_day_hour!AN29))</f>
-        <v/>
-      </c>
-      <c r="L8" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA6:_tag_day_hour!CR6),_tag_day_hour!CA6:_tag_day_hour!CR6,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA6:_tag_day_hour!CR6),_tag_day_hour!CA6:_tag_day_hour!CR6,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M8" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA6:_tag_day_hour!CR6)=18,"",MAX(_tag_day_hour!CA6:_tag_day_hour!CR6))</f>
-        <v/>
-      </c>
-      <c r="N8" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA6:_tag_day_hour!CR6),_tag_day_hour!CA6:_tag_day_hour!CR6,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA6:_tag_day_hour!CR6),_tag_day_hour!CA6:_tag_day_hour!CR6,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O8" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA6:_tag_day_hour!CR6)=18,"",MIN(_tag_day_hour!CA6:_tag_day_hour!CR6))</f>
-        <v/>
-      </c>
-      <c r="P8" s="26" t="str">
+      <c r="H8" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W29:'_tag_day_hour'!AN29),_tag_day_hour!W29:'_tag_day_hour'!AN29,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W29:'_tag_day_hour'!AN29),_tag_day_hour!W29:'_tag_day_hour'!AN29,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I8" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W29:'_tag_day_hour'!AN29)=18,"",MAX(_tag_day_hour!W29:'_tag_day_hour'!AN29))</f>
+        <v/>
+      </c>
+      <c r="J8" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W29:'_tag_day_hour'!AN29),_tag_day_hour!W29:'_tag_day_hour'!AN29,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W29:'_tag_day_hour'!AN29),_tag_day_hour!W29:'_tag_day_hour'!AN29,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K8" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W29:'_tag_day_hour'!AN29)=18,"",MIN(_tag_day_hour!W29:'_tag_day_hour'!AN29))</f>
+        <v/>
+      </c>
+      <c r="L8" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA6:'_tag_day_hour'!CR6),_tag_day_hour!CA6:'_tag_day_hour'!CR6,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA6:'_tag_day_hour'!CR6),_tag_day_hour!CA6:'_tag_day_hour'!CR6,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M8" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA6:'_tag_day_hour'!CR6)=18,"",MAX(_tag_day_hour!CA6:'_tag_day_hour'!CR6))</f>
+        <v/>
+      </c>
+      <c r="N8" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA6:'_tag_day_hour'!CR6),_tag_day_hour!CA6:'_tag_day_hour'!CR6,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA6:'_tag_day_hour'!CR6),_tag_day_hour!CA6:'_tag_day_hour'!CR6,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O8" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA6:'_tag_day_hour'!CR6)=18,"",MIN(_tag_day_hour!CA6:'_tag_day_hour'!CR6))</f>
+        <v/>
+      </c>
+      <c r="P8" s="45" t="str">
         <f>IF(_tag_day_hour!BY5="","",_tag_day_hour!BY5)</f>
         <v/>
       </c>
-      <c r="Q8" s="41" t="str">
+      <c r="Q8" s="33" t="str">
         <f>IF(_tag_day_hour!BZ5="","",_tag_day_hour!BZ5)</f>
         <v/>
       </c>
-      <c r="R8" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS29:_tag_day_hour!DJ29)=18,"",AVERAGE(_tag_day_hour!CS29:_tag_day_hour!DJ29))</f>
-        <v/>
-      </c>
-      <c r="S8" s="43" t="str">
+      <c r="R8" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS29:'_tag_day_hour'!DJ29)=18,"",AVERAGE(_tag_day_hour!CS29:'_tag_day_hour'!DJ29))</f>
+        <v/>
+      </c>
+      <c r="S8" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A5="","",_fanchui6_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="T8" s="42" t="str">
+      <c r="T8" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B5="","",_fanchui6_day_hour!B5-_fanchui6_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="U8" s="42" t="str">
+      <c r="U8" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D5="","",_fanchui6_day_hour!D5-_fanchui6_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="V8" s="26" t="str">
+      <c r="V8" s="39" t="str">
         <f>IF(_maxmin_day_hour!A5="","",_maxmin_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="W8" s="26" t="str">
+      <c r="W8" s="39" t="str">
         <f>IF(_maxmin_day_hour!B5="","",_maxmin_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="X8" s="44"/>
+      <c r="X8" s="50"/>
     </row>
-    <row r="9" ht="14.25" spans="1:24">
-      <c r="A9" s="20">
+    <row r="9" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A6:_tag_day_hour!R6)=0,"",COUNTIF(_tag_day_hour!A6:_tag_day_hour!R6,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C9" s="26" t="str">
+      <c r="B9" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A6:'_tag_day_hour'!R6)=0,"",COUNTIF(_tag_day_hour!A6:'_tag_day_hour'!R6,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C9" s="23" t="str">
         <f>IF(_tag_day_hour!S6="","",_tag_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="D9" s="26" t="str">
+      <c r="D9" s="23" t="str">
         <f>IF(_tag_day_hour!T6="","",_tag_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="E9" s="26" t="str">
+      <c r="E9" s="23" t="str">
         <f>IF(_tag_day_hour!U6="","",_tag_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="F9" s="26" t="str">
+      <c r="F9" s="23" t="str">
         <f>IF(_tag_day_hour!V6="","",_tag_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="G9" s="26" t="str">
+      <c r="G9" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H9" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W30:_tag_day_hour!AN30),_tag_day_hour!W30:_tag_day_hour!AN30,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W30:_tag_day_hour!AN30),_tag_day_hour!W30:_tag_day_hour!AN30,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I9" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W30:_tag_day_hour!AN30)=18,"",MAX(_tag_day_hour!W30:_tag_day_hour!AN30))</f>
-        <v/>
-      </c>
-      <c r="J9" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W30:_tag_day_hour!AN30),_tag_day_hour!W30:_tag_day_hour!AN30,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W30:_tag_day_hour!AN30),_tag_day_hour!W30:_tag_day_hour!AN30,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K9" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W30:_tag_day_hour!AN30)=18,"",MIN(_tag_day_hour!W30:_tag_day_hour!AN30))</f>
-        <v/>
-      </c>
-      <c r="L9" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA7:_tag_day_hour!CR7),_tag_day_hour!CA7:_tag_day_hour!CR7,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA7:_tag_day_hour!CR7),_tag_day_hour!CA7:_tag_day_hour!CR7,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M9" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA7:_tag_day_hour!CR7)=18,"",MAX(_tag_day_hour!CA7:_tag_day_hour!CR7))</f>
-        <v/>
-      </c>
-      <c r="N9" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA7:_tag_day_hour!CR7),_tag_day_hour!CA7:_tag_day_hour!CR7,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA7:_tag_day_hour!CR7),_tag_day_hour!CA7:_tag_day_hour!CR7,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O9" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA7:_tag_day_hour!CR7)=18,"",MIN(_tag_day_hour!CA7:_tag_day_hour!CR7))</f>
-        <v/>
-      </c>
-      <c r="P9" s="26" t="str">
+      <c r="H9" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W30:'_tag_day_hour'!AN30),_tag_day_hour!W30:'_tag_day_hour'!AN30,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W30:'_tag_day_hour'!AN30),_tag_day_hour!W30:'_tag_day_hour'!AN30,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I9" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W30:'_tag_day_hour'!AN30)=18,"",MAX(_tag_day_hour!W30:'_tag_day_hour'!AN30))</f>
+        <v/>
+      </c>
+      <c r="J9" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W30:'_tag_day_hour'!AN30),_tag_day_hour!W30:'_tag_day_hour'!AN30,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W30:'_tag_day_hour'!AN30),_tag_day_hour!W30:'_tag_day_hour'!AN30,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K9" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W30:'_tag_day_hour'!AN30)=18,"",MIN(_tag_day_hour!W30:'_tag_day_hour'!AN30))</f>
+        <v/>
+      </c>
+      <c r="L9" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA7:'_tag_day_hour'!CR7),_tag_day_hour!CA7:'_tag_day_hour'!CR7,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA7:'_tag_day_hour'!CR7),_tag_day_hour!CA7:'_tag_day_hour'!CR7,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M9" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA7:'_tag_day_hour'!CR7)=18,"",MAX(_tag_day_hour!CA7:'_tag_day_hour'!CR7))</f>
+        <v/>
+      </c>
+      <c r="N9" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA7:'_tag_day_hour'!CR7),_tag_day_hour!CA7:'_tag_day_hour'!CR7,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA7:'_tag_day_hour'!CR7),_tag_day_hour!CA7:'_tag_day_hour'!CR7,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O9" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA7:'_tag_day_hour'!CR7)=18,"",MIN(_tag_day_hour!CA7:'_tag_day_hour'!CR7))</f>
+        <v/>
+      </c>
+      <c r="P9" s="45" t="str">
         <f>IF(_tag_day_hour!BY6="","",_tag_day_hour!BY6)</f>
         <v/>
       </c>
-      <c r="Q9" s="41" t="str">
+      <c r="Q9" s="33" t="str">
         <f>IF(_tag_day_hour!BZ6="","",_tag_day_hour!BZ6)</f>
         <v/>
       </c>
-      <c r="R9" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS30:_tag_day_hour!DJ30)=18,"",AVERAGE(_tag_day_hour!CS30:_tag_day_hour!DJ30))</f>
-        <v/>
-      </c>
-      <c r="S9" s="43" t="str">
+      <c r="R9" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS30:'_tag_day_hour'!DJ30)=18,"",AVERAGE(_tag_day_hour!CS30:'_tag_day_hour'!DJ30))</f>
+        <v/>
+      </c>
+      <c r="S9" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A6="","",_fanchui6_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="T9" s="42" t="str">
+      <c r="T9" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B6="","",_fanchui6_day_hour!B6-_fanchui6_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="U9" s="42" t="str">
+      <c r="U9" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D6="","",_fanchui6_day_hour!D6-_fanchui6_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="V9" s="26" t="str">
+      <c r="V9" s="39" t="str">
         <f>IF(_maxmin_day_hour!A6="","",_maxmin_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="W9" s="26" t="str">
+      <c r="W9" s="39" t="str">
         <f>IF(_maxmin_day_hour!B6="","",_maxmin_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="X9" s="44"/>
+      <c r="X9" s="50"/>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>6</v>
       </c>
-      <c r="B10" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A7:_tag_day_hour!R7)=0,"",COUNTIF(_tag_day_hour!A7:_tag_day_hour!R7,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C10" s="26" t="str">
+      <c r="B10" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A7:'_tag_day_hour'!R7)=0,"",COUNTIF(_tag_day_hour!A7:'_tag_day_hour'!R7,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C10" s="23" t="str">
         <f>IF(_tag_day_hour!S7="","",_tag_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="D10" s="26" t="str">
+      <c r="D10" s="23" t="str">
         <f>IF(_tag_day_hour!T7="","",_tag_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="E10" s="26" t="str">
+      <c r="E10" s="23" t="str">
         <f>IF(_tag_day_hour!U7="","",_tag_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="F10" s="26" t="str">
+      <c r="F10" s="23" t="str">
         <f>IF(_tag_day_hour!V7="","",_tag_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="G10" s="26" t="str">
+      <c r="G10" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H10" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W31:_tag_day_hour!AN31),_tag_day_hour!W31:_tag_day_hour!AN31,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W31:_tag_day_hour!AN31),_tag_day_hour!W31:_tag_day_hour!AN31,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I10" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W31:_tag_day_hour!AN31)=18,"",MAX(_tag_day_hour!W31:_tag_day_hour!AN31))</f>
-        <v/>
-      </c>
-      <c r="J10" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W31:_tag_day_hour!AN31),_tag_day_hour!W31:_tag_day_hour!AN31,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W31:_tag_day_hour!AN31),_tag_day_hour!W31:_tag_day_hour!AN31,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K10" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W31:_tag_day_hour!AN31)=18,"",MIN(_tag_day_hour!W31:_tag_day_hour!AN31))</f>
-        <v/>
-      </c>
-      <c r="L10" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA8:_tag_day_hour!CR8),_tag_day_hour!CA8:_tag_day_hour!CR8,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA8:_tag_day_hour!CR8),_tag_day_hour!CA8:_tag_day_hour!CR8,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M10" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA8:_tag_day_hour!CR8)=18,"",MAX(_tag_day_hour!CA8:_tag_day_hour!CR8))</f>
-        <v/>
-      </c>
-      <c r="N10" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA8:_tag_day_hour!CR8),_tag_day_hour!CA8:_tag_day_hour!CR8,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA8:_tag_day_hour!CR8),_tag_day_hour!CA8:_tag_day_hour!CR8,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O10" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA8:_tag_day_hour!CR8)=18,"",MIN(_tag_day_hour!CA8:_tag_day_hour!CR8))</f>
-        <v/>
-      </c>
-      <c r="P10" s="26" t="str">
+      <c r="H10" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W31:'_tag_day_hour'!AN31),_tag_day_hour!W31:'_tag_day_hour'!AN31,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W31:'_tag_day_hour'!AN31),_tag_day_hour!W31:'_tag_day_hour'!AN31,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I10" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W31:'_tag_day_hour'!AN31)=18,"",MAX(_tag_day_hour!W31:'_tag_day_hour'!AN31))</f>
+        <v/>
+      </c>
+      <c r="J10" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W31:'_tag_day_hour'!AN31),_tag_day_hour!W31:'_tag_day_hour'!AN31,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W31:'_tag_day_hour'!AN31),_tag_day_hour!W31:'_tag_day_hour'!AN31,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K10" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W31:'_tag_day_hour'!AN31)=18,"",MIN(_tag_day_hour!W31:'_tag_day_hour'!AN31))</f>
+        <v/>
+      </c>
+      <c r="L10" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA8:'_tag_day_hour'!CR8),_tag_day_hour!CA8:'_tag_day_hour'!CR8,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA8:'_tag_day_hour'!CR8),_tag_day_hour!CA8:'_tag_day_hour'!CR8,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M10" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA8:'_tag_day_hour'!CR8)=18,"",MAX(_tag_day_hour!CA8:'_tag_day_hour'!CR8))</f>
+        <v/>
+      </c>
+      <c r="N10" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA8:'_tag_day_hour'!CR8),_tag_day_hour!CA8:'_tag_day_hour'!CR8,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA8:'_tag_day_hour'!CR8),_tag_day_hour!CA8:'_tag_day_hour'!CR8,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O10" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA8:'_tag_day_hour'!CR8)=18,"",MIN(_tag_day_hour!CA8:'_tag_day_hour'!CR8))</f>
+        <v/>
+      </c>
+      <c r="P10" s="45" t="str">
         <f>IF(_tag_day_hour!BY7="","",_tag_day_hour!BY7)</f>
         <v/>
       </c>
-      <c r="Q10" s="41" t="str">
+      <c r="Q10" s="33" t="str">
         <f>IF(_tag_day_hour!BZ7="","",_tag_day_hour!BZ7)</f>
         <v/>
       </c>
-      <c r="R10" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS31:_tag_day_hour!DJ31)=18,"",AVERAGE(_tag_day_hour!CS31:_tag_day_hour!DJ31))</f>
-        <v/>
-      </c>
-      <c r="S10" s="43" t="str">
+      <c r="R10" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS31:'_tag_day_hour'!DJ31)=18,"",AVERAGE(_tag_day_hour!CS31:'_tag_day_hour'!DJ31))</f>
+        <v/>
+      </c>
+      <c r="S10" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A7="","",_fanchui6_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="T10" s="42" t="str">
+      <c r="T10" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B7="","",_fanchui6_day_hour!B7-_fanchui6_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="U10" s="42" t="str">
+      <c r="U10" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D7="","",_fanchui6_day_hour!D7-_fanchui6_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="V10" s="26" t="str">
+      <c r="V10" s="39" t="str">
         <f>IF(_maxmin_day_hour!A7="","",_maxmin_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="W10" s="26" t="str">
+      <c r="W10" s="39" t="str">
         <f>IF(_maxmin_day_hour!B7="","",_maxmin_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="X10" s="44"/>
+      <c r="X10" s="50"/>
     </row>
-    <row r="11" ht="14.25" spans="1:24">
-      <c r="A11" s="20">
+    <row r="11" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A8:_tag_day_hour!R8)=0,"",COUNTIF(_tag_day_hour!A8:_tag_day_hour!R8,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C11" s="26" t="str">
+      <c r="B11" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A8:'_tag_day_hour'!R8)=0,"",COUNTIF(_tag_day_hour!A8:'_tag_day_hour'!R8,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C11" s="23" t="str">
         <f>IF(_tag_day_hour!S8="","",_tag_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="D11" s="26" t="str">
+      <c r="D11" s="23" t="str">
         <f>IF(_tag_day_hour!T8="","",_tag_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="E11" s="26" t="str">
+      <c r="E11" s="23" t="str">
         <f>IF(_tag_day_hour!U8="","",_tag_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="F11" s="26" t="str">
+      <c r="F11" s="23" t="str">
         <f>IF(_tag_day_hour!V8="","",_tag_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="G11" s="26" t="str">
+      <c r="G11" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H11" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W32:_tag_day_hour!AN32),_tag_day_hour!W32:_tag_day_hour!AN32,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W32:_tag_day_hour!AN32),_tag_day_hour!W32:_tag_day_hour!AN32,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I11" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W32:_tag_day_hour!AN32)=18,"",MAX(_tag_day_hour!W32:_tag_day_hour!AN32))</f>
-        <v/>
-      </c>
-      <c r="J11" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W32:_tag_day_hour!AN32),_tag_day_hour!W32:_tag_day_hour!AN32,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W32:_tag_day_hour!AN32),_tag_day_hour!W32:_tag_day_hour!AN32,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K11" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W32:_tag_day_hour!AN32)=18,"",MIN(_tag_day_hour!W32:_tag_day_hour!AN32))</f>
-        <v/>
-      </c>
-      <c r="L11" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA9:_tag_day_hour!CR9),_tag_day_hour!CA9:_tag_day_hour!CR9,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA9:_tag_day_hour!CR9),_tag_day_hour!CA9:_tag_day_hour!CR9,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M11" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA9:_tag_day_hour!CR9)=18,"",MAX(_tag_day_hour!CA9:_tag_day_hour!CR9))</f>
-        <v/>
-      </c>
-      <c r="N11" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA9:_tag_day_hour!CR9),_tag_day_hour!CA9:_tag_day_hour!CR9,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA9:_tag_day_hour!CR9),_tag_day_hour!CA9:_tag_day_hour!CR9,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O11" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA9:_tag_day_hour!CR9)=18,"",MIN(_tag_day_hour!CA9:_tag_day_hour!CR9))</f>
-        <v/>
-      </c>
-      <c r="P11" s="26" t="str">
+      <c r="H11" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W32:'_tag_day_hour'!AN32),_tag_day_hour!W32:'_tag_day_hour'!AN32,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W32:'_tag_day_hour'!AN32),_tag_day_hour!W32:'_tag_day_hour'!AN32,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I11" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W32:'_tag_day_hour'!AN32)=18,"",MAX(_tag_day_hour!W32:'_tag_day_hour'!AN32))</f>
+        <v/>
+      </c>
+      <c r="J11" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W32:'_tag_day_hour'!AN32),_tag_day_hour!W32:'_tag_day_hour'!AN32,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W32:'_tag_day_hour'!AN32),_tag_day_hour!W32:'_tag_day_hour'!AN32,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K11" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W32:'_tag_day_hour'!AN32)=18,"",MIN(_tag_day_hour!W32:'_tag_day_hour'!AN32))</f>
+        <v/>
+      </c>
+      <c r="L11" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA9:'_tag_day_hour'!CR9),_tag_day_hour!CA9:'_tag_day_hour'!CR9,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA9:'_tag_day_hour'!CR9),_tag_day_hour!CA9:'_tag_day_hour'!CR9,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M11" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA9:'_tag_day_hour'!CR9)=18,"",MAX(_tag_day_hour!CA9:'_tag_day_hour'!CR9))</f>
+        <v/>
+      </c>
+      <c r="N11" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA9:'_tag_day_hour'!CR9),_tag_day_hour!CA9:'_tag_day_hour'!CR9,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA9:'_tag_day_hour'!CR9),_tag_day_hour!CA9:'_tag_day_hour'!CR9,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O11" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA9:'_tag_day_hour'!CR9)=18,"",MIN(_tag_day_hour!CA9:'_tag_day_hour'!CR9))</f>
+        <v/>
+      </c>
+      <c r="P11" s="45" t="str">
         <f>IF(_tag_day_hour!BY8="","",_tag_day_hour!BY8)</f>
         <v/>
       </c>
-      <c r="Q11" s="41" t="str">
+      <c r="Q11" s="33" t="str">
         <f>IF(_tag_day_hour!BZ8="","",_tag_day_hour!BZ8)</f>
         <v/>
       </c>
-      <c r="R11" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS32:_tag_day_hour!DJ32)=18,"",AVERAGE(_tag_day_hour!CS32:_tag_day_hour!DJ32))</f>
-        <v/>
-      </c>
-      <c r="S11" s="43" t="str">
+      <c r="R11" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS32:'_tag_day_hour'!DJ32)=18,"",AVERAGE(_tag_day_hour!CS32:'_tag_day_hour'!DJ32))</f>
+        <v/>
+      </c>
+      <c r="S11" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A8="","",_fanchui6_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="T11" s="42" t="str">
+      <c r="T11" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B8="","",_fanchui6_day_hour!B8-_fanchui6_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="U11" s="42" t="str">
+      <c r="U11" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D8="","",_fanchui6_day_hour!D8-_fanchui6_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="V11" s="26" t="str">
+      <c r="V11" s="39" t="str">
         <f>IF(_maxmin_day_hour!A8="","",_maxmin_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="W11" s="26" t="str">
+      <c r="W11" s="39" t="str">
         <f>IF(_maxmin_day_hour!B8="","",_maxmin_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="X11" s="44"/>
+      <c r="X11" s="50"/>
     </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>8</v>
       </c>
-      <c r="B12" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A9:_tag_day_hour!R9)=0,"",COUNTIF(_tag_day_hour!A9:_tag_day_hour!R9,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C12" s="26" t="str">
+      <c r="B12" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A9:'_tag_day_hour'!R9)=0,"",COUNTIF(_tag_day_hour!A9:'_tag_day_hour'!R9,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C12" s="23" t="str">
         <f>IF(_tag_day_hour!S9="","",_tag_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="D12" s="26" t="str">
+      <c r="D12" s="23" t="str">
         <f>IF(_tag_day_hour!T9="","",_tag_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="E12" s="26" t="str">
+      <c r="E12" s="23" t="str">
         <f>IF(_tag_day_hour!U9="","",_tag_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="F12" s="26" t="str">
+      <c r="F12" s="23" t="str">
         <f>IF(_tag_day_hour!V9="","",_tag_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="G12" s="26" t="str">
+      <c r="G12" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H12" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W33:_tag_day_hour!AN33),_tag_day_hour!W33:_tag_day_hour!AN33,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W33:_tag_day_hour!AN33),_tag_day_hour!W33:_tag_day_hour!AN33,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I12" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W33:_tag_day_hour!AN33)=18,"",MAX(_tag_day_hour!W33:_tag_day_hour!AN33))</f>
-        <v/>
-      </c>
-      <c r="J12" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W33:_tag_day_hour!AN33),_tag_day_hour!W33:_tag_day_hour!AN33,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W33:_tag_day_hour!AN33),_tag_day_hour!W33:_tag_day_hour!AN33,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K12" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W33:_tag_day_hour!AN33)=18,"",MIN(_tag_day_hour!W33:_tag_day_hour!AN33))</f>
-        <v/>
-      </c>
-      <c r="L12" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA10:_tag_day_hour!CR10),_tag_day_hour!CA10:_tag_day_hour!CR10,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA10:_tag_day_hour!CR10),_tag_day_hour!CA10:_tag_day_hour!CR10,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M12" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA10:_tag_day_hour!CR10)=18,"",MAX(_tag_day_hour!CA10:_tag_day_hour!CR10))</f>
-        <v/>
-      </c>
-      <c r="N12" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA10:_tag_day_hour!CR10),_tag_day_hour!CA10:_tag_day_hour!CR10,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA10:_tag_day_hour!CR10),_tag_day_hour!CA10:_tag_day_hour!CR10,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O12" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA10:_tag_day_hour!CR10)=18,"",MIN(_tag_day_hour!CA10:_tag_day_hour!CR10))</f>
-        <v/>
-      </c>
-      <c r="P12" s="26" t="str">
+      <c r="H12" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W33:'_tag_day_hour'!AN33),_tag_day_hour!W33:'_tag_day_hour'!AN33,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W33:'_tag_day_hour'!AN33),_tag_day_hour!W33:'_tag_day_hour'!AN33,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I12" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W33:'_tag_day_hour'!AN33)=18,"",MAX(_tag_day_hour!W33:'_tag_day_hour'!AN33))</f>
+        <v/>
+      </c>
+      <c r="J12" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W33:'_tag_day_hour'!AN33),_tag_day_hour!W33:'_tag_day_hour'!AN33,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W33:'_tag_day_hour'!AN33),_tag_day_hour!W33:'_tag_day_hour'!AN33,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K12" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W33:'_tag_day_hour'!AN33)=18,"",MIN(_tag_day_hour!W33:'_tag_day_hour'!AN33))</f>
+        <v/>
+      </c>
+      <c r="L12" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA10:'_tag_day_hour'!CR10),_tag_day_hour!CA10:'_tag_day_hour'!CR10,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA10:'_tag_day_hour'!CR10),_tag_day_hour!CA10:'_tag_day_hour'!CR10,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M12" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA10:'_tag_day_hour'!CR10)=18,"",MAX(_tag_day_hour!CA10:'_tag_day_hour'!CR10))</f>
+        <v/>
+      </c>
+      <c r="N12" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA10:'_tag_day_hour'!CR10),_tag_day_hour!CA10:'_tag_day_hour'!CR10,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA10:'_tag_day_hour'!CR10),_tag_day_hour!CA10:'_tag_day_hour'!CR10,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O12" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA10:'_tag_day_hour'!CR10)=18,"",MIN(_tag_day_hour!CA10:'_tag_day_hour'!CR10))</f>
+        <v/>
+      </c>
+      <c r="P12" s="45" t="str">
         <f>IF(_tag_day_hour!BY9="","",_tag_day_hour!BY9)</f>
         <v/>
       </c>
-      <c r="Q12" s="41" t="str">
+      <c r="Q12" s="33" t="str">
         <f>IF(_tag_day_hour!BZ9="","",_tag_day_hour!BZ9)</f>
         <v/>
       </c>
-      <c r="R12" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS33:_tag_day_hour!DJ33)=18,"",AVERAGE(_tag_day_hour!CS33:_tag_day_hour!DJ33))</f>
-        <v/>
-      </c>
-      <c r="S12" s="43" t="str">
+      <c r="R12" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS33:'_tag_day_hour'!DJ33)=18,"",AVERAGE(_tag_day_hour!CS33:'_tag_day_hour'!DJ33))</f>
+        <v/>
+      </c>
+      <c r="S12" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A9="","",_fanchui6_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="T12" s="42" t="str">
+      <c r="T12" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B9="","",_fanchui6_day_hour!B9-_fanchui6_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="U12" s="42" t="str">
+      <c r="U12" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D9="","",_fanchui6_day_hour!D9-_fanchui6_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="V12" s="26" t="str">
+      <c r="V12" s="39" t="str">
         <f>IF(_maxmin_day_hour!A9="","",_maxmin_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="W12" s="26" t="str">
+      <c r="W12" s="39" t="str">
         <f>IF(_maxmin_day_hour!B9="","",_maxmin_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="X12" s="44"/>
+      <c r="X12" s="50"/>
     </row>
-    <row r="13" ht="14.25" spans="1:24">
-      <c r="A13" s="20">
+    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A10:_tag_day_hour!R10)=0,"",COUNTIF(_tag_day_hour!A10:_tag_day_hour!R10,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C13" s="26" t="str">
+      <c r="B13" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A10:'_tag_day_hour'!R10)=0,"",COUNTIF(_tag_day_hour!A10:'_tag_day_hour'!R10,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C13" s="23" t="str">
         <f>IF(_tag_day_hour!S10="","",_tag_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="D13" s="26" t="str">
+      <c r="D13" s="23" t="str">
         <f>IF(_tag_day_hour!T10="","",_tag_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="E13" s="26" t="str">
+      <c r="E13" s="23" t="str">
         <f>IF(_tag_day_hour!U10="","",_tag_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="F13" s="26" t="str">
+      <c r="F13" s="23" t="str">
         <f>IF(_tag_day_hour!V10="","",_tag_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="G13" s="26" t="str">
+      <c r="G13" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H13" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W34:_tag_day_hour!AN34),_tag_day_hour!W34:_tag_day_hour!AN34,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W34:_tag_day_hour!AN34),_tag_day_hour!W34:_tag_day_hour!AN34,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I13" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W34:_tag_day_hour!AN34)=18,"",MAX(_tag_day_hour!W34:_tag_day_hour!AN34))</f>
-        <v/>
-      </c>
-      <c r="J13" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W34:_tag_day_hour!AN34),_tag_day_hour!W34:_tag_day_hour!AN34,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W34:_tag_day_hour!AN34),_tag_day_hour!W34:_tag_day_hour!AN34,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K13" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W34:_tag_day_hour!AN34)=18,"",MIN(_tag_day_hour!W34:_tag_day_hour!AN34))</f>
-        <v/>
-      </c>
-      <c r="L13" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA11:_tag_day_hour!CR11),_tag_day_hour!CA11:_tag_day_hour!CR11,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA11:_tag_day_hour!CR11),_tag_day_hour!CA11:_tag_day_hour!CR11,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M13" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA11:_tag_day_hour!CR11)=18,"",MAX(_tag_day_hour!CA11:_tag_day_hour!CR11))</f>
-        <v/>
-      </c>
-      <c r="N13" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA11:_tag_day_hour!CR11),_tag_day_hour!CA11:_tag_day_hour!CR11,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA11:_tag_day_hour!CR11),_tag_day_hour!CA11:_tag_day_hour!CR11,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O13" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA11:_tag_day_hour!CR11)=18,"",MIN(_tag_day_hour!CA11:_tag_day_hour!CR11))</f>
-        <v/>
-      </c>
-      <c r="P13" s="26" t="str">
+      <c r="H13" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W34:'_tag_day_hour'!AN34),_tag_day_hour!W34:'_tag_day_hour'!AN34,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W34:'_tag_day_hour'!AN34),_tag_day_hour!W34:'_tag_day_hour'!AN34,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I13" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W34:'_tag_day_hour'!AN34)=18,"",MAX(_tag_day_hour!W34:'_tag_day_hour'!AN34))</f>
+        <v/>
+      </c>
+      <c r="J13" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W34:'_tag_day_hour'!AN34),_tag_day_hour!W34:'_tag_day_hour'!AN34,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W34:'_tag_day_hour'!AN34),_tag_day_hour!W34:'_tag_day_hour'!AN34,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K13" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W34:'_tag_day_hour'!AN34)=18,"",MIN(_tag_day_hour!W34:'_tag_day_hour'!AN34))</f>
+        <v/>
+      </c>
+      <c r="L13" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA11:'_tag_day_hour'!CR11),_tag_day_hour!CA11:'_tag_day_hour'!CR11,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA11:'_tag_day_hour'!CR11),_tag_day_hour!CA11:'_tag_day_hour'!CR11,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M13" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA11:'_tag_day_hour'!CR11)=18,"",MAX(_tag_day_hour!CA11:'_tag_day_hour'!CR11))</f>
+        <v/>
+      </c>
+      <c r="N13" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA11:'_tag_day_hour'!CR11),_tag_day_hour!CA11:'_tag_day_hour'!CR11,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA11:'_tag_day_hour'!CR11),_tag_day_hour!CA11:'_tag_day_hour'!CR11,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O13" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA11:'_tag_day_hour'!CR11)=18,"",MIN(_tag_day_hour!CA11:'_tag_day_hour'!CR11))</f>
+        <v/>
+      </c>
+      <c r="P13" s="45" t="str">
         <f>IF(_tag_day_hour!BY10="","",_tag_day_hour!BY10)</f>
         <v/>
       </c>
-      <c r="Q13" s="41" t="str">
+      <c r="Q13" s="33" t="str">
         <f>IF(_tag_day_hour!BZ10="","",_tag_day_hour!BZ10)</f>
         <v/>
       </c>
-      <c r="R13" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS34:_tag_day_hour!DJ34)=18,"",AVERAGE(_tag_day_hour!CS34:_tag_day_hour!DJ34))</f>
-        <v/>
-      </c>
-      <c r="S13" s="43" t="str">
+      <c r="R13" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS34:'_tag_day_hour'!DJ34)=18,"",AVERAGE(_tag_day_hour!CS34:'_tag_day_hour'!DJ34))</f>
+        <v/>
+      </c>
+      <c r="S13" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A10="","",_fanchui6_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="T13" s="42" t="str">
+      <c r="T13" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B10="","",_fanchui6_day_hour!B10-_fanchui6_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="U13" s="42" t="str">
+      <c r="U13" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D10="","",_fanchui6_day_hour!D10-_fanchui6_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="V13" s="26" t="str">
+      <c r="V13" s="39" t="str">
         <f>IF(_maxmin_day_hour!A10="","",_maxmin_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="W13" s="26" t="str">
+      <c r="W13" s="39" t="str">
         <f>IF(_maxmin_day_hour!B10="","",_maxmin_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="X13" s="40" t="s">
+      <c r="X13" s="49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>10</v>
       </c>
-      <c r="B14" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A11:_tag_day_hour!R11)=0,"",COUNTIF(_tag_day_hour!A11:_tag_day_hour!R11,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C14" s="26" t="str">
+      <c r="B14" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A11:'_tag_day_hour'!R11)=0,"",COUNTIF(_tag_day_hour!A11:'_tag_day_hour'!R11,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C14" s="23" t="str">
         <f>IF(_tag_day_hour!S11="","",_tag_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="D14" s="26" t="str">
+      <c r="D14" s="23" t="str">
         <f>IF(_tag_day_hour!T11="","",_tag_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="E14" s="26" t="str">
+      <c r="E14" s="23" t="str">
         <f>IF(_tag_day_hour!U11="","",_tag_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="F14" s="26" t="str">
+      <c r="F14" s="23" t="str">
         <f>IF(_tag_day_hour!V11="","",_tag_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="G14" s="26" t="str">
+      <c r="G14" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H14" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W35:_tag_day_hour!AN35),_tag_day_hour!W35:_tag_day_hour!AN35,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W35:_tag_day_hour!AN35),_tag_day_hour!W35:_tag_day_hour!AN35,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I14" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W35:_tag_day_hour!AN35)=18,"",MAX(_tag_day_hour!W35:_tag_day_hour!AN35))</f>
-        <v/>
-      </c>
-      <c r="J14" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W35:_tag_day_hour!AN35),_tag_day_hour!W35:_tag_day_hour!AN35,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W35:_tag_day_hour!AN35),_tag_day_hour!W35:_tag_day_hour!AN35,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K14" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W35:_tag_day_hour!AN35)=18,"",MIN(_tag_day_hour!W35:_tag_day_hour!AN35))</f>
-        <v/>
-      </c>
-      <c r="L14" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA12:_tag_day_hour!CR12),_tag_day_hour!CA12:_tag_day_hour!CR12,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA12:_tag_day_hour!CR12),_tag_day_hour!CA12:_tag_day_hour!CR12,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M14" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA12:_tag_day_hour!CR12)=18,"",MAX(_tag_day_hour!CA12:_tag_day_hour!CR12))</f>
-        <v/>
-      </c>
-      <c r="N14" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA12:_tag_day_hour!CR12),_tag_day_hour!CA12:_tag_day_hour!CR12,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA12:_tag_day_hour!CR12),_tag_day_hour!CA12:_tag_day_hour!CR12,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O14" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA12:_tag_day_hour!CR12)=18,"",MIN(_tag_day_hour!CA12:_tag_day_hour!CR12))</f>
-        <v/>
-      </c>
-      <c r="P14" s="26" t="str">
+      <c r="H14" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W35:'_tag_day_hour'!AN35),_tag_day_hour!W35:'_tag_day_hour'!AN35,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W35:'_tag_day_hour'!AN35),_tag_day_hour!W35:'_tag_day_hour'!AN35,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I14" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W35:'_tag_day_hour'!AN35)=18,"",MAX(_tag_day_hour!W35:'_tag_day_hour'!AN35))</f>
+        <v/>
+      </c>
+      <c r="J14" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W35:'_tag_day_hour'!AN35),_tag_day_hour!W35:'_tag_day_hour'!AN35,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W35:'_tag_day_hour'!AN35),_tag_day_hour!W35:'_tag_day_hour'!AN35,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K14" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W35:'_tag_day_hour'!AN35)=18,"",MIN(_tag_day_hour!W35:'_tag_day_hour'!AN35))</f>
+        <v/>
+      </c>
+      <c r="L14" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA12:'_tag_day_hour'!CR12),_tag_day_hour!CA12:'_tag_day_hour'!CR12,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA12:'_tag_day_hour'!CR12),_tag_day_hour!CA12:'_tag_day_hour'!CR12,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M14" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA12:'_tag_day_hour'!CR12)=18,"",MAX(_tag_day_hour!CA12:'_tag_day_hour'!CR12))</f>
+        <v/>
+      </c>
+      <c r="N14" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA12:'_tag_day_hour'!CR12),_tag_day_hour!CA12:'_tag_day_hour'!CR12,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA12:'_tag_day_hour'!CR12),_tag_day_hour!CA12:'_tag_day_hour'!CR12,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O14" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA12:'_tag_day_hour'!CR12)=18,"",MIN(_tag_day_hour!CA12:'_tag_day_hour'!CR12))</f>
+        <v/>
+      </c>
+      <c r="P14" s="45" t="str">
         <f>IF(_tag_day_hour!BY11="","",_tag_day_hour!BY11)</f>
         <v/>
       </c>
-      <c r="Q14" s="41" t="str">
+      <c r="Q14" s="33" t="str">
         <f>IF(_tag_day_hour!BZ11="","",_tag_day_hour!BZ11)</f>
         <v/>
       </c>
-      <c r="R14" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS35:_tag_day_hour!DJ35)=18,"",AVERAGE(_tag_day_hour!CS35:_tag_day_hour!DJ35))</f>
-        <v/>
-      </c>
-      <c r="S14" s="43" t="str">
+      <c r="R14" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS35:'_tag_day_hour'!DJ35)=18,"",AVERAGE(_tag_day_hour!CS35:'_tag_day_hour'!DJ35))</f>
+        <v/>
+      </c>
+      <c r="S14" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A11="","",_fanchui6_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="T14" s="42" t="str">
+      <c r="T14" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B11="","",_fanchui6_day_hour!B11-_fanchui6_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="U14" s="42" t="str">
+      <c r="U14" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D11="","",_fanchui6_day_hour!D11-_fanchui6_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="V14" s="26" t="str">
+      <c r="V14" s="39" t="str">
         <f>IF(_maxmin_day_hour!A11="","",_maxmin_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="W14" s="26" t="str">
+      <c r="W14" s="39" t="str">
         <f>IF(_maxmin_day_hour!B11="","",_maxmin_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="X14" s="44"/>
+      <c r="X14" s="50"/>
     </row>
-    <row r="15" ht="14.25" spans="1:24">
-      <c r="A15" s="20">
+    <row r="15" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B15" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A12:_tag_day_hour!R12)=0,"",COUNTIF(_tag_day_hour!A12:_tag_day_hour!R12,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C15" s="26" t="str">
+      <c r="B15" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A12:'_tag_day_hour'!R12)=0,"",COUNTIF(_tag_day_hour!A12:'_tag_day_hour'!R12,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C15" s="23" t="str">
         <f>IF(_tag_day_hour!S12="","",_tag_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="D15" s="26" t="str">
+      <c r="D15" s="23" t="str">
         <f>IF(_tag_day_hour!T12="","",_tag_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="E15" s="26" t="str">
+      <c r="E15" s="23" t="str">
         <f>IF(_tag_day_hour!U12="","",_tag_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="F15" s="26" t="str">
+      <c r="F15" s="23" t="str">
         <f>IF(_tag_day_hour!V12="","",_tag_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="G15" s="26" t="str">
+      <c r="G15" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H15" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W36:_tag_day_hour!AN36),_tag_day_hour!W36:_tag_day_hour!AN36,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W36:_tag_day_hour!AN36),_tag_day_hour!W36:_tag_day_hour!AN36,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I15" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W36:_tag_day_hour!AN36)=18,"",MAX(_tag_day_hour!W36:_tag_day_hour!AN36))</f>
-        <v/>
-      </c>
-      <c r="J15" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W36:_tag_day_hour!AN36),_tag_day_hour!W36:_tag_day_hour!AN36,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W36:_tag_day_hour!AN36),_tag_day_hour!W36:_tag_day_hour!AN36,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K15" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W36:_tag_day_hour!AN36)=18,"",MIN(_tag_day_hour!W36:_tag_day_hour!AN36))</f>
-        <v/>
-      </c>
-      <c r="L15" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA13:_tag_day_hour!CR13),_tag_day_hour!CA13:_tag_day_hour!CR13,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA13:_tag_day_hour!CR13),_tag_day_hour!CA13:_tag_day_hour!CR13,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M15" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA13:_tag_day_hour!CR13)=18,"",MAX(_tag_day_hour!CA13:_tag_day_hour!CR13))</f>
-        <v/>
-      </c>
-      <c r="N15" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA13:_tag_day_hour!CR13),_tag_day_hour!CA13:_tag_day_hour!CR13,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA13:_tag_day_hour!CR13),_tag_day_hour!CA13:_tag_day_hour!CR13,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O15" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA13:_tag_day_hour!CR13)=18,"",MIN(_tag_day_hour!CA13:_tag_day_hour!CR13))</f>
-        <v/>
-      </c>
-      <c r="P15" s="26" t="str">
+      <c r="H15" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W36:'_tag_day_hour'!AN36),_tag_day_hour!W36:'_tag_day_hour'!AN36,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W36:'_tag_day_hour'!AN36),_tag_day_hour!W36:'_tag_day_hour'!AN36,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I15" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W36:'_tag_day_hour'!AN36)=18,"",MAX(_tag_day_hour!W36:'_tag_day_hour'!AN36))</f>
+        <v/>
+      </c>
+      <c r="J15" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W36:'_tag_day_hour'!AN36),_tag_day_hour!W36:'_tag_day_hour'!AN36,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W36:'_tag_day_hour'!AN36),_tag_day_hour!W36:'_tag_day_hour'!AN36,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K15" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W36:'_tag_day_hour'!AN36)=18,"",MIN(_tag_day_hour!W36:'_tag_day_hour'!AN36))</f>
+        <v/>
+      </c>
+      <c r="L15" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA13:'_tag_day_hour'!CR13),_tag_day_hour!CA13:'_tag_day_hour'!CR13,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA13:'_tag_day_hour'!CR13),_tag_day_hour!CA13:'_tag_day_hour'!CR13,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M15" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA13:'_tag_day_hour'!CR13)=18,"",MAX(_tag_day_hour!CA13:'_tag_day_hour'!CR13))</f>
+        <v/>
+      </c>
+      <c r="N15" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA13:'_tag_day_hour'!CR13),_tag_day_hour!CA13:'_tag_day_hour'!CR13,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA13:'_tag_day_hour'!CR13),_tag_day_hour!CA13:'_tag_day_hour'!CR13,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA13:'_tag_day_hour'!CR13)=18,"",MIN(_tag_day_hour!CA13:'_tag_day_hour'!CR13))</f>
+        <v/>
+      </c>
+      <c r="P15" s="45" t="str">
         <f>IF(_tag_day_hour!BY12="","",_tag_day_hour!BY12)</f>
         <v/>
       </c>
-      <c r="Q15" s="41" t="str">
+      <c r="Q15" s="33" t="str">
         <f>IF(_tag_day_hour!BZ12="","",_tag_day_hour!BZ12)</f>
         <v/>
       </c>
-      <c r="R15" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS36:_tag_day_hour!DJ36)=18,"",AVERAGE(_tag_day_hour!CS36:_tag_day_hour!DJ36))</f>
-        <v/>
-      </c>
-      <c r="S15" s="43" t="str">
+      <c r="R15" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS36:'_tag_day_hour'!DJ36)=18,"",AVERAGE(_tag_day_hour!CS36:'_tag_day_hour'!DJ36))</f>
+        <v/>
+      </c>
+      <c r="S15" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A12="","",_fanchui6_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="T15" s="42" t="str">
+      <c r="T15" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B12="","",_fanchui6_day_hour!B12-_fanchui6_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="U15" s="42" t="str">
+      <c r="U15" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D12="","",_fanchui6_day_hour!D12-_fanchui6_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="V15" s="26" t="str">
+      <c r="V15" s="39" t="str">
         <f>IF(_maxmin_day_hour!A12="","",_maxmin_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="W15" s="26" t="str">
+      <c r="W15" s="39" t="str">
         <f>IF(_maxmin_day_hour!B12="","",_maxmin_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="X15" s="44"/>
+      <c r="X15" s="50"/>
     </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>12</v>
       </c>
-      <c r="B16" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A13:_tag_day_hour!R13)=0,"",COUNTIF(_tag_day_hour!A13:_tag_day_hour!R13,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C16" s="26" t="str">
+      <c r="B16" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A13:'_tag_day_hour'!R13)=0,"",COUNTIF(_tag_day_hour!A13:'_tag_day_hour'!R13,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C16" s="23" t="str">
         <f>IF(_tag_day_hour!S13="","",_tag_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="D16" s="26" t="str">
+      <c r="D16" s="23" t="str">
         <f>IF(_tag_day_hour!T13="","",_tag_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="E16" s="26" t="str">
+      <c r="E16" s="23" t="str">
         <f>IF(_tag_day_hour!U13="","",_tag_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="F16" s="26" t="str">
+      <c r="F16" s="23" t="str">
         <f>IF(_tag_day_hour!V13="","",_tag_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="G16" s="26" t="str">
+      <c r="G16" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H16" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W37:_tag_day_hour!AN37),_tag_day_hour!W37:_tag_day_hour!AN37,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W37:_tag_day_hour!AN37),_tag_day_hour!W37:_tag_day_hour!AN37,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I16" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W37:_tag_day_hour!AN37)=18,"",MAX(_tag_day_hour!W37:_tag_day_hour!AN37))</f>
-        <v/>
-      </c>
-      <c r="J16" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W37:_tag_day_hour!AN37),_tag_day_hour!W37:_tag_day_hour!AN37,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W37:_tag_day_hour!AN37),_tag_day_hour!W37:_tag_day_hour!AN37,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K16" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W37:_tag_day_hour!AN37)=18,"",MIN(_tag_day_hour!W37:_tag_day_hour!AN37))</f>
-        <v/>
-      </c>
-      <c r="L16" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA14:_tag_day_hour!CR14),_tag_day_hour!CA14:_tag_day_hour!CR14,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA14:_tag_day_hour!CR14),_tag_day_hour!CA14:_tag_day_hour!CR14,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M16" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA14:_tag_day_hour!CR14)=18,"",MAX(_tag_day_hour!CA14:_tag_day_hour!CR14))</f>
-        <v/>
-      </c>
-      <c r="N16" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA14:_tag_day_hour!CR14),_tag_day_hour!CA14:_tag_day_hour!CR14,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA14:_tag_day_hour!CR14),_tag_day_hour!CA14:_tag_day_hour!CR14,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O16" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA14:_tag_day_hour!CR14)=18,"",MIN(_tag_day_hour!CA14:_tag_day_hour!CR14))</f>
-        <v/>
-      </c>
-      <c r="P16" s="26" t="str">
+      <c r="H16" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W37:'_tag_day_hour'!AN37),_tag_day_hour!W37:'_tag_day_hour'!AN37,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W37:'_tag_day_hour'!AN37),_tag_day_hour!W37:'_tag_day_hour'!AN37,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I16" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W37:'_tag_day_hour'!AN37)=18,"",MAX(_tag_day_hour!W37:'_tag_day_hour'!AN37))</f>
+        <v/>
+      </c>
+      <c r="J16" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W37:'_tag_day_hour'!AN37),_tag_day_hour!W37:'_tag_day_hour'!AN37,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W37:'_tag_day_hour'!AN37),_tag_day_hour!W37:'_tag_day_hour'!AN37,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K16" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W37:'_tag_day_hour'!AN37)=18,"",MIN(_tag_day_hour!W37:'_tag_day_hour'!AN37))</f>
+        <v/>
+      </c>
+      <c r="L16" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA14:'_tag_day_hour'!CR14),_tag_day_hour!CA14:'_tag_day_hour'!CR14,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA14:'_tag_day_hour'!CR14),_tag_day_hour!CA14:'_tag_day_hour'!CR14,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M16" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA14:'_tag_day_hour'!CR14)=18,"",MAX(_tag_day_hour!CA14:'_tag_day_hour'!CR14))</f>
+        <v/>
+      </c>
+      <c r="N16" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA14:'_tag_day_hour'!CR14),_tag_day_hour!CA14:'_tag_day_hour'!CR14,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA14:'_tag_day_hour'!CR14),_tag_day_hour!CA14:'_tag_day_hour'!CR14,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA14:'_tag_day_hour'!CR14)=18,"",MIN(_tag_day_hour!CA14:'_tag_day_hour'!CR14))</f>
+        <v/>
+      </c>
+      <c r="P16" s="45" t="str">
         <f>IF(_tag_day_hour!BY13="","",_tag_day_hour!BY13)</f>
         <v/>
       </c>
-      <c r="Q16" s="41" t="str">
+      <c r="Q16" s="33" t="str">
         <f>IF(_tag_day_hour!BZ13="","",_tag_day_hour!BZ13)</f>
         <v/>
       </c>
-      <c r="R16" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS37:_tag_day_hour!DJ37)=18,"",AVERAGE(_tag_day_hour!CS37:_tag_day_hour!DJ37))</f>
-        <v/>
-      </c>
-      <c r="S16" s="43" t="str">
+      <c r="R16" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS37:'_tag_day_hour'!DJ37)=18,"",AVERAGE(_tag_day_hour!CS37:'_tag_day_hour'!DJ37))</f>
+        <v/>
+      </c>
+      <c r="S16" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A13="","",_fanchui6_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="T16" s="42" t="str">
+      <c r="T16" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B13="","",_fanchui6_day_hour!B13-_fanchui6_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="U16" s="42" t="str">
+      <c r="U16" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D13="","",_fanchui6_day_hour!D13-_fanchui6_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="V16" s="26" t="str">
+      <c r="V16" s="39" t="str">
         <f>IF(_maxmin_day_hour!A13="","",_maxmin_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="W16" s="26" t="str">
+      <c r="W16" s="39" t="str">
         <f>IF(_maxmin_day_hour!B13="","",_maxmin_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="X16" s="44"/>
+      <c r="X16" s="50"/>
     </row>
-    <row r="17" ht="14.25" spans="1:24">
-      <c r="A17" s="20">
+    <row r="17" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A14:_tag_day_hour!R14)=0,"",COUNTIF(_tag_day_hour!A14:_tag_day_hour!R14,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C17" s="26" t="str">
+      <c r="B17" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A14:'_tag_day_hour'!R14)=0,"",COUNTIF(_tag_day_hour!A14:'_tag_day_hour'!R14,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C17" s="23" t="str">
         <f>IF(_tag_day_hour!S14="","",_tag_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="D17" s="26" t="str">
+      <c r="D17" s="23" t="str">
         <f>IF(_tag_day_hour!T14="","",_tag_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="E17" s="26" t="str">
+      <c r="E17" s="23" t="str">
         <f>IF(_tag_day_hour!U14="","",_tag_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="F17" s="26" t="str">
+      <c r="F17" s="23" t="str">
         <f>IF(_tag_day_hour!V14="","",_tag_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="G17" s="26" t="str">
+      <c r="G17" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H17" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W38:_tag_day_hour!AN38),_tag_day_hour!W38:_tag_day_hour!AN38,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W38:_tag_day_hour!AN38),_tag_day_hour!W38:_tag_day_hour!AN38,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I17" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W38:_tag_day_hour!AN38)=18,"",MAX(_tag_day_hour!W38:_tag_day_hour!AN38))</f>
-        <v/>
-      </c>
-      <c r="J17" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W38:_tag_day_hour!AN38),_tag_day_hour!W38:_tag_day_hour!AN38,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W38:_tag_day_hour!AN38),_tag_day_hour!W38:_tag_day_hour!AN38,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K17" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W38:_tag_day_hour!AN38)=18,"",MIN(_tag_day_hour!W38:_tag_day_hour!AN38))</f>
-        <v/>
-      </c>
-      <c r="L17" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA15:_tag_day_hour!CR15),_tag_day_hour!CA15:_tag_day_hour!CR15,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA15:_tag_day_hour!CR15),_tag_day_hour!CA15:_tag_day_hour!CR15,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M17" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA15:_tag_day_hour!CR15)=18,"",MAX(_tag_day_hour!CA15:_tag_day_hour!CR15))</f>
-        <v/>
-      </c>
-      <c r="N17" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA15:_tag_day_hour!CR15),_tag_day_hour!CA15:_tag_day_hour!CR15,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA15:_tag_day_hour!CR15),_tag_day_hour!CA15:_tag_day_hour!CR15,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O17" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA15:_tag_day_hour!CR15)=18,"",MIN(_tag_day_hour!CA15:_tag_day_hour!CR15))</f>
-        <v/>
-      </c>
-      <c r="P17" s="26" t="str">
+      <c r="H17" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W38:'_tag_day_hour'!AN38),_tag_day_hour!W38:'_tag_day_hour'!AN38,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W38:'_tag_day_hour'!AN38),_tag_day_hour!W38:'_tag_day_hour'!AN38,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W38:'_tag_day_hour'!AN38)=18,"",MAX(_tag_day_hour!W38:'_tag_day_hour'!AN38))</f>
+        <v/>
+      </c>
+      <c r="J17" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W38:'_tag_day_hour'!AN38),_tag_day_hour!W38:'_tag_day_hour'!AN38,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W38:'_tag_day_hour'!AN38),_tag_day_hour!W38:'_tag_day_hour'!AN38,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K17" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W38:'_tag_day_hour'!AN38)=18,"",MIN(_tag_day_hour!W38:'_tag_day_hour'!AN38))</f>
+        <v/>
+      </c>
+      <c r="L17" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA15:'_tag_day_hour'!CR15),_tag_day_hour!CA15:'_tag_day_hour'!CR15,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA15:'_tag_day_hour'!CR15),_tag_day_hour!CA15:'_tag_day_hour'!CR15,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M17" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA15:'_tag_day_hour'!CR15)=18,"",MAX(_tag_day_hour!CA15:'_tag_day_hour'!CR15))</f>
+        <v/>
+      </c>
+      <c r="N17" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA15:'_tag_day_hour'!CR15),_tag_day_hour!CA15:'_tag_day_hour'!CR15,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA15:'_tag_day_hour'!CR15),_tag_day_hour!CA15:'_tag_day_hour'!CR15,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O17" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA15:'_tag_day_hour'!CR15)=18,"",MIN(_tag_day_hour!CA15:'_tag_day_hour'!CR15))</f>
+        <v/>
+      </c>
+      <c r="P17" s="45" t="str">
         <f>IF(_tag_day_hour!BY14="","",_tag_day_hour!BY14)</f>
         <v/>
       </c>
-      <c r="Q17" s="41" t="str">
+      <c r="Q17" s="33" t="str">
         <f>IF(_tag_day_hour!BZ14="","",_tag_day_hour!BZ14)</f>
         <v/>
       </c>
-      <c r="R17" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS38:_tag_day_hour!DJ38)=18,"",AVERAGE(_tag_day_hour!CS38:_tag_day_hour!DJ38))</f>
-        <v/>
-      </c>
-      <c r="S17" s="43" t="str">
+      <c r="R17" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS38:'_tag_day_hour'!DJ38)=18,"",AVERAGE(_tag_day_hour!CS38:'_tag_day_hour'!DJ38))</f>
+        <v/>
+      </c>
+      <c r="S17" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A14="","",_fanchui6_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="T17" s="42" t="str">
+      <c r="T17" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B14="","",_fanchui6_day_hour!B14-_fanchui6_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="U17" s="42" t="str">
+      <c r="U17" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D14="","",_fanchui6_day_hour!D14-_fanchui6_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="V17" s="26" t="str">
+      <c r="V17" s="39" t="str">
         <f>IF(_maxmin_day_hour!A14="","",_maxmin_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="W17" s="26" t="str">
+      <c r="W17" s="39" t="str">
         <f>IF(_maxmin_day_hour!B14="","",_maxmin_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="X17" s="44"/>
+      <c r="X17" s="50"/>
     </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>14</v>
       </c>
-      <c r="B18" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A15:_tag_day_hour!R15)=0,"",COUNTIF(_tag_day_hour!A15:_tag_day_hour!R15,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C18" s="26" t="str">
+      <c r="B18" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A15:'_tag_day_hour'!R15)=0,"",COUNTIF(_tag_day_hour!A15:'_tag_day_hour'!R15,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C18" s="23" t="str">
         <f>IF(_tag_day_hour!S15="","",_tag_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="D18" s="26" t="str">
+      <c r="D18" s="23" t="str">
         <f>IF(_tag_day_hour!T15="","",_tag_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="E18" s="26" t="str">
+      <c r="E18" s="23" t="str">
         <f>IF(_tag_day_hour!U15="","",_tag_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="F18" s="26" t="str">
+      <c r="F18" s="23" t="str">
         <f>IF(_tag_day_hour!V15="","",_tag_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="G18" s="26" t="str">
+      <c r="G18" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H18" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W39:_tag_day_hour!AN39),_tag_day_hour!W39:_tag_day_hour!AN39,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W39:_tag_day_hour!AN39),_tag_day_hour!W39:_tag_day_hour!AN39,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I18" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W39:_tag_day_hour!AN39)=18,"",MAX(_tag_day_hour!W39:_tag_day_hour!AN39))</f>
-        <v/>
-      </c>
-      <c r="J18" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W39:_tag_day_hour!AN39),_tag_day_hour!W39:_tag_day_hour!AN39,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W39:_tag_day_hour!AN39),_tag_day_hour!W39:_tag_day_hour!AN39,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K18" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W39:_tag_day_hour!AN39)=18,"",MIN(_tag_day_hour!W39:_tag_day_hour!AN39))</f>
-        <v/>
-      </c>
-      <c r="L18" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA16:_tag_day_hour!CR16),_tag_day_hour!CA16:_tag_day_hour!CR16,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA16:_tag_day_hour!CR16),_tag_day_hour!CA16:_tag_day_hour!CR16,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M18" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA16:_tag_day_hour!CR16)=18,"",MAX(_tag_day_hour!CA16:_tag_day_hour!CR16))</f>
-        <v/>
-      </c>
-      <c r="N18" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA16:_tag_day_hour!CR16),_tag_day_hour!CA16:_tag_day_hour!CR16,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA16:_tag_day_hour!CR16),_tag_day_hour!CA16:_tag_day_hour!CR16,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O18" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA16:_tag_day_hour!CR16)=18,"",MIN(_tag_day_hour!CA16:_tag_day_hour!CR16))</f>
-        <v/>
-      </c>
-      <c r="P18" s="26" t="str">
+      <c r="H18" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W39:'_tag_day_hour'!AN39),_tag_day_hour!W39:'_tag_day_hour'!AN39,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W39:'_tag_day_hour'!AN39),_tag_day_hour!W39:'_tag_day_hour'!AN39,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I18" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W39:'_tag_day_hour'!AN39)=18,"",MAX(_tag_day_hour!W39:'_tag_day_hour'!AN39))</f>
+        <v/>
+      </c>
+      <c r="J18" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W39:'_tag_day_hour'!AN39),_tag_day_hour!W39:'_tag_day_hour'!AN39,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W39:'_tag_day_hour'!AN39),_tag_day_hour!W39:'_tag_day_hour'!AN39,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K18" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W39:'_tag_day_hour'!AN39)=18,"",MIN(_tag_day_hour!W39:'_tag_day_hour'!AN39))</f>
+        <v/>
+      </c>
+      <c r="L18" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA16:'_tag_day_hour'!CR16),_tag_day_hour!CA16:'_tag_day_hour'!CR16,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA16:'_tag_day_hour'!CR16),_tag_day_hour!CA16:'_tag_day_hour'!CR16,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M18" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA16:'_tag_day_hour'!CR16)=18,"",MAX(_tag_day_hour!CA16:'_tag_day_hour'!CR16))</f>
+        <v/>
+      </c>
+      <c r="N18" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA16:'_tag_day_hour'!CR16),_tag_day_hour!CA16:'_tag_day_hour'!CR16,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA16:'_tag_day_hour'!CR16),_tag_day_hour!CA16:'_tag_day_hour'!CR16,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O18" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA16:'_tag_day_hour'!CR16)=18,"",MIN(_tag_day_hour!CA16:'_tag_day_hour'!CR16))</f>
+        <v/>
+      </c>
+      <c r="P18" s="45" t="str">
         <f>IF(_tag_day_hour!BY15="","",_tag_day_hour!BY15)</f>
         <v/>
       </c>
-      <c r="Q18" s="41" t="str">
+      <c r="Q18" s="33" t="str">
         <f>IF(_tag_day_hour!BZ15="","",_tag_day_hour!BZ15)</f>
         <v/>
       </c>
-      <c r="R18" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS39:_tag_day_hour!DJ39)=18,"",AVERAGE(_tag_day_hour!CS39:_tag_day_hour!DJ39))</f>
-        <v/>
-      </c>
-      <c r="S18" s="43" t="str">
+      <c r="R18" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS39:'_tag_day_hour'!DJ39)=18,"",AVERAGE(_tag_day_hour!CS39:'_tag_day_hour'!DJ39))</f>
+        <v/>
+      </c>
+      <c r="S18" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A15="","",_fanchui6_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="T18" s="42" t="str">
+      <c r="T18" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B15="","",_fanchui6_day_hour!B15-_fanchui6_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="U18" s="42" t="str">
+      <c r="U18" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D15="","",_fanchui6_day_hour!D15-_fanchui6_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="V18" s="26" t="str">
+      <c r="V18" s="39" t="str">
         <f>IF(_maxmin_day_hour!A15="","",_maxmin_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="W18" s="26" t="str">
+      <c r="W18" s="39" t="str">
         <f>IF(_maxmin_day_hour!B15="","",_maxmin_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="X18" s="44"/>
+      <c r="X18" s="50"/>
     </row>
-    <row r="19" ht="14.25" spans="1:24">
-      <c r="A19" s="20">
+    <row r="19" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A16:_tag_day_hour!R16)=0,"",COUNTIF(_tag_day_hour!A16:_tag_day_hour!R16,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C19" s="26" t="str">
+      <c r="B19" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A16:'_tag_day_hour'!R16)=0,"",COUNTIF(_tag_day_hour!A16:'_tag_day_hour'!R16,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C19" s="23" t="str">
         <f>IF(_tag_day_hour!S16="","",_tag_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="D19" s="26" t="str">
+      <c r="D19" s="23" t="str">
         <f>IF(_tag_day_hour!T16="","",_tag_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="E19" s="26" t="str">
+      <c r="E19" s="23" t="str">
         <f>IF(_tag_day_hour!U16="","",_tag_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="F19" s="26" t="str">
+      <c r="F19" s="23" t="str">
         <f>IF(_tag_day_hour!V16="","",_tag_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="G19" s="26" t="str">
+      <c r="G19" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H19" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W40:_tag_day_hour!AN40),_tag_day_hour!W40:_tag_day_hour!AN40,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W40:_tag_day_hour!AN40),_tag_day_hour!W40:_tag_day_hour!AN40,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I19" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W40:_tag_day_hour!AN40)=18,"",MAX(_tag_day_hour!W40:_tag_day_hour!AN40))</f>
-        <v/>
-      </c>
-      <c r="J19" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W40:_tag_day_hour!AN40),_tag_day_hour!W40:_tag_day_hour!AN40,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W40:_tag_day_hour!AN40),_tag_day_hour!W40:_tag_day_hour!AN40,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K19" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W40:_tag_day_hour!AN40)=18,"",MIN(_tag_day_hour!W40:_tag_day_hour!AN40))</f>
-        <v/>
-      </c>
-      <c r="L19" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA17:_tag_day_hour!CR17),_tag_day_hour!CA17:_tag_day_hour!CR17,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA17:_tag_day_hour!CR17),_tag_day_hour!CA17:_tag_day_hour!CR17,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M19" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA17:_tag_day_hour!CR17)=18,"",MAX(_tag_day_hour!CA17:_tag_day_hour!CR17))</f>
-        <v/>
-      </c>
-      <c r="N19" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA17:_tag_day_hour!CR17),_tag_day_hour!CA17:_tag_day_hour!CR17,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA17:_tag_day_hour!CR17),_tag_day_hour!CA17:_tag_day_hour!CR17,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O19" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA17:_tag_day_hour!CR17)=18,"",MIN(_tag_day_hour!CA17:_tag_day_hour!CR17))</f>
-        <v/>
-      </c>
-      <c r="P19" s="26" t="str">
+      <c r="H19" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W40:'_tag_day_hour'!AN40),_tag_day_hour!W40:'_tag_day_hour'!AN40,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W40:'_tag_day_hour'!AN40),_tag_day_hour!W40:'_tag_day_hour'!AN40,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I19" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W40:'_tag_day_hour'!AN40)=18,"",MAX(_tag_day_hour!W40:'_tag_day_hour'!AN40))</f>
+        <v/>
+      </c>
+      <c r="J19" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W40:'_tag_day_hour'!AN40),_tag_day_hour!W40:'_tag_day_hour'!AN40,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W40:'_tag_day_hour'!AN40),_tag_day_hour!W40:'_tag_day_hour'!AN40,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K19" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W40:'_tag_day_hour'!AN40)=18,"",MIN(_tag_day_hour!W40:'_tag_day_hour'!AN40))</f>
+        <v/>
+      </c>
+      <c r="L19" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA17:'_tag_day_hour'!CR17),_tag_day_hour!CA17:'_tag_day_hour'!CR17,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA17:'_tag_day_hour'!CR17),_tag_day_hour!CA17:'_tag_day_hour'!CR17,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M19" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA17:'_tag_day_hour'!CR17)=18,"",MAX(_tag_day_hour!CA17:'_tag_day_hour'!CR17))</f>
+        <v/>
+      </c>
+      <c r="N19" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA17:'_tag_day_hour'!CR17),_tag_day_hour!CA17:'_tag_day_hour'!CR17,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA17:'_tag_day_hour'!CR17),_tag_day_hour!CA17:'_tag_day_hour'!CR17,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O19" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA17:'_tag_day_hour'!CR17)=18,"",MIN(_tag_day_hour!CA17:'_tag_day_hour'!CR17))</f>
+        <v/>
+      </c>
+      <c r="P19" s="45" t="str">
         <f>IF(_tag_day_hour!BY16="","",_tag_day_hour!BY16)</f>
         <v/>
       </c>
-      <c r="Q19" s="41" t="str">
+      <c r="Q19" s="33" t="str">
         <f>IF(_tag_day_hour!BZ16="","",_tag_day_hour!BZ16)</f>
         <v/>
       </c>
-      <c r="R19" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS40:_tag_day_hour!DJ40)=18,"",AVERAGE(_tag_day_hour!CS40:_tag_day_hour!DJ40))</f>
-        <v/>
-      </c>
-      <c r="S19" s="43" t="str">
+      <c r="R19" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS40:'_tag_day_hour'!DJ40)=18,"",AVERAGE(_tag_day_hour!CS40:'_tag_day_hour'!DJ40))</f>
+        <v/>
+      </c>
+      <c r="S19" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A16="","",_fanchui6_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="T19" s="42" t="str">
+      <c r="T19" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B16="","",_fanchui6_day_hour!B16-_fanchui6_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="U19" s="42" t="str">
+      <c r="U19" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D16="","",_fanchui6_day_hour!D16-_fanchui6_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="V19" s="26" t="str">
+      <c r="V19" s="39" t="str">
         <f>IF(_maxmin_day_hour!A16="","",_maxmin_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="W19" s="26" t="str">
+      <c r="W19" s="39" t="str">
         <f>IF(_maxmin_day_hour!B16="","",_maxmin_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="X19" s="44"/>
+      <c r="X19" s="50"/>
     </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>16</v>
       </c>
-      <c r="B20" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A17:_tag_day_hour!R17)=0,"",COUNTIF(_tag_day_hour!A17:_tag_day_hour!R17,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C20" s="26" t="str">
+      <c r="B20" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A17:'_tag_day_hour'!R17)=0,"",COUNTIF(_tag_day_hour!A17:'_tag_day_hour'!R17,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C20" s="23" t="str">
         <f>IF(_tag_day_hour!S17="","",_tag_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="D20" s="26" t="str">
+      <c r="D20" s="23" t="str">
         <f>IF(_tag_day_hour!T17="","",_tag_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="E20" s="26" t="str">
+      <c r="E20" s="23" t="str">
         <f>IF(_tag_day_hour!U17="","",_tag_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="F20" s="26" t="str">
+      <c r="F20" s="23" t="str">
         <f>IF(_tag_day_hour!V17="","",_tag_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="G20" s="26" t="str">
+      <c r="G20" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H20" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W41:_tag_day_hour!AN41),_tag_day_hour!W41:_tag_day_hour!AN41,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W41:_tag_day_hour!AN41),_tag_day_hour!W41:_tag_day_hour!AN41,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I20" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W41:_tag_day_hour!AN41)=18,"",MAX(_tag_day_hour!W41:_tag_day_hour!AN41))</f>
-        <v/>
-      </c>
-      <c r="J20" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W41:_tag_day_hour!AN41),_tag_day_hour!W41:_tag_day_hour!AN41,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W41:_tag_day_hour!AN41),_tag_day_hour!W41:_tag_day_hour!AN41,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K20" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W41:_tag_day_hour!AN41)=18,"",MIN(_tag_day_hour!W41:_tag_day_hour!AN41))</f>
-        <v/>
-      </c>
-      <c r="L20" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA18:_tag_day_hour!CR18),_tag_day_hour!CA18:_tag_day_hour!CR18,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA18:_tag_day_hour!CR18),_tag_day_hour!CA18:_tag_day_hour!CR18,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M20" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA18:_tag_day_hour!CR18)=18,"",MAX(_tag_day_hour!CA18:_tag_day_hour!CR18))</f>
-        <v/>
-      </c>
-      <c r="N20" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA18:_tag_day_hour!CR18),_tag_day_hour!CA18:_tag_day_hour!CR18,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA18:_tag_day_hour!CR18),_tag_day_hour!CA18:_tag_day_hour!CR18,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O20" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA18:_tag_day_hour!CR18)=18,"",MIN(_tag_day_hour!CA18:_tag_day_hour!CR18))</f>
-        <v/>
-      </c>
-      <c r="P20" s="26" t="str">
+      <c r="H20" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W41:'_tag_day_hour'!AN41),_tag_day_hour!W41:'_tag_day_hour'!AN41,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W41:'_tag_day_hour'!AN41),_tag_day_hour!W41:'_tag_day_hour'!AN41,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I20" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W41:'_tag_day_hour'!AN41)=18,"",MAX(_tag_day_hour!W41:'_tag_day_hour'!AN41))</f>
+        <v/>
+      </c>
+      <c r="J20" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W41:'_tag_day_hour'!AN41),_tag_day_hour!W41:'_tag_day_hour'!AN41,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W41:'_tag_day_hour'!AN41),_tag_day_hour!W41:'_tag_day_hour'!AN41,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K20" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W41:'_tag_day_hour'!AN41)=18,"",MIN(_tag_day_hour!W41:'_tag_day_hour'!AN41))</f>
+        <v/>
+      </c>
+      <c r="L20" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA18:'_tag_day_hour'!CR18),_tag_day_hour!CA18:'_tag_day_hour'!CR18,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA18:'_tag_day_hour'!CR18),_tag_day_hour!CA18:'_tag_day_hour'!CR18,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M20" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA18:'_tag_day_hour'!CR18)=18,"",MAX(_tag_day_hour!CA18:'_tag_day_hour'!CR18))</f>
+        <v/>
+      </c>
+      <c r="N20" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA18:'_tag_day_hour'!CR18),_tag_day_hour!CA18:'_tag_day_hour'!CR18,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA18:'_tag_day_hour'!CR18),_tag_day_hour!CA18:'_tag_day_hour'!CR18,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O20" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA18:'_tag_day_hour'!CR18)=18,"",MIN(_tag_day_hour!CA18:'_tag_day_hour'!CR18))</f>
+        <v/>
+      </c>
+      <c r="P20" s="45" t="str">
         <f>IF(_tag_day_hour!BY17="","",_tag_day_hour!BY17)</f>
         <v/>
       </c>
-      <c r="Q20" s="41" t="str">
+      <c r="Q20" s="33" t="str">
         <f>IF(_tag_day_hour!BZ17="","",_tag_day_hour!BZ17)</f>
         <v/>
       </c>
-      <c r="R20" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS41:_tag_day_hour!DJ41)=18,"",AVERAGE(_tag_day_hour!CS41:_tag_day_hour!DJ41))</f>
-        <v/>
-      </c>
-      <c r="S20" s="43" t="str">
+      <c r="R20" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS41:'_tag_day_hour'!DJ41)=18,"",AVERAGE(_tag_day_hour!CS41:'_tag_day_hour'!DJ41))</f>
+        <v/>
+      </c>
+      <c r="S20" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A17="","",_fanchui6_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="T20" s="42" t="str">
+      <c r="T20" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B17="","",_fanchui6_day_hour!B17-_fanchui6_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="U20" s="42" t="str">
+      <c r="U20" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D17="","",_fanchui6_day_hour!D17-_fanchui6_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="V20" s="26" t="str">
+      <c r="V20" s="39" t="str">
         <f>IF(_maxmin_day_hour!A17="","",_maxmin_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="W20" s="26" t="str">
+      <c r="W20" s="39" t="str">
         <f>IF(_maxmin_day_hour!B17="","",_maxmin_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="X20" s="44"/>
+      <c r="X20" s="50"/>
     </row>
-    <row r="21" ht="14.25" spans="1:24">
-      <c r="A21" s="20">
+    <row r="21" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="B21" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A18:_tag_day_hour!R18)=0,"",COUNTIF(_tag_day_hour!A18:_tag_day_hour!R18,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C21" s="26" t="str">
+      <c r="B21" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A18:'_tag_day_hour'!R18)=0,"",COUNTIF(_tag_day_hour!A18:'_tag_day_hour'!R18,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C21" s="23" t="str">
         <f>IF(_tag_day_hour!S18="","",_tag_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="D21" s="26" t="str">
+      <c r="D21" s="23" t="str">
         <f>IF(_tag_day_hour!T18="","",_tag_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="E21" s="26" t="str">
+      <c r="E21" s="23" t="str">
         <f>IF(_tag_day_hour!U18="","",_tag_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="F21" s="26" t="str">
+      <c r="F21" s="23" t="str">
         <f>IF(_tag_day_hour!V18="","",_tag_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="G21" s="26" t="str">
+      <c r="G21" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H21" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W42:_tag_day_hour!AN42),_tag_day_hour!W42:_tag_day_hour!AN42,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W42:_tag_day_hour!AN42),_tag_day_hour!W42:_tag_day_hour!AN42,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I21" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W42:_tag_day_hour!AN42)=18,"",MAX(_tag_day_hour!W42:_tag_day_hour!AN42))</f>
-        <v/>
-      </c>
-      <c r="J21" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W42:_tag_day_hour!AN42),_tag_day_hour!W42:_tag_day_hour!AN42,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W42:_tag_day_hour!AN42),_tag_day_hour!W42:_tag_day_hour!AN42,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K21" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W42:_tag_day_hour!AN42)=18,"",MIN(_tag_day_hour!W42:_tag_day_hour!AN42))</f>
-        <v/>
-      </c>
-      <c r="L21" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA19:_tag_day_hour!CR19),_tag_day_hour!CA19:_tag_day_hour!CR19,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA19:_tag_day_hour!CR19),_tag_day_hour!CA19:_tag_day_hour!CR19,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M21" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA19:_tag_day_hour!CR19)=18,"",MAX(_tag_day_hour!CA19:_tag_day_hour!CR19))</f>
-        <v/>
-      </c>
-      <c r="N21" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA19:_tag_day_hour!CR19),_tag_day_hour!CA19:_tag_day_hour!CR19,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA19:_tag_day_hour!CR19),_tag_day_hour!CA19:_tag_day_hour!CR19,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O21" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA19:_tag_day_hour!CR19)=18,"",MIN(_tag_day_hour!CA19:_tag_day_hour!CR19))</f>
-        <v/>
-      </c>
-      <c r="P21" s="26" t="str">
+      <c r="H21" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W42:'_tag_day_hour'!AN42),_tag_day_hour!W42:'_tag_day_hour'!AN42,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W42:'_tag_day_hour'!AN42),_tag_day_hour!W42:'_tag_day_hour'!AN42,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I21" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W42:'_tag_day_hour'!AN42)=18,"",MAX(_tag_day_hour!W42:'_tag_day_hour'!AN42))</f>
+        <v/>
+      </c>
+      <c r="J21" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W42:'_tag_day_hour'!AN42),_tag_day_hour!W42:'_tag_day_hour'!AN42,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W42:'_tag_day_hour'!AN42),_tag_day_hour!W42:'_tag_day_hour'!AN42,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K21" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W42:'_tag_day_hour'!AN42)=18,"",MIN(_tag_day_hour!W42:'_tag_day_hour'!AN42))</f>
+        <v/>
+      </c>
+      <c r="L21" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA19:'_tag_day_hour'!CR19),_tag_day_hour!CA19:'_tag_day_hour'!CR19,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA19:'_tag_day_hour'!CR19),_tag_day_hour!CA19:'_tag_day_hour'!CR19,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M21" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA19:'_tag_day_hour'!CR19)=18,"",MAX(_tag_day_hour!CA19:'_tag_day_hour'!CR19))</f>
+        <v/>
+      </c>
+      <c r="N21" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA19:'_tag_day_hour'!CR19),_tag_day_hour!CA19:'_tag_day_hour'!CR19,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA19:'_tag_day_hour'!CR19),_tag_day_hour!CA19:'_tag_day_hour'!CR19,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O21" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA19:'_tag_day_hour'!CR19)=18,"",MIN(_tag_day_hour!CA19:'_tag_day_hour'!CR19))</f>
+        <v/>
+      </c>
+      <c r="P21" s="45" t="str">
         <f>IF(_tag_day_hour!BY18="","",_tag_day_hour!BY18)</f>
         <v/>
       </c>
-      <c r="Q21" s="41" t="str">
+      <c r="Q21" s="33" t="str">
         <f>IF(_tag_day_hour!BZ18="","",_tag_day_hour!BZ18)</f>
         <v/>
       </c>
-      <c r="R21" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS42:_tag_day_hour!DJ42)=18,"",AVERAGE(_tag_day_hour!CS42:_tag_day_hour!DJ42))</f>
-        <v/>
-      </c>
-      <c r="S21" s="43" t="str">
+      <c r="R21" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS42:'_tag_day_hour'!DJ42)=18,"",AVERAGE(_tag_day_hour!CS42:'_tag_day_hour'!DJ42))</f>
+        <v/>
+      </c>
+      <c r="S21" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A18="","",_fanchui6_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="T21" s="42" t="str">
+      <c r="T21" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B18="","",_fanchui6_day_hour!B18-_fanchui6_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="U21" s="42" t="str">
+      <c r="U21" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D18="","",_fanchui6_day_hour!D18-_fanchui6_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="V21" s="26" t="str">
+      <c r="V21" s="39" t="str">
         <f>IF(_maxmin_day_hour!A18="","",_maxmin_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="W21" s="26" t="str">
+      <c r="W21" s="39" t="str">
         <f>IF(_maxmin_day_hour!B18="","",_maxmin_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="X21" s="40" t="s">
+      <c r="X21" s="49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
-      <c r="A22" s="24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <v>18</v>
       </c>
-      <c r="B22" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A19:_tag_day_hour!R19)=0,"",COUNTIF(_tag_day_hour!A19:_tag_day_hour!R19,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C22" s="26" t="str">
+      <c r="B22" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A19:'_tag_day_hour'!R19)=0,"",COUNTIF(_tag_day_hour!A19:'_tag_day_hour'!R19,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C22" s="23" t="str">
         <f>IF(_tag_day_hour!S19="","",_tag_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="D22" s="26" t="str">
+      <c r="D22" s="23" t="str">
         <f>IF(_tag_day_hour!T19="","",_tag_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="E22" s="26" t="str">
+      <c r="E22" s="23" t="str">
         <f>IF(_tag_day_hour!U19="","",_tag_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="F22" s="26" t="str">
+      <c r="F22" s="23" t="str">
         <f>IF(_tag_day_hour!V19="","",_tag_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="G22" s="26" t="str">
+      <c r="G22" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W43:_tag_day_hour!AN43),_tag_day_hour!W43:_tag_day_hour!AN43,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W43:_tag_day_hour!AN43),_tag_day_hour!W43:_tag_day_hour!AN43,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I22" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W43:_tag_day_hour!AN43)=18,"",MAX(_tag_day_hour!W43:_tag_day_hour!AN43))</f>
-        <v/>
-      </c>
-      <c r="J22" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W43:_tag_day_hour!AN43),_tag_day_hour!W43:_tag_day_hour!AN43,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W43:_tag_day_hour!AN43),_tag_day_hour!W43:_tag_day_hour!AN43,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K22" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W43:_tag_day_hour!AN43)=18,"",MIN(_tag_day_hour!W43:_tag_day_hour!AN43))</f>
-        <v/>
-      </c>
-      <c r="L22" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA20:_tag_day_hour!CR20),_tag_day_hour!CA20:_tag_day_hour!CR20,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA20:_tag_day_hour!CR20),_tag_day_hour!CA20:_tag_day_hour!CR20,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M22" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA20:_tag_day_hour!CR20)=18,"",MAX(_tag_day_hour!CA20:_tag_day_hour!CR20))</f>
-        <v/>
-      </c>
-      <c r="N22" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA20:_tag_day_hour!CR20),_tag_day_hour!CA20:_tag_day_hour!CR20,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA20:_tag_day_hour!CR20),_tag_day_hour!CA20:_tag_day_hour!CR20,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O22" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA20:_tag_day_hour!CR20)=18,"",MIN(_tag_day_hour!CA20:_tag_day_hour!CR20))</f>
-        <v/>
-      </c>
-      <c r="P22" s="26" t="str">
+      <c r="H22" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W43:'_tag_day_hour'!AN43),_tag_day_hour!W43:'_tag_day_hour'!AN43,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W43:'_tag_day_hour'!AN43),_tag_day_hour!W43:'_tag_day_hour'!AN43,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I22" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W43:'_tag_day_hour'!AN43)=18,"",MAX(_tag_day_hour!W43:'_tag_day_hour'!AN43))</f>
+        <v/>
+      </c>
+      <c r="J22" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W43:'_tag_day_hour'!AN43),_tag_day_hour!W43:'_tag_day_hour'!AN43,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W43:'_tag_day_hour'!AN43),_tag_day_hour!W43:'_tag_day_hour'!AN43,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K22" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W43:'_tag_day_hour'!AN43)=18,"",MIN(_tag_day_hour!W43:'_tag_day_hour'!AN43))</f>
+        <v/>
+      </c>
+      <c r="L22" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA20:'_tag_day_hour'!CR20),_tag_day_hour!CA20:'_tag_day_hour'!CR20,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA20:'_tag_day_hour'!CR20),_tag_day_hour!CA20:'_tag_day_hour'!CR20,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M22" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA20:'_tag_day_hour'!CR20)=18,"",MAX(_tag_day_hour!CA20:'_tag_day_hour'!CR20))</f>
+        <v/>
+      </c>
+      <c r="N22" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA20:'_tag_day_hour'!CR20),_tag_day_hour!CA20:'_tag_day_hour'!CR20,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA20:'_tag_day_hour'!CR20),_tag_day_hour!CA20:'_tag_day_hour'!CR20,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O22" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA20:'_tag_day_hour'!CR20)=18,"",MIN(_tag_day_hour!CA20:'_tag_day_hour'!CR20))</f>
+        <v/>
+      </c>
+      <c r="P22" s="45" t="str">
         <f>IF(_tag_day_hour!BY19="","",_tag_day_hour!BY19)</f>
         <v/>
       </c>
-      <c r="Q22" s="41" t="str">
+      <c r="Q22" s="33" t="str">
         <f>IF(_tag_day_hour!BZ19="","",_tag_day_hour!BZ19)</f>
         <v/>
       </c>
-      <c r="R22" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS43:_tag_day_hour!DJ43)=18,"",AVERAGE(_tag_day_hour!CS43:_tag_day_hour!DJ43))</f>
-        <v/>
-      </c>
-      <c r="S22" s="43" t="str">
+      <c r="R22" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS43:'_tag_day_hour'!DJ43)=18,"",AVERAGE(_tag_day_hour!CS43:'_tag_day_hour'!DJ43))</f>
+        <v/>
+      </c>
+      <c r="S22" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A19="","",_fanchui6_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="T22" s="42" t="str">
+      <c r="T22" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B19="","",_fanchui6_day_hour!B19-_fanchui6_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="U22" s="42" t="str">
+      <c r="U22" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D19="","",_fanchui6_day_hour!D19-_fanchui6_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="V22" s="26" t="str">
+      <c r="V22" s="39" t="str">
         <f>IF(_maxmin_day_hour!A19="","",_maxmin_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="W22" s="26" t="str">
+      <c r="W22" s="39" t="str">
         <f>IF(_maxmin_day_hour!B19="","",_maxmin_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="X22" s="44"/>
+      <c r="X22" s="50"/>
     </row>
-    <row r="23" ht="14.25" spans="1:24">
-      <c r="A23" s="20">
+    <row r="23" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>19</v>
       </c>
-      <c r="B23" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A20:_tag_day_hour!R20)=0,"",COUNTIF(_tag_day_hour!A20:_tag_day_hour!R20,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C23" s="26" t="str">
+      <c r="B23" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A20:'_tag_day_hour'!R20)=0,"",COUNTIF(_tag_day_hour!A20:'_tag_day_hour'!R20,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C23" s="23" t="str">
         <f>IF(_tag_day_hour!S20="","",_tag_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="D23" s="26" t="str">
+      <c r="D23" s="23" t="str">
         <f>IF(_tag_day_hour!T20="","",_tag_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="E23" s="26" t="str">
+      <c r="E23" s="23" t="str">
         <f>IF(_tag_day_hour!U20="","",_tag_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="F23" s="26" t="str">
+      <c r="F23" s="23" t="str">
         <f>IF(_tag_day_hour!V20="","",_tag_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="G23" s="26" t="str">
+      <c r="G23" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H23" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W44:_tag_day_hour!AN44),_tag_day_hour!W44:_tag_day_hour!AN44,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W44:_tag_day_hour!AN44),_tag_day_hour!W44:_tag_day_hour!AN44,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I23" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W44:_tag_day_hour!AN44)=18,"",MAX(_tag_day_hour!W44:_tag_day_hour!AN44))</f>
-        <v/>
-      </c>
-      <c r="J23" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W44:_tag_day_hour!AN44),_tag_day_hour!W44:_tag_day_hour!AN44,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W44:_tag_day_hour!AN44),_tag_day_hour!W44:_tag_day_hour!AN44,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K23" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W44:_tag_day_hour!AN44)=18,"",MIN(_tag_day_hour!W44:_tag_day_hour!AN44))</f>
-        <v/>
-      </c>
-      <c r="L23" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA21:_tag_day_hour!CR21),_tag_day_hour!CA21:_tag_day_hour!CR21,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA21:_tag_day_hour!CR21),_tag_day_hour!CA21:_tag_day_hour!CR21,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M23" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA21:_tag_day_hour!CR21)=18,"",MAX(_tag_day_hour!CA21:_tag_day_hour!CR21))</f>
-        <v/>
-      </c>
-      <c r="N23" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA21:_tag_day_hour!CR21),_tag_day_hour!CA21:_tag_day_hour!CR21,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA21:_tag_day_hour!CR21),_tag_day_hour!CA21:_tag_day_hour!CR21,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O23" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA21:_tag_day_hour!CR21)=18,"",MIN(_tag_day_hour!CA21:_tag_day_hour!CR21))</f>
-        <v/>
-      </c>
-      <c r="P23" s="26" t="str">
+      <c r="H23" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W44:'_tag_day_hour'!AN44),_tag_day_hour!W44:'_tag_day_hour'!AN44,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W44:'_tag_day_hour'!AN44),_tag_day_hour!W44:'_tag_day_hour'!AN44,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I23" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W44:'_tag_day_hour'!AN44)=18,"",MAX(_tag_day_hour!W44:'_tag_day_hour'!AN44))</f>
+        <v/>
+      </c>
+      <c r="J23" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W44:'_tag_day_hour'!AN44),_tag_day_hour!W44:'_tag_day_hour'!AN44,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W44:'_tag_day_hour'!AN44),_tag_day_hour!W44:'_tag_day_hour'!AN44,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K23" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W44:'_tag_day_hour'!AN44)=18,"",MIN(_tag_day_hour!W44:'_tag_day_hour'!AN44))</f>
+        <v/>
+      </c>
+      <c r="L23" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA21:'_tag_day_hour'!CR21),_tag_day_hour!CA21:'_tag_day_hour'!CR21,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA21:'_tag_day_hour'!CR21),_tag_day_hour!CA21:'_tag_day_hour'!CR21,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M23" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA21:'_tag_day_hour'!CR21)=18,"",MAX(_tag_day_hour!CA21:'_tag_day_hour'!CR21))</f>
+        <v/>
+      </c>
+      <c r="N23" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA21:'_tag_day_hour'!CR21),_tag_day_hour!CA21:'_tag_day_hour'!CR21,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA21:'_tag_day_hour'!CR21),_tag_day_hour!CA21:'_tag_day_hour'!CR21,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O23" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA21:'_tag_day_hour'!CR21)=18,"",MIN(_tag_day_hour!CA21:'_tag_day_hour'!CR21))</f>
+        <v/>
+      </c>
+      <c r="P23" s="45" t="str">
         <f>IF(_tag_day_hour!BY20="","",_tag_day_hour!BY20)</f>
         <v/>
       </c>
-      <c r="Q23" s="41" t="str">
+      <c r="Q23" s="33" t="str">
         <f>IF(_tag_day_hour!BZ20="","",_tag_day_hour!BZ20)</f>
         <v/>
       </c>
-      <c r="R23" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS44:_tag_day_hour!DJ44)=18,"",AVERAGE(_tag_day_hour!CS44:_tag_day_hour!DJ44))</f>
-        <v/>
-      </c>
-      <c r="S23" s="43" t="str">
+      <c r="R23" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS44:'_tag_day_hour'!DJ44)=18,"",AVERAGE(_tag_day_hour!CS44:'_tag_day_hour'!DJ44))</f>
+        <v/>
+      </c>
+      <c r="S23" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A20="","",_fanchui6_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="T23" s="42" t="str">
+      <c r="T23" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B20="","",_fanchui6_day_hour!B20-_fanchui6_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="U23" s="42" t="str">
+      <c r="U23" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D20="","",_fanchui6_day_hour!D20-_fanchui6_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="V23" s="26" t="str">
+      <c r="V23" s="39" t="str">
         <f>IF(_maxmin_day_hour!A20="","",_maxmin_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="W23" s="26" t="str">
+      <c r="W23" s="39" t="str">
         <f>IF(_maxmin_day_hour!B20="","",_maxmin_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="X23" s="44"/>
+      <c r="X23" s="50"/>
     </row>
-    <row r="24" spans="1:24">
-      <c r="A24" s="24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
         <v>20</v>
       </c>
-      <c r="B24" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A21:_tag_day_hour!R21)=0,"",COUNTIF(_tag_day_hour!A21:_tag_day_hour!R21,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C24" s="26" t="str">
+      <c r="B24" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A21:'_tag_day_hour'!R21)=0,"",COUNTIF(_tag_day_hour!A21:'_tag_day_hour'!R21,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C24" s="23" t="str">
         <f>IF(_tag_day_hour!S21="","",_tag_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="D24" s="26" t="str">
+      <c r="D24" s="23" t="str">
         <f>IF(_tag_day_hour!T21="","",_tag_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="E24" s="26" t="str">
+      <c r="E24" s="23" t="str">
         <f>IF(_tag_day_hour!U21="","",_tag_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="F24" s="26" t="str">
+      <c r="F24" s="23" t="str">
         <f>IF(_tag_day_hour!V21="","",_tag_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="G24" s="26" t="str">
+      <c r="G24" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H24" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W45:_tag_day_hour!AN45),_tag_day_hour!W45:_tag_day_hour!AN45,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W45:_tag_day_hour!AN45),_tag_day_hour!W45:_tag_day_hour!AN45,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I24" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W45:_tag_day_hour!AN45)=18,"",MAX(_tag_day_hour!W45:_tag_day_hour!AN45))</f>
-        <v/>
-      </c>
-      <c r="J24" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W45:_tag_day_hour!AN45),_tag_day_hour!W45:_tag_day_hour!AN45,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W45:_tag_day_hour!AN45),_tag_day_hour!W45:_tag_day_hour!AN45,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K24" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W45:_tag_day_hour!AN45)=18,"",MIN(_tag_day_hour!W45:_tag_day_hour!AN45))</f>
-        <v/>
-      </c>
-      <c r="L24" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA22:_tag_day_hour!CR22),_tag_day_hour!CA22:_tag_day_hour!CR22,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA22:_tag_day_hour!CR22),_tag_day_hour!CA22:_tag_day_hour!CR22,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M24" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA22:_tag_day_hour!CR22)=18,"",MAX(_tag_day_hour!CA22:_tag_day_hour!CR22))</f>
-        <v/>
-      </c>
-      <c r="N24" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA22:_tag_day_hour!CR22),_tag_day_hour!CA22:_tag_day_hour!CR22,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA22:_tag_day_hour!CR22),_tag_day_hour!CA22:_tag_day_hour!CR22,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O24" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA22:_tag_day_hour!CR22)=18,"",MIN(_tag_day_hour!CA22:_tag_day_hour!CR22))</f>
-        <v/>
-      </c>
-      <c r="P24" s="26" t="str">
+      <c r="H24" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W45:'_tag_day_hour'!AN45),_tag_day_hour!W45:'_tag_day_hour'!AN45,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W45:'_tag_day_hour'!AN45),_tag_day_hour!W45:'_tag_day_hour'!AN45,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I24" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W45:'_tag_day_hour'!AN45)=18,"",MAX(_tag_day_hour!W45:'_tag_day_hour'!AN45))</f>
+        <v/>
+      </c>
+      <c r="J24" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W45:'_tag_day_hour'!AN45),_tag_day_hour!W45:'_tag_day_hour'!AN45,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W45:'_tag_day_hour'!AN45),_tag_day_hour!W45:'_tag_day_hour'!AN45,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K24" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W45:'_tag_day_hour'!AN45)=18,"",MIN(_tag_day_hour!W45:'_tag_day_hour'!AN45))</f>
+        <v/>
+      </c>
+      <c r="L24" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA22:'_tag_day_hour'!CR22),_tag_day_hour!CA22:'_tag_day_hour'!CR22,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA22:'_tag_day_hour'!CR22),_tag_day_hour!CA22:'_tag_day_hour'!CR22,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M24" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA22:'_tag_day_hour'!CR22)=18,"",MAX(_tag_day_hour!CA22:'_tag_day_hour'!CR22))</f>
+        <v/>
+      </c>
+      <c r="N24" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA22:'_tag_day_hour'!CR22),_tag_day_hour!CA22:'_tag_day_hour'!CR22,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA22:'_tag_day_hour'!CR22),_tag_day_hour!CA22:'_tag_day_hour'!CR22,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O24" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA22:'_tag_day_hour'!CR22)=18,"",MIN(_tag_day_hour!CA22:'_tag_day_hour'!CR22))</f>
+        <v/>
+      </c>
+      <c r="P24" s="45" t="str">
         <f>IF(_tag_day_hour!BY21="","",_tag_day_hour!BY21)</f>
         <v/>
       </c>
-      <c r="Q24" s="41" t="str">
+      <c r="Q24" s="33" t="str">
         <f>IF(_tag_day_hour!BZ21="","",_tag_day_hour!BZ21)</f>
         <v/>
       </c>
-      <c r="R24" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS45:_tag_day_hour!DJ45)=18,"",AVERAGE(_tag_day_hour!CS45:_tag_day_hour!DJ45))</f>
-        <v/>
-      </c>
-      <c r="S24" s="43" t="str">
+      <c r="R24" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS45:'_tag_day_hour'!DJ45)=18,"",AVERAGE(_tag_day_hour!CS45:'_tag_day_hour'!DJ45))</f>
+        <v/>
+      </c>
+      <c r="S24" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A21="","",_fanchui6_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="T24" s="42" t="str">
+      <c r="T24" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B21="","",_fanchui6_day_hour!B21-_fanchui6_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="U24" s="42" t="str">
+      <c r="U24" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D21="","",_fanchui6_day_hour!D21-_fanchui6_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="V24" s="26" t="str">
+      <c r="V24" s="39" t="str">
         <f>IF(_maxmin_day_hour!A21="","",_maxmin_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="W24" s="26" t="str">
+      <c r="W24" s="39" t="str">
         <f>IF(_maxmin_day_hour!B21="","",_maxmin_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="X24" s="44"/>
+      <c r="X24" s="50"/>
     </row>
-    <row r="25" ht="14.25" spans="1:24">
-      <c r="A25" s="20">
+    <row r="25" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>21</v>
       </c>
-      <c r="B25" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A22:_tag_day_hour!R22)=0,"",COUNTIF(_tag_day_hour!A22:_tag_day_hour!R22,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C25" s="26" t="str">
+      <c r="B25" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A22:'_tag_day_hour'!R22)=0,"",COUNTIF(_tag_day_hour!A22:'_tag_day_hour'!R22,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C25" s="23" t="str">
         <f>IF(_tag_day_hour!S22="","",_tag_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="D25" s="26" t="str">
+      <c r="D25" s="23" t="str">
         <f>IF(_tag_day_hour!T22="","",_tag_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="E25" s="26" t="str">
+      <c r="E25" s="23" t="str">
         <f>IF(_tag_day_hour!U22="","",_tag_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="F25" s="26" t="str">
+      <c r="F25" s="23" t="str">
         <f>IF(_tag_day_hour!V22="","",_tag_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="G25" s="26" t="str">
+      <c r="G25" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H25" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W46:_tag_day_hour!AN46),_tag_day_hour!W46:_tag_day_hour!AN46,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W46:_tag_day_hour!AN46),_tag_day_hour!W46:_tag_day_hour!AN46,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I25" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W46:_tag_day_hour!AN46)=18,"",MAX(_tag_day_hour!W46:_tag_day_hour!AN46))</f>
-        <v/>
-      </c>
-      <c r="J25" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W46:_tag_day_hour!AN46),_tag_day_hour!W46:_tag_day_hour!AN46,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W46:_tag_day_hour!AN46),_tag_day_hour!W46:_tag_day_hour!AN46,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K25" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W46:_tag_day_hour!AN46)=18,"",MIN(_tag_day_hour!W46:_tag_day_hour!AN46))</f>
-        <v/>
-      </c>
-      <c r="L25" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA23:_tag_day_hour!CR23),_tag_day_hour!CA23:_tag_day_hour!CR23,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA23:_tag_day_hour!CR23),_tag_day_hour!CA23:_tag_day_hour!CR23,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M25" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA23:_tag_day_hour!CR23)=18,"",MAX(_tag_day_hour!CA23:_tag_day_hour!CR23))</f>
-        <v/>
-      </c>
-      <c r="N25" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA23:_tag_day_hour!CR23),_tag_day_hour!CA23:_tag_day_hour!CR23,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA23:_tag_day_hour!CR23),_tag_day_hour!CA23:_tag_day_hour!CR23,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O25" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA23:_tag_day_hour!CR23)=18,"",MIN(_tag_day_hour!CA23:_tag_day_hour!CR23))</f>
-        <v/>
-      </c>
-      <c r="P25" s="26" t="str">
+      <c r="H25" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W46:'_tag_day_hour'!AN46),_tag_day_hour!W46:'_tag_day_hour'!AN46,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W46:'_tag_day_hour'!AN46),_tag_day_hour!W46:'_tag_day_hour'!AN46,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I25" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W46:'_tag_day_hour'!AN46)=18,"",MAX(_tag_day_hour!W46:'_tag_day_hour'!AN46))</f>
+        <v/>
+      </c>
+      <c r="J25" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W46:'_tag_day_hour'!AN46),_tag_day_hour!W46:'_tag_day_hour'!AN46,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W46:'_tag_day_hour'!AN46),_tag_day_hour!W46:'_tag_day_hour'!AN46,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K25" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W46:'_tag_day_hour'!AN46)=18,"",MIN(_tag_day_hour!W46:'_tag_day_hour'!AN46))</f>
+        <v/>
+      </c>
+      <c r="L25" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA23:'_tag_day_hour'!CR23),_tag_day_hour!CA23:'_tag_day_hour'!CR23,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA23:'_tag_day_hour'!CR23),_tag_day_hour!CA23:'_tag_day_hour'!CR23,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M25" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA23:'_tag_day_hour'!CR23)=18,"",MAX(_tag_day_hour!CA23:'_tag_day_hour'!CR23))</f>
+        <v/>
+      </c>
+      <c r="N25" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA23:'_tag_day_hour'!CR23),_tag_day_hour!CA23:'_tag_day_hour'!CR23,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA23:'_tag_day_hour'!CR23),_tag_day_hour!CA23:'_tag_day_hour'!CR23,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O25" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA23:'_tag_day_hour'!CR23)=18,"",MIN(_tag_day_hour!CA23:'_tag_day_hour'!CR23))</f>
+        <v/>
+      </c>
+      <c r="P25" s="45" t="str">
         <f>IF(_tag_day_hour!BY22="","",_tag_day_hour!BY22)</f>
         <v/>
       </c>
-      <c r="Q25" s="41" t="str">
+      <c r="Q25" s="33" t="str">
         <f>IF(_tag_day_hour!BZ22="","",_tag_day_hour!BZ22)</f>
         <v/>
       </c>
-      <c r="R25" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS46:_tag_day_hour!DJ46)=18,"",AVERAGE(_tag_day_hour!CS46:_tag_day_hour!DJ46))</f>
-        <v/>
-      </c>
-      <c r="S25" s="43" t="str">
+      <c r="R25" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS46:'_tag_day_hour'!DJ46)=18,"",AVERAGE(_tag_day_hour!CS46:'_tag_day_hour'!DJ46))</f>
+        <v/>
+      </c>
+      <c r="S25" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A22="","",_fanchui6_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="T25" s="42" t="str">
+      <c r="T25" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B22="","",_fanchui6_day_hour!B22-_fanchui6_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="U25" s="42" t="str">
+      <c r="U25" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D22="","",_fanchui6_day_hour!D22-_fanchui6_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="V25" s="26" t="str">
+      <c r="V25" s="39" t="str">
         <f>IF(_maxmin_day_hour!A22="","",_maxmin_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="W25" s="26" t="str">
+      <c r="W25" s="39" t="str">
         <f>IF(_maxmin_day_hour!B22="","",_maxmin_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="X25" s="44"/>
+      <c r="X25" s="50"/>
     </row>
-    <row r="26" spans="1:24">
-      <c r="A26" s="24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
         <v>22</v>
       </c>
-      <c r="B26" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A23:_tag_day_hour!R23)=0,"",COUNTIF(_tag_day_hour!A23:_tag_day_hour!R23,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C26" s="26" t="str">
+      <c r="B26" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A23:'_tag_day_hour'!R23)=0,"",COUNTIF(_tag_day_hour!A23:'_tag_day_hour'!R23,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C26" s="23" t="str">
         <f>IF(_tag_day_hour!S23="","",_tag_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="D26" s="26" t="str">
+      <c r="D26" s="23" t="str">
         <f>IF(_tag_day_hour!T23="","",_tag_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="E26" s="26" t="str">
+      <c r="E26" s="23" t="str">
         <f>IF(_tag_day_hour!U23="","",_tag_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="F26" s="26" t="str">
+      <c r="F26" s="23" t="str">
         <f>IF(_tag_day_hour!V23="","",_tag_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="G26" s="26" t="str">
+      <c r="G26" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H26" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W47:_tag_day_hour!AN47),_tag_day_hour!W47:_tag_day_hour!AN47,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W47:_tag_day_hour!AN47),_tag_day_hour!W47:_tag_day_hour!AN47,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I26" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W47:_tag_day_hour!AN47)=18,"",MAX(_tag_day_hour!W47:_tag_day_hour!AN47))</f>
-        <v/>
-      </c>
-      <c r="J26" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W47:_tag_day_hour!AN47),_tag_day_hour!W47:_tag_day_hour!AN47,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W47:_tag_day_hour!AN47),_tag_day_hour!W47:_tag_day_hour!AN47,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K26" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W47:_tag_day_hour!AN47)=18,"",MIN(_tag_day_hour!W47:_tag_day_hour!AN47))</f>
-        <v/>
-      </c>
-      <c r="L26" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA24:_tag_day_hour!CR24),_tag_day_hour!CA24:_tag_day_hour!CR24,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA24:_tag_day_hour!CR24),_tag_day_hour!CA24:_tag_day_hour!CR24,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M26" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA24:_tag_day_hour!CR24)=18,"",MAX(_tag_day_hour!CA24:_tag_day_hour!CR24))</f>
-        <v/>
-      </c>
-      <c r="N26" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA24:_tag_day_hour!CR24),_tag_day_hour!CA24:_tag_day_hour!CR24,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA24:_tag_day_hour!CR24),_tag_day_hour!CA24:_tag_day_hour!CR24,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O26" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA24:_tag_day_hour!CR24)=18,"",MIN(_tag_day_hour!CA24:_tag_day_hour!CR24))</f>
-        <v/>
-      </c>
-      <c r="P26" s="26" t="str">
+      <c r="H26" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W47:'_tag_day_hour'!AN47),_tag_day_hour!W47:'_tag_day_hour'!AN47,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W47:'_tag_day_hour'!AN47),_tag_day_hour!W47:'_tag_day_hour'!AN47,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I26" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W47:'_tag_day_hour'!AN47)=18,"",MAX(_tag_day_hour!W47:'_tag_day_hour'!AN47))</f>
+        <v/>
+      </c>
+      <c r="J26" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W47:'_tag_day_hour'!AN47),_tag_day_hour!W47:'_tag_day_hour'!AN47,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W47:'_tag_day_hour'!AN47),_tag_day_hour!W47:'_tag_day_hour'!AN47,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K26" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W47:'_tag_day_hour'!AN47)=18,"",MIN(_tag_day_hour!W47:'_tag_day_hour'!AN47))</f>
+        <v/>
+      </c>
+      <c r="L26" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA24:'_tag_day_hour'!CR24),_tag_day_hour!CA24:'_tag_day_hour'!CR24,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA24:'_tag_day_hour'!CR24),_tag_day_hour!CA24:'_tag_day_hour'!CR24,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M26" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA24:'_tag_day_hour'!CR24)=18,"",MAX(_tag_day_hour!CA24:'_tag_day_hour'!CR24))</f>
+        <v/>
+      </c>
+      <c r="N26" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA24:'_tag_day_hour'!CR24),_tag_day_hour!CA24:'_tag_day_hour'!CR24,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA24:'_tag_day_hour'!CR24),_tag_day_hour!CA24:'_tag_day_hour'!CR24,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O26" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA24:'_tag_day_hour'!CR24)=18,"",MIN(_tag_day_hour!CA24:'_tag_day_hour'!CR24))</f>
+        <v/>
+      </c>
+      <c r="P26" s="45" t="str">
         <f>IF(_tag_day_hour!BY23="","",_tag_day_hour!BY23)</f>
         <v/>
       </c>
-      <c r="Q26" s="41" t="str">
+      <c r="Q26" s="33" t="str">
         <f>IF(_tag_day_hour!BZ23="","",_tag_day_hour!BZ23)</f>
         <v/>
       </c>
-      <c r="R26" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS47:_tag_day_hour!DJ47)=18,"",AVERAGE(_tag_day_hour!CS47:_tag_day_hour!DJ47))</f>
-        <v/>
-      </c>
-      <c r="S26" s="43" t="str">
+      <c r="R26" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS47:'_tag_day_hour'!DJ47)=18,"",AVERAGE(_tag_day_hour!CS47:'_tag_day_hour'!DJ47))</f>
+        <v/>
+      </c>
+      <c r="S26" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A23="","",_fanchui6_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="T26" s="42" t="str">
+      <c r="T26" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B23="","",_fanchui6_day_hour!B23-_fanchui6_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="U26" s="42" t="str">
+      <c r="U26" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D23="","",_fanchui6_day_hour!D23-_fanchui6_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="V26" s="26" t="str">
+      <c r="V26" s="39" t="str">
         <f>IF(_maxmin_day_hour!A23="","",_maxmin_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="W26" s="26" t="str">
+      <c r="W26" s="39" t="str">
         <f>IF(_maxmin_day_hour!B23="","",_maxmin_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="X26" s="44"/>
+      <c r="X26" s="50"/>
     </row>
-    <row r="27" ht="14.25" spans="1:24">
-      <c r="A27" s="20">
+    <row r="27" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>23</v>
       </c>
-      <c r="B27" s="25" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A24:_tag_day_hour!R24)=0,"",COUNTIF(_tag_day_hour!A24:_tag_day_hour!R24,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C27" s="26" t="str">
+      <c r="B27" s="15" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A24:'_tag_day_hour'!R24)=0,"",COUNTIF(_tag_day_hour!A24:'_tag_day_hour'!R24,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C27" s="23" t="str">
         <f>IF(_tag_day_hour!S24="","",_tag_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="D27" s="26" t="str">
+      <c r="D27" s="23" t="str">
         <f>IF(_tag_day_hour!T24="","",_tag_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="E27" s="26" t="str">
+      <c r="E27" s="23" t="str">
         <f>IF(_tag_day_hour!U24="","",_tag_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="F27" s="26" t="str">
+      <c r="F27" s="23" t="str">
         <f>IF(_tag_day_hour!V24="","",_tag_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="G27" s="26" t="str">
+      <c r="G27" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H27" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W48:_tag_day_hour!AN48),_tag_day_hour!W48:_tag_day_hour!AN48,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W48:_tag_day_hour!AN48),_tag_day_hour!W48:_tag_day_hour!AN48,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I27" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W48:_tag_day_hour!AN48)=18,"",MAX(_tag_day_hour!W48:_tag_day_hour!AN48))</f>
-        <v/>
-      </c>
-      <c r="J27" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W48:_tag_day_hour!AN48),_tag_day_hour!W48:_tag_day_hour!AN48,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W48:_tag_day_hour!AN48),_tag_day_hour!W48:_tag_day_hour!AN48,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K27" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W48:_tag_day_hour!AN48)=18,"",MIN(_tag_day_hour!W48:_tag_day_hour!AN48))</f>
-        <v/>
-      </c>
-      <c r="L27" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA25:_tag_day_hour!CR25),_tag_day_hour!CA25:_tag_day_hour!CR25,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA25:_tag_day_hour!CR25),_tag_day_hour!CA25:_tag_day_hour!CR25,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M27" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA25:_tag_day_hour!CR25)=18,"",MAX(_tag_day_hour!CA25:_tag_day_hour!CR25))</f>
-        <v/>
-      </c>
-      <c r="N27" s="25" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA25:_tag_day_hour!CR25),_tag_day_hour!CA25:_tag_day_hour!CR25,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA25:_tag_day_hour!CR25),_tag_day_hour!CA25:_tag_day_hour!CR25,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O27" s="26" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA25:_tag_day_hour!CR25)=18,"",MIN(_tag_day_hour!CA25:_tag_day_hour!CR25))</f>
-        <v/>
-      </c>
-      <c r="P27" s="26" t="str">
+      <c r="H27" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W48:'_tag_day_hour'!AN48),_tag_day_hour!W48:'_tag_day_hour'!AN48,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W48:'_tag_day_hour'!AN48),_tag_day_hour!W48:'_tag_day_hour'!AN48,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I27" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W48:'_tag_day_hour'!AN48)=18,"",MAX(_tag_day_hour!W48:'_tag_day_hour'!AN48))</f>
+        <v/>
+      </c>
+      <c r="J27" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W48:'_tag_day_hour'!AN48),_tag_day_hour!W48:'_tag_day_hour'!AN48,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W48:'_tag_day_hour'!AN48),_tag_day_hour!W48:'_tag_day_hour'!AN48,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K27" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W48:'_tag_day_hour'!AN48)=18,"",MIN(_tag_day_hour!W48:'_tag_day_hour'!AN48))</f>
+        <v/>
+      </c>
+      <c r="L27" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA25:'_tag_day_hour'!CR25),_tag_day_hour!CA25:'_tag_day_hour'!CR25,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA25:'_tag_day_hour'!CR25),_tag_day_hour!CA25:'_tag_day_hour'!CR25,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M27" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA25:'_tag_day_hour'!CR25)=18,"",MAX(_tag_day_hour!CA25:'_tag_day_hour'!CR25))</f>
+        <v/>
+      </c>
+      <c r="N27" s="15" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA25:'_tag_day_hour'!CR25),_tag_day_hour!CA25:'_tag_day_hour'!CR25,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA25:'_tag_day_hour'!CR25),_tag_day_hour!CA25:'_tag_day_hour'!CR25,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O27" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA25:'_tag_day_hour'!CR25)=18,"",MIN(_tag_day_hour!CA25:'_tag_day_hour'!CR25))</f>
+        <v/>
+      </c>
+      <c r="P27" s="45" t="str">
         <f>IF(_tag_day_hour!BY24="","",_tag_day_hour!BY24)</f>
         <v/>
       </c>
-      <c r="Q27" s="41" t="str">
+      <c r="Q27" s="33" t="str">
         <f>IF(_tag_day_hour!BZ24="","",_tag_day_hour!BZ24)</f>
         <v/>
       </c>
-      <c r="R27" s="42" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS48:_tag_day_hour!DJ48)=18,"",AVERAGE(_tag_day_hour!CS48:_tag_day_hour!DJ48))</f>
-        <v/>
-      </c>
-      <c r="S27" s="43" t="str">
+      <c r="R27" s="33" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS48:'_tag_day_hour'!DJ48)=18,"",AVERAGE(_tag_day_hour!CS48:'_tag_day_hour'!DJ48))</f>
+        <v/>
+      </c>
+      <c r="S27" s="21" t="str">
         <f>IF(_fanchui6_day_hour!A24="","",_fanchui6_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="T27" s="42" t="str">
+      <c r="T27" s="33" t="str">
         <f>IF(_fanchui6_day_hour!B24="","",_fanchui6_day_hour!B24-_fanchui6_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="U27" s="42" t="str">
+      <c r="U27" s="33" t="str">
         <f>IF(_fanchui6_day_hour!D24="","",_fanchui6_day_hour!D24-_fanchui6_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="V27" s="26" t="str">
+      <c r="V27" s="39" t="str">
         <f>IF(_maxmin_day_hour!A24="","",_maxmin_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="W27" s="26" t="str">
+      <c r="W27" s="39" t="str">
         <f>IF(_maxmin_day_hour!B24="","",_maxmin_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="X27" s="44"/>
+      <c r="X27" s="50"/>
     </row>
-    <row r="28" spans="1:24">
-      <c r="A28" s="27">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
         <v>24</v>
       </c>
-      <c r="B28" s="28" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A25:_tag_day_hour!R25)=0,"",COUNTIF(_tag_day_hour!A25:_tag_day_hour!R25,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C28" s="29" t="str">
+      <c r="B28" s="17" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A25:'_tag_day_hour'!R25)=0,"",COUNTIF(_tag_day_hour!A25:'_tag_day_hour'!R25,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C28" s="27" t="str">
         <f>IF(_tag_day_hour!S25="","",_tag_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="D28" s="29" t="str">
+      <c r="D28" s="27" t="str">
         <f>IF(_tag_day_hour!T25="","",_tag_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="E28" s="29" t="str">
+      <c r="E28" s="27" t="str">
         <f>IF(_tag_day_hour!U25="","",_tag_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="F28" s="29" t="str">
+      <c r="F28" s="27" t="str">
         <f>IF(_tag_day_hour!V25="","",_tag_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="G28" s="29" t="str">
+      <c r="G28" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="28" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W49:_tag_day_hour!AN49),_tag_day_hour!W49:_tag_day_hour!AN49,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MAX(_tag_day_hour!W49:_tag_day_hour!AN49),_tag_day_hour!W49:_tag_day_hour!AN49,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="I28" s="29" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W49:_tag_day_hour!AN49)=18,"",MAX(_tag_day_hour!W49:_tag_day_hour!AN49))</f>
-        <v/>
-      </c>
-      <c r="J28" s="28" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W49:_tag_day_hour!AN49),_tag_day_hour!W49:_tag_day_hour!AN49,0)),LEN(INDEX(_tag_day_hour!$W$1:_tag_day_hour!$AN$1,MATCH(MIN(_tag_day_hour!W49:_tag_day_hour!AN49),_tag_day_hour!W49:_tag_day_hour!AN49,0)))-10,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="K28" s="29" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!W49:_tag_day_hour!AN49)=18,"",MIN(_tag_day_hour!W49:_tag_day_hour!AN49))</f>
-        <v/>
-      </c>
-      <c r="L28" s="28" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA26:_tag_day_hour!CR26),_tag_day_hour!CA26:_tag_day_hour!CR26,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MAX(_tag_day_hour!CA26:_tag_day_hour!CR26),_tag_day_hour!CA26:_tag_day_hour!CR26,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="M28" s="29" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA26:_tag_day_hour!CR26)=18,"",MAX(_tag_day_hour!CA26:_tag_day_hour!CR26))</f>
-        <v/>
-      </c>
-      <c r="N28" s="28" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA26:_tag_day_hour!CR26),_tag_day_hour!CA26:_tag_day_hour!CR26,0)),LEN(INDEX(_tag_day_hour!$CA$2:_tag_day_hour!$CR$2,MATCH(MIN(_tag_day_hour!CA26:_tag_day_hour!CR26),_tag_day_hour!CA26:_tag_day_hour!CR26,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="O28" s="29" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CA26:_tag_day_hour!CR26)=18,"",MIN(_tag_day_hour!CA26:_tag_day_hour!CR26))</f>
-        <v/>
-      </c>
-      <c r="P28" s="29" t="str">
+      <c r="H28" s="17" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W49:'_tag_day_hour'!AN49),_tag_day_hour!W49:'_tag_day_hour'!AN49,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MAX(_tag_day_hour!W49:'_tag_day_hour'!AN49),_tag_day_hour!W49:'_tag_day_hour'!AN49,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="I28" s="40" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W49:'_tag_day_hour'!AN49)=18,"",MAX(_tag_day_hour!W49:'_tag_day_hour'!AN49))</f>
+        <v/>
+      </c>
+      <c r="J28" s="17" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W49:'_tag_day_hour'!AN49),_tag_day_hour!W49:'_tag_day_hour'!AN49,0)),LEN(INDEX(_tag_day_hour!$W$1:'_tag_day_hour'!$AN$1,MATCH(MIN(_tag_day_hour!W49:'_tag_day_hour'!AN49),_tag_day_hour!W49:'_tag_day_hour'!AN49,0)))-10,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="K28" s="40" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!W49:'_tag_day_hour'!AN49)=18,"",MIN(_tag_day_hour!W49:'_tag_day_hour'!AN49))</f>
+        <v/>
+      </c>
+      <c r="L28" s="17" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA26:'_tag_day_hour'!CR26),_tag_day_hour!CA26:'_tag_day_hour'!CR26,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MAX(_tag_day_hour!CA26:'_tag_day_hour'!CR26),_tag_day_hour!CA26:'_tag_day_hour'!CR26,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="M28" s="40" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA26:'_tag_day_hour'!CR26)=18,"",MAX(_tag_day_hour!CA26:'_tag_day_hour'!CR26))</f>
+        <v/>
+      </c>
+      <c r="N28" s="17" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA26:'_tag_day_hour'!CR26),_tag_day_hour!CA26:'_tag_day_hour'!CR26,0)),LEN(INDEX(_tag_day_hour!$CA$2:'_tag_day_hour'!$CR$2,MATCH(MIN(_tag_day_hour!CA26:'_tag_day_hour'!CR26),_tag_day_hour!CA26:'_tag_day_hour'!CR26,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="O28" s="40" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CA26:'_tag_day_hour'!CR26)=18,"",MIN(_tag_day_hour!CA26:'_tag_day_hour'!CR26))</f>
+        <v/>
+      </c>
+      <c r="P28" s="46" t="str">
         <f>IF(_tag_day_hour!BY25="","",_tag_day_hour!BY25)</f>
         <v/>
       </c>
-      <c r="Q28" s="45" t="str">
+      <c r="Q28" s="34" t="str">
         <f>IF(_tag_day_hour!BZ25="","",_tag_day_hour!BZ25)</f>
         <v/>
       </c>
-      <c r="R28" s="46" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!CS49:_tag_day_hour!DJ49)=18,"",AVERAGE(_tag_day_hour!CS49:_tag_day_hour!DJ49))</f>
-        <v/>
-      </c>
-      <c r="S28" s="47" t="str">
+      <c r="R28" s="34" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!CS49:'_tag_day_hour'!DJ49)=18,"",AVERAGE(_tag_day_hour!CS49:'_tag_day_hour'!DJ49))</f>
+        <v/>
+      </c>
+      <c r="S28" s="22" t="str">
         <f>IF(_fanchui6_day_hour!A25="","",_fanchui6_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="T28" s="46" t="str">
+      <c r="T28" s="34" t="str">
         <f>IF(_fanchui6_day_hour!B25="","",_fanchui6_day_hour!B25-_fanchui6_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="U28" s="46" t="str">
+      <c r="U28" s="34" t="str">
         <f>IF(_fanchui6_day_hour!D25="","",_fanchui6_day_hour!D25-_fanchui6_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="V28" s="29" t="str">
+      <c r="V28" s="40" t="str">
         <f>IF(_maxmin_day_hour!A25="","",_maxmin_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="W28" s="29" t="str">
+      <c r="W28" s="40" t="str">
         <f>IF(_maxmin_day_hour!B25="","",_maxmin_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="X28" s="48"/>
+      <c r="X28" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4443,397 +3917,396 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:R3"/>
+    <mergeCell ref="X13:X20"/>
+    <mergeCell ref="X21:X28"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="X5:X12"/>
-    <mergeCell ref="X13:X20"/>
-    <mergeCell ref="X21:X28"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DJ49"/>
   <sheetViews>
     <sheetView topLeftCell="BP1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="BV11" sqref="BV11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="41" max="45" width="9.375"/>
-    <col min="48" max="52" width="9.375"/>
-    <col min="54" max="54" width="9.375"/>
-    <col min="56" max="58" width="9.375"/>
-    <col min="60" max="63" width="9.375"/>
-    <col min="66" max="67" width="9.375"/>
-    <col min="69" max="70" width="9.375"/>
-    <col min="72" max="76" width="9.375"/>
-    <col min="79" max="79" width="9.375"/>
-    <col min="80" max="83" width="10.375"/>
-    <col min="84" max="84" width="9.375"/>
-    <col min="86" max="87" width="10.375"/>
-    <col min="88" max="88" width="9.375"/>
-    <col min="89" max="90" width="10.375"/>
-    <col min="92" max="96" width="10.375"/>
+    <col min="41" max="45" width="9.33203125"/>
+    <col min="48" max="52" width="9.33203125"/>
+    <col min="54" max="54" width="9.33203125"/>
+    <col min="56" max="58" width="9.33203125"/>
+    <col min="60" max="63" width="9.33203125"/>
+    <col min="66" max="67" width="9.33203125"/>
+    <col min="69" max="70" width="9.33203125"/>
+    <col min="72" max="76" width="9.33203125"/>
+    <col min="79" max="79" width="9.33203125"/>
+    <col min="80" max="83" width="10.33203125"/>
+    <col min="84" max="84" width="9.33203125"/>
+    <col min="86" max="87" width="10.33203125"/>
+    <col min="88" max="88" width="9.33203125"/>
+    <col min="89" max="90" width="10.33203125"/>
+    <col min="92" max="96" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="85.5" spans="1:114">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:114" s="2" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AO1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AW1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AY1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BA1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BB1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BC1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BD1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BE1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BF1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BG1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BH1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BI1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BK1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BL1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BM1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="BN1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BO1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="BP1" s="6" t="s">
+      <c r="BP1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="BQ1" s="6" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="BR1" s="6" t="s">
+      <c r="BR1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="BS1" s="6" t="s">
+      <c r="BS1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BT1" s="6" t="s">
+      <c r="BT1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BU1" s="6" t="s">
+      <c r="BU1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BV1" s="6" t="s">
+      <c r="BV1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BW1" s="6" t="s">
+      <c r="BW1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BX1" s="6" t="s">
+      <c r="BX1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="BY1" s="7" t="s">
+      <c r="BY1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="BZ1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="CS1" s="9" t="s">
+      <c r="CS1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="CT1" s="10" t="s">
+      <c r="CT1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="CU1" s="10" t="s">
+      <c r="CU1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="CV1" s="10" t="s">
+      <c r="CV1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="CW1" s="10" t="s">
+      <c r="CW1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="CX1" s="10" t="s">
+      <c r="CX1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="CY1" s="10" t="s">
+      <c r="CY1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="CZ1" s="10" t="s">
+      <c r="CZ1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="DA1" s="10" t="s">
+      <c r="DA1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="DB1" s="10" t="s">
+      <c r="DB1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="DC1" s="10" t="s">
+      <c r="DC1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="DD1" s="10" t="s">
+      <c r="DD1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="DE1" s="10" t="s">
+      <c r="DE1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="DF1" s="10" t="s">
+      <c r="DF1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="DG1" s="10" t="s">
+      <c r="DG1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="DH1" s="10" t="s">
+      <c r="DH1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="DI1" s="10" t="s">
+      <c r="DI1" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="DJ1" s="10" t="s">
+      <c r="DJ1" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" ht="57" spans="79:96">
-      <c r="CA2" s="7" t="s">
+    <row r="2" spans="1:114" ht="78" x14ac:dyDescent="0.25">
+      <c r="CA2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="CB2" s="6" t="s">
+      <c r="CB2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CC2" s="6" t="s">
+      <c r="CC2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CD2" s="6" t="s">
+      <c r="CD2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CE2" s="6" t="s">
+      <c r="CE2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CF2" s="6" t="s">
+      <c r="CF2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CG2" s="6" t="s">
+      <c r="CG2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CH2" s="6" t="s">
+      <c r="CH2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="CI2" s="6" t="s">
+      <c r="CI2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="CJ2" s="6" t="s">
+      <c r="CJ2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="CK2" s="6" t="s">
+      <c r="CK2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="CL2" s="6" t="s">
+      <c r="CL2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="CM2" s="6" t="s">
+      <c r="CM2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="CN2" s="6" t="s">
+      <c r="CN2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="CO2" s="6" t="s">
+      <c r="CO2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="CP2" s="6" t="s">
+      <c r="CP2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="CQ2" s="6" t="s">
+      <c r="CQ2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="CR2" s="6" t="s">
+      <c r="CR2" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="79:96">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.25">
       <c r="CA3" t="str">
         <f t="shared" ref="CA3:CA26" si="0">IF(AND(AO26="",BG26=""),"",AO26-BG26)</f>
         <v/>
@@ -4907,7 +4380,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="79:96">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.25">
       <c r="CA4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4981,7 +4454,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="79:96">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.25">
       <c r="CA5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5055,7 +4528,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="79:96">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.25">
       <c r="CA6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5129,7 +4602,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="79:96">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.25">
       <c r="CA7" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5203,7 +4676,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="79:96">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.25">
       <c r="CA8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5277,7 +4750,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="79:96">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.25">
       <c r="CA9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5351,7 +4824,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="79:96">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.25">
       <c r="CA10" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5425,7 +4898,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="79:96">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.25">
       <c r="CA11" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5499,7 +4972,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="79:96">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.25">
       <c r="CA12" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5573,7 +5046,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="79:96">
+    <row r="13" spans="1:114" x14ac:dyDescent="0.25">
       <c r="CA13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5647,7 +5120,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="79:96">
+    <row r="14" spans="1:114" x14ac:dyDescent="0.25">
       <c r="CA14" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5721,7 +5194,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="79:96">
+    <row r="15" spans="1:114" x14ac:dyDescent="0.25">
       <c r="CA15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5795,7 +5268,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="79:96">
+    <row r="16" spans="1:114" x14ac:dyDescent="0.25">
       <c r="CA16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5869,7 +5342,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="79:96">
+    <row r="17" spans="22:114" x14ac:dyDescent="0.25">
       <c r="CA17" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5943,7 +5416,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="79:96">
+    <row r="18" spans="22:114" x14ac:dyDescent="0.25">
       <c r="CA18" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6017,7 +5490,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="79:96">
+    <row r="19" spans="22:114" x14ac:dyDescent="0.25">
       <c r="CA19" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6091,7 +5564,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="79:96">
+    <row r="20" spans="22:114" x14ac:dyDescent="0.25">
       <c r="CA20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6165,7 +5638,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="79:96">
+    <row r="21" spans="22:114" x14ac:dyDescent="0.25">
       <c r="CA21" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6239,7 +5712,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="79:96">
+    <row r="22" spans="22:114" x14ac:dyDescent="0.25">
       <c r="CA22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6313,7 +5786,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="79:96">
+    <row r="23" spans="22:114" x14ac:dyDescent="0.25">
       <c r="CA23" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6387,7 +5860,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="79:96">
+    <row r="24" spans="22:114" x14ac:dyDescent="0.25">
       <c r="CA24" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6461,8 +5934,8 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="22:96">
-      <c r="V25" s="8"/>
+    <row r="25" spans="22:114" x14ac:dyDescent="0.25">
+      <c r="V25" s="6"/>
       <c r="CA25" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6536,8 +6009,8 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="22:114">
-      <c r="V26" s="8"/>
+    <row r="26" spans="22:114" x14ac:dyDescent="0.25">
+      <c r="V26" s="6"/>
       <c r="W26" t="str">
         <f>IF(A2="","",IF(A2=0,W2,""))</f>
         <v/>
@@ -6899,10 +6372,10 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="22:114">
-      <c r="V27" s="8"/>
+    <row r="27" spans="22:114" x14ac:dyDescent="0.25">
+      <c r="V27" s="6"/>
       <c r="W27" t="str">
-        <f t="shared" ref="W26:W49" si="87">IF(A3="","",IF(A3=0,W3,""))</f>
+        <f t="shared" ref="W27:W49" si="87">IF(A3="","",IF(A3=0,W3,""))</f>
         <v/>
       </c>
       <c r="X27" t="str">
@@ -7042,7 +6515,7 @@
         <v/>
       </c>
       <c r="BF27" t="str">
-        <f t="shared" ref="BF26:BF49" si="88">IF(R3="","",IF(R3=0,BF3,""))</f>
+        <f t="shared" ref="BF27:BF49" si="88">IF(R3="","",IF(R3=0,BF3,""))</f>
         <v/>
       </c>
       <c r="BG27" t="str">
@@ -7190,7 +6663,7 @@
         <v/>
       </c>
       <c r="CS27" t="str">
-        <f t="shared" ref="CS26:CS49" si="90">IF(A3="","",IF(A3=0,CS3,""))</f>
+        <f t="shared" ref="CS27:CS49" si="90">IF(A3="","",IF(A3=0,CS3,""))</f>
         <v/>
       </c>
       <c r="CT27" t="str">
@@ -7262,8 +6735,8 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="22:114">
-      <c r="V28" s="8"/>
+    <row r="28" spans="22:114" x14ac:dyDescent="0.25">
+      <c r="V28" s="6"/>
       <c r="W28" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -7625,8 +7098,8 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="22:114">
-      <c r="V29" s="8"/>
+    <row r="29" spans="22:114" x14ac:dyDescent="0.25">
+      <c r="V29" s="6"/>
       <c r="W29" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -7988,8 +7461,8 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="22:114">
-      <c r="V30" s="8"/>
+    <row r="30" spans="22:114" x14ac:dyDescent="0.25">
+      <c r="V30" s="6"/>
       <c r="W30" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -8351,8 +7824,8 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="22:114">
-      <c r="V31" s="8"/>
+    <row r="31" spans="22:114" x14ac:dyDescent="0.25">
+      <c r="V31" s="6"/>
       <c r="W31" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -8714,8 +8187,8 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="22:114">
-      <c r="V32" s="8"/>
+    <row r="32" spans="22:114" x14ac:dyDescent="0.25">
+      <c r="V32" s="6"/>
       <c r="W32" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -9005,8 +8478,8 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="22:114">
-      <c r="V33" s="8"/>
+    <row r="33" spans="22:114" x14ac:dyDescent="0.25">
+      <c r="V33" s="6"/>
       <c r="W33" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -9296,8 +8769,8 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="22:114">
-      <c r="V34" s="8"/>
+    <row r="34" spans="22:114" x14ac:dyDescent="0.25">
+      <c r="V34" s="6"/>
       <c r="W34" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -9587,8 +9060,8 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="22:114">
-      <c r="V35" s="8"/>
+    <row r="35" spans="22:114" x14ac:dyDescent="0.25">
+      <c r="V35" s="6"/>
       <c r="W35" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -9878,7 +9351,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="23:114">
+    <row r="36" spans="22:114" x14ac:dyDescent="0.25">
       <c r="W36" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -10168,7 +9641,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="23:114">
+    <row r="37" spans="22:114" x14ac:dyDescent="0.25">
       <c r="W37" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -10458,7 +9931,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="23:114">
+    <row r="38" spans="22:114" x14ac:dyDescent="0.25">
       <c r="W38" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -10748,7 +10221,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="23:114">
+    <row r="39" spans="22:114" x14ac:dyDescent="0.25">
       <c r="W39" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -11038,7 +10511,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="23:114">
+    <row r="40" spans="22:114" x14ac:dyDescent="0.25">
       <c r="W40" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -11328,7 +10801,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="23:114">
+    <row r="41" spans="22:114" x14ac:dyDescent="0.25">
       <c r="W41" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -11618,7 +11091,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="23:114">
+    <row r="42" spans="22:114" x14ac:dyDescent="0.25">
       <c r="W42" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -11908,7 +11381,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="23:114">
+    <row r="43" spans="22:114" x14ac:dyDescent="0.25">
       <c r="W43" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -12198,7 +11671,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="23:114">
+    <row r="44" spans="22:114" x14ac:dyDescent="0.25">
       <c r="W44" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -12488,7 +11961,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="23:114">
+    <row r="45" spans="22:114" x14ac:dyDescent="0.25">
       <c r="W45" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -12778,7 +12251,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="23:114">
+    <row r="46" spans="22:114" x14ac:dyDescent="0.25">
       <c r="W46" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -13068,7 +12541,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="23:114">
+    <row r="47" spans="22:114" x14ac:dyDescent="0.25">
       <c r="W47" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -13358,7 +12831,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="23:114">
+    <row r="48" spans="22:114" x14ac:dyDescent="0.25">
       <c r="W48" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -13648,7 +13121,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="23:114">
+    <row r="49" spans="23:114" x14ac:dyDescent="0.25">
       <c r="W49" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -13939,53 +13412,49 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="4"/>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="81" spans="1:5">
+    <row r="1" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>53</v>
@@ -14001,48 +13470,46 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="15" spans="1:2">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/excel/finished/环保/6BF-煤气布袋除尘报表.xlsx
+++ b/excel/finished/环保/6BF-煤气布袋除尘报表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\朱川\Desktop\布袋除尘\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="6BF-煤气布袋除尘报表" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="_metadata" sheetId="3" r:id="rId5"/>
     <sheet name="_dictionary" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -29,7 +24,7 @@
     <author>何茂成</author>
   </authors>
   <commentList>
-    <comment ref="R5" authorId="0" shapeId="0">
+    <comment ref="R5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T5" authorId="0" shapeId="0">
+    <comment ref="T5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U5" authorId="0" shapeId="0">
+    <comment ref="U5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V5" authorId="0" shapeId="0">
+    <comment ref="V5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W5" authorId="0" shapeId="0">
+    <comment ref="W5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +144,7 @@
     <author>何茂成</author>
   </authors>
   <commentList>
-    <comment ref="CS1" authorId="0" shapeId="0">
+    <comment ref="CS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +176,7 @@
     <author>何茂成</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1118,33 +1113,6 @@
     <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1160,7 +1128,34 @@
     <xf numFmtId="178" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1447,46 +1442,47 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U1" activeCellId="1" sqref="T1:T1048576 U1:U1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="4" width="9" style="28"/>
-    <col min="5" max="6" width="9.33203125" style="28"/>
+    <col min="5" max="6" width="9.375" style="28"/>
     <col min="7" max="7" width="9" style="35"/>
     <col min="9" max="9" width="9" style="41"/>
     <col min="11" max="11" width="9" style="41"/>
     <col min="13" max="13" width="9" style="41"/>
-    <col min="15" max="15" width="10.33203125" style="41"/>
-    <col min="16" max="16" width="12.6640625" style="47"/>
+    <col min="15" max="15" width="10.375" style="41"/>
+    <col min="16" max="16" width="12.625" style="47"/>
     <col min="17" max="18" width="9" style="35"/>
     <col min="19" max="19" width="24" customWidth="1"/>
     <col min="20" max="21" width="9" style="35"/>
     <col min="22" max="23" width="9" style="41"/>
-    <col min="24" max="24" width="23.77734375" customWidth="1"/>
+    <col min="24" max="24" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="59"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="51"/>
       <c r="R1" s="30"/>
       <c r="S1" s="9"/>
       <c r="T1" s="30"/>
@@ -1495,7 +1491,7 @@
       <c r="W1" s="36"/>
       <c r="X1" s="9"/>
     </row>
-    <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="24"/>
@@ -1503,11 +1499,11 @@
       <c r="E2" s="29"/>
       <c r="F2" s="24"/>
       <c r="G2" s="30"/>
-      <c r="H2" s="60" t="str">
+      <c r="H2" s="52" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="I2" s="60"/>
+      <c r="I2" s="52"/>
       <c r="J2" s="9"/>
       <c r="K2" s="36"/>
       <c r="L2" s="9"/>
@@ -1526,59 +1522,59 @@
       <c r="W2" s="36"/>
       <c r="X2" s="9"/>
     </row>
-    <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="54"/>
+      <c r="J3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52" t="s">
+      <c r="Q3" s="55"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="53" t="s">
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="53"/>
+      <c r="W3" s="59"/>
       <c r="X3" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
+    <row r="4" spans="1:24" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="25" t="s">
         <v>14</v>
       </c>
@@ -1644,7 +1640,7 @@
       </c>
       <c r="X4" s="19"/>
     </row>
-    <row r="5" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -1736,11 +1732,11 @@
         <f>IF(_maxmin_day_hour!B2="","",_maxmin_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="X5" s="49" t="s">
+      <c r="X5" s="56" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1832,9 +1828,9 @@
         <f>IF(_maxmin_day_hour!B3="","",_maxmin_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="X6" s="50"/>
+      <c r="X6" s="57"/>
     </row>
-    <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -1926,9 +1922,9 @@
         <f>IF(_maxmin_day_hour!B4="","",_maxmin_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="X7" s="50"/>
+      <c r="X7" s="57"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -2020,9 +2016,9 @@
         <f>IF(_maxmin_day_hour!B5="","",_maxmin_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="X8" s="50"/>
+      <c r="X8" s="57"/>
     </row>
-    <row r="9" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -2114,9 +2110,9 @@
         <f>IF(_maxmin_day_hour!B6="","",_maxmin_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="X9" s="50"/>
+      <c r="X9" s="57"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -2208,9 +2204,9 @@
         <f>IF(_maxmin_day_hour!B7="","",_maxmin_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="X10" s="50"/>
+      <c r="X10" s="57"/>
     </row>
-    <row r="11" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -2302,9 +2298,9 @@
         <f>IF(_maxmin_day_hour!B8="","",_maxmin_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="X11" s="50"/>
+      <c r="X11" s="57"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -2396,9 +2392,9 @@
         <f>IF(_maxmin_day_hour!B9="","",_maxmin_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="X12" s="50"/>
+      <c r="X12" s="57"/>
     </row>
-    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -2490,11 +2486,11 @@
         <f>IF(_maxmin_day_hour!B10="","",_maxmin_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="X13" s="49" t="s">
+      <c r="X13" s="56" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -2586,9 +2582,9 @@
         <f>IF(_maxmin_day_hour!B11="","",_maxmin_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="X14" s="50"/>
+      <c r="X14" s="57"/>
     </row>
-    <row r="15" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -2680,9 +2676,9 @@
         <f>IF(_maxmin_day_hour!B12="","",_maxmin_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="X15" s="50"/>
+      <c r="X15" s="57"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -2774,9 +2770,9 @@
         <f>IF(_maxmin_day_hour!B13="","",_maxmin_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="X16" s="50"/>
+      <c r="X16" s="57"/>
     </row>
-    <row r="17" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -2868,9 +2864,9 @@
         <f>IF(_maxmin_day_hour!B14="","",_maxmin_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="X17" s="50"/>
+      <c r="X17" s="57"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
         <v>14</v>
       </c>
@@ -2962,9 +2958,9 @@
         <f>IF(_maxmin_day_hour!B15="","",_maxmin_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="X18" s="50"/>
+      <c r="X18" s="57"/>
     </row>
-    <row r="19" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -3056,9 +3052,9 @@
         <f>IF(_maxmin_day_hour!B16="","",_maxmin_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="X19" s="50"/>
+      <c r="X19" s="57"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>16</v>
       </c>
@@ -3150,9 +3146,9 @@
         <f>IF(_maxmin_day_hour!B17="","",_maxmin_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="X20" s="50"/>
+      <c r="X20" s="57"/>
     </row>
-    <row r="21" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>17</v>
       </c>
@@ -3244,11 +3240,11 @@
         <f>IF(_maxmin_day_hour!B18="","",_maxmin_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="X21" s="49" t="s">
+      <c r="X21" s="56" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
         <v>18</v>
       </c>
@@ -3340,9 +3336,9 @@
         <f>IF(_maxmin_day_hour!B19="","",_maxmin_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="X22" s="50"/>
+      <c r="X22" s="57"/>
     </row>
-    <row r="23" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>19</v>
       </c>
@@ -3434,9 +3430,9 @@
         <f>IF(_maxmin_day_hour!B20="","",_maxmin_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="X23" s="50"/>
+      <c r="X23" s="57"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
         <v>20</v>
       </c>
@@ -3528,9 +3524,9 @@
         <f>IF(_maxmin_day_hour!B21="","",_maxmin_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="X24" s="50"/>
+      <c r="X24" s="57"/>
     </row>
-    <row r="25" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>21</v>
       </c>
@@ -3622,9 +3618,9 @@
         <f>IF(_maxmin_day_hour!B22="","",_maxmin_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="X25" s="50"/>
+      <c r="X25" s="57"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
         <v>22</v>
       </c>
@@ -3716,9 +3712,9 @@
         <f>IF(_maxmin_day_hour!B23="","",_maxmin_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="X26" s="50"/>
+      <c r="X26" s="57"/>
     </row>
-    <row r="27" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
         <v>23</v>
       </c>
@@ -3810,9 +3806,9 @@
         <f>IF(_maxmin_day_hour!B24="","",_maxmin_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="X27" s="50"/>
+      <c r="X27" s="57"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A28" s="16">
         <v>24</v>
       </c>
@@ -3904,10 +3900,17 @@
         <f>IF(_maxmin_day_hour!B25="","",_maxmin_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="X28" s="51"/>
+      <c r="X28" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="X13:X20"/>
+    <mergeCell ref="X21:X28"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="X5:X12"/>
     <mergeCell ref="D1:Q1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C3:D3"/>
@@ -3917,13 +3920,6 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="X13:X20"/>
-    <mergeCell ref="X21:X28"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="X5:X12"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3941,26 +3937,26 @@
       <selection pane="bottomLeft" activeCell="BV11" sqref="BV11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="41" max="45" width="9.33203125"/>
-    <col min="48" max="52" width="9.33203125"/>
-    <col min="54" max="54" width="9.33203125"/>
-    <col min="56" max="58" width="9.33203125"/>
-    <col min="60" max="63" width="9.33203125"/>
-    <col min="66" max="67" width="9.33203125"/>
-    <col min="69" max="70" width="9.33203125"/>
-    <col min="72" max="76" width="9.33203125"/>
-    <col min="79" max="79" width="9.33203125"/>
-    <col min="80" max="83" width="10.33203125"/>
-    <col min="84" max="84" width="9.33203125"/>
-    <col min="86" max="87" width="10.33203125"/>
-    <col min="88" max="88" width="9.33203125"/>
-    <col min="89" max="90" width="10.33203125"/>
-    <col min="92" max="96" width="10.33203125"/>
+    <col min="41" max="45" width="9.375"/>
+    <col min="48" max="52" width="9.375"/>
+    <col min="54" max="54" width="9.375"/>
+    <col min="56" max="58" width="9.375"/>
+    <col min="60" max="63" width="9.375"/>
+    <col min="66" max="67" width="9.375"/>
+    <col min="69" max="70" width="9.375"/>
+    <col min="72" max="76" width="9.375"/>
+    <col min="79" max="79" width="9.375"/>
+    <col min="80" max="83" width="10.375"/>
+    <col min="84" max="84" width="9.375"/>
+    <col min="86" max="87" width="10.375"/>
+    <col min="88" max="88" width="9.375"/>
+    <col min="89" max="90" width="10.375"/>
+    <col min="92" max="96" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" s="2" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:114" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -4250,7 +4246,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:114" ht="78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:114" ht="57" x14ac:dyDescent="0.15">
       <c r="CA2" s="5" t="s">
         <v>91</v>
       </c>
@@ -4306,7 +4302,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.15">
       <c r="CA3" t="str">
         <f t="shared" ref="CA3:CA26" si="0">IF(AND(AO26="",BG26=""),"",AO26-BG26)</f>
         <v/>
@@ -4380,7 +4376,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.15">
       <c r="CA4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4454,7 +4450,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.15">
       <c r="CA5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4528,7 +4524,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.15">
       <c r="CA6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4602,7 +4598,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.15">
       <c r="CA7" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4676,7 +4672,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.15">
       <c r="CA8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4750,7 +4746,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.15">
       <c r="CA9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4824,7 +4820,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.15">
       <c r="CA10" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4898,7 +4894,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.15">
       <c r="CA11" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4972,7 +4968,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.15">
       <c r="CA12" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5046,7 +5042,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:114" x14ac:dyDescent="0.15">
       <c r="CA13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5120,7 +5116,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:114" x14ac:dyDescent="0.15">
       <c r="CA14" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5194,7 +5190,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:114" x14ac:dyDescent="0.15">
       <c r="CA15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5268,7 +5264,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:114" x14ac:dyDescent="0.15">
       <c r="CA16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5342,7 +5338,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="17" spans="22:114" x14ac:dyDescent="0.15">
       <c r="CA17" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5416,7 +5412,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="18" spans="22:114" x14ac:dyDescent="0.15">
       <c r="CA18" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5490,7 +5486,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="19" spans="22:114" x14ac:dyDescent="0.15">
       <c r="CA19" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5564,7 +5560,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="20" spans="22:114" x14ac:dyDescent="0.15">
       <c r="CA20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5638,7 +5634,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="21" spans="22:114" x14ac:dyDescent="0.15">
       <c r="CA21" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5712,7 +5708,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="22" spans="22:114" x14ac:dyDescent="0.15">
       <c r="CA22" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5786,7 +5782,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="23" spans="22:114" x14ac:dyDescent="0.15">
       <c r="CA23" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5860,7 +5856,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="24" spans="22:114" x14ac:dyDescent="0.15">
       <c r="CA24" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5934,7 +5930,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="25" spans="22:114" x14ac:dyDescent="0.15">
       <c r="V25" s="6"/>
       <c r="CA25" t="str">
         <f t="shared" si="0"/>
@@ -6009,7 +6005,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="26" spans="22:114" x14ac:dyDescent="0.15">
       <c r="V26" s="6"/>
       <c r="W26" t="str">
         <f>IF(A2="","",IF(A2=0,W2,""))</f>
@@ -6372,7 +6368,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="27" spans="22:114" x14ac:dyDescent="0.15">
       <c r="V27" s="6"/>
       <c r="W27" t="str">
         <f t="shared" ref="W27:W49" si="87">IF(A3="","",IF(A3=0,W3,""))</f>
@@ -6735,7 +6731,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="28" spans="22:114" x14ac:dyDescent="0.15">
       <c r="V28" s="6"/>
       <c r="W28" t="str">
         <f t="shared" si="87"/>
@@ -7098,7 +7094,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="29" spans="22:114" x14ac:dyDescent="0.15">
       <c r="V29" s="6"/>
       <c r="W29" t="str">
         <f t="shared" si="87"/>
@@ -7461,7 +7457,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="30" spans="22:114" x14ac:dyDescent="0.15">
       <c r="V30" s="6"/>
       <c r="W30" t="str">
         <f t="shared" si="87"/>
@@ -7824,7 +7820,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="31" spans="22:114" x14ac:dyDescent="0.15">
       <c r="V31" s="6"/>
       <c r="W31" t="str">
         <f t="shared" si="87"/>
@@ -8187,7 +8183,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="32" spans="22:114" x14ac:dyDescent="0.15">
       <c r="V32" s="6"/>
       <c r="W32" t="str">
         <f t="shared" si="87"/>
@@ -8478,7 +8474,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="33" spans="22:114" x14ac:dyDescent="0.15">
       <c r="V33" s="6"/>
       <c r="W33" t="str">
         <f t="shared" si="87"/>
@@ -8769,7 +8765,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="34" spans="22:114" x14ac:dyDescent="0.15">
       <c r="V34" s="6"/>
       <c r="W34" t="str">
         <f t="shared" si="87"/>
@@ -9060,7 +9056,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="35" spans="22:114" x14ac:dyDescent="0.15">
       <c r="V35" s="6"/>
       <c r="W35" t="str">
         <f t="shared" si="87"/>
@@ -9351,7 +9347,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="36" spans="22:114" x14ac:dyDescent="0.15">
       <c r="W36" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -9641,7 +9637,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="37" spans="22:114" x14ac:dyDescent="0.15">
       <c r="W37" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -9931,7 +9927,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="38" spans="22:114" x14ac:dyDescent="0.15">
       <c r="W38" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -10221,7 +10217,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="39" spans="22:114" x14ac:dyDescent="0.15">
       <c r="W39" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -10511,7 +10507,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="40" spans="22:114" x14ac:dyDescent="0.15">
       <c r="W40" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -10801,7 +10797,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="41" spans="22:114" x14ac:dyDescent="0.15">
       <c r="W41" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -11091,7 +11087,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="42" spans="22:114" x14ac:dyDescent="0.15">
       <c r="W42" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -11381,7 +11377,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="43" spans="22:114" x14ac:dyDescent="0.15">
       <c r="W43" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -11671,7 +11667,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="44" spans="22:114" x14ac:dyDescent="0.15">
       <c r="W44" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -11961,7 +11957,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="45" spans="22:114" x14ac:dyDescent="0.15">
       <c r="W45" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -12251,7 +12247,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="46" spans="22:114" x14ac:dyDescent="0.15">
       <c r="W46" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -12541,7 +12537,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="47" spans="22:114" x14ac:dyDescent="0.15">
       <c r="W47" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -12831,7 +12827,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="22:114" x14ac:dyDescent="0.25">
+    <row r="48" spans="22:114" x14ac:dyDescent="0.15">
       <c r="W48" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -13121,7 +13117,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="23:114" x14ac:dyDescent="0.25">
+    <row r="49" spans="23:114" x14ac:dyDescent="0.15">
       <c r="W49" t="str">
         <f t="shared" si="87"/>
         <v/>
@@ -13426,9 +13422,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="63" t="s">
         <v>131</v>
       </c>
@@ -13450,9 +13446,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>129</v>
       </c>
@@ -13483,7 +13479,7 @@
       <selection activeCell="F9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -13498,9 +13494,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>130</v>
       </c>
